--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R831"/>
+  <dimension ref="A1:R836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K814" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L814" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M814" t="n">
-        <v>30000</v>
+        <v>46579</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>2000</v>
+        <v>3105</v>
       </c>
       <c r="Q814" t="n">
         <v>15</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K815" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L815" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M815" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="Q815" t="n">
         <v>15</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E816" t="n">
         <v>9</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="K816" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L816" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M816" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>1667</v>
+        <v>3000</v>
       </c>
       <c r="Q816" t="n">
         <v>15</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K817" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="L817" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M817" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>1733</v>
+        <v>3000</v>
       </c>
       <c r="Q817" t="n">
         <v>15</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="K818" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L818" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="M818" t="n">
-        <v>20000</v>
+        <v>41520</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>1333</v>
+        <v>2768</v>
       </c>
       <c r="Q818" t="n">
         <v>15</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="K819" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L819" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M819" t="n">
-        <v>13471</v>
+        <v>30000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>898</v>
+        <v>2000</v>
       </c>
       <c r="Q819" t="n">
         <v>15</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="K820" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L820" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M820" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>1533</v>
+        <v>2000</v>
       </c>
       <c r="Q820" t="n">
         <v>15</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -59460,41 +59460,41 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="K821" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L821" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M821" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="Q821" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R821" t="inlineStr">
         <is>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -59532,7 +59532,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -59541,32 +59541,32 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K822" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L822" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M822" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1111</v>
+        <v>1733</v>
       </c>
       <c r="Q822" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R822" t="inlineStr">
         <is>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K823" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L823" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M823" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>2333</v>
+        <v>1333</v>
       </c>
       <c r="Q823" t="n">
         <v>15</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K824" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L824" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M824" t="n">
-        <v>21000</v>
+        <v>13471</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>1400</v>
+        <v>898</v>
       </c>
       <c r="Q824" t="n">
         <v>15</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>600</v>
+        <v>210</v>
       </c>
       <c r="K825" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L825" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="M825" t="n">
-        <v>18500</v>
+        <v>23000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>1233</v>
+        <v>1533</v>
       </c>
       <c r="Q825" t="n">
         <v>15</v>
@@ -59820,41 +59820,41 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K826" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L826" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M826" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>1133</v>
+        <v>1444</v>
       </c>
       <c r="Q826" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R826" t="inlineStr">
         <is>
@@ -59892,16 +59892,16 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K827" t="n">
         <v>20000</v>
@@ -59914,19 +59914,19 @@
       </c>
       <c r="N827" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>1333</v>
+        <v>1111</v>
       </c>
       <c r="Q827" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R827" t="inlineStr">
         <is>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K828" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L828" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M828" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1200</v>
+        <v>2333</v>
       </c>
       <c r="Q828" t="n">
         <v>15</v>
@@ -60036,25 +60036,25 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K829" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L829" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M829" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q829" t="n">
         <v>15</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="K830" t="n">
         <v>18000</v>
       </c>
       <c r="L830" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M830" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>1200</v>
+        <v>1233</v>
       </c>
       <c r="Q830" t="n">
         <v>15</v>
@@ -60165,58 +60165,418 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E831" t="n">
+        <v>9</v>
+      </c>
+      <c r="F831" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J831" t="n">
+        <v>50</v>
+      </c>
+      <c r="K831" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L831" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M831" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N831" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O831" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P831" t="n">
+        <v>1133</v>
+      </c>
+      <c r="Q831" t="n">
+        <v>15</v>
+      </c>
+      <c r="R831" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>10</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D832" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E832" t="n">
+        <v>9</v>
+      </c>
+      <c r="F832" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J832" t="n">
+        <v>30</v>
+      </c>
+      <c r="K832" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L832" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M832" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N832" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O832" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P832" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Q832" t="n">
+        <v>15</v>
+      </c>
+      <c r="R832" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>10</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D833" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E833" t="n">
+        <v>9</v>
+      </c>
+      <c r="F833" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J833" t="n">
+        <v>300</v>
+      </c>
+      <c r="K833" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L833" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M833" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N833" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O833" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P833" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q833" t="n">
+        <v>15</v>
+      </c>
+      <c r="R833" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>10</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D834" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E834" t="n">
+        <v>9</v>
+      </c>
+      <c r="F834" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J834" t="n">
+        <v>40</v>
+      </c>
+      <c r="K834" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L834" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M834" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N834" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P834" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q834" t="n">
+        <v>15</v>
+      </c>
+      <c r="R834" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>10</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D835" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E831" t="n">
-        <v>9</v>
-      </c>
-      <c r="F831" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G831" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H831" t="inlineStr">
+      <c r="E835" t="n">
+        <v>9</v>
+      </c>
+      <c r="F835" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J835" t="n">
+        <v>140</v>
+      </c>
+      <c r="K835" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L835" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M835" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N835" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O835" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P835" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q835" t="n">
+        <v>15</v>
+      </c>
+      <c r="R835" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>10</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D836" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E836" t="n">
+        <v>9</v>
+      </c>
+      <c r="F836" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I831" t="inlineStr">
+      <c r="I836" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J831" t="n">
+      <c r="J836" t="n">
         <v>90</v>
       </c>
-      <c r="K831" t="n">
+      <c r="K836" t="n">
         <v>18000</v>
       </c>
-      <c r="L831" t="n">
+      <c r="L836" t="n">
         <v>18000</v>
       </c>
-      <c r="M831" t="n">
+      <c r="M836" t="n">
         <v>18000</v>
       </c>
-      <c r="N831" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O831" t="inlineStr">
+      <c r="N836" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O836" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P831" t="n">
+      <c r="P836" t="n">
         <v>1200</v>
       </c>
-      <c r="Q831" t="n">
-        <v>15</v>
-      </c>
-      <c r="R831" t="inlineStr">
+      <c r="Q836" t="n">
+        <v>15</v>
+      </c>
+      <c r="R836" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R871"/>
+  <dimension ref="A1:R873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -58020,7 +58020,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -58029,32 +58029,32 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K801" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L801" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M801" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>833</v>
+        <v>2667</v>
       </c>
       <c r="Q801" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -58101,32 +58101,32 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K802" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L802" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="M802" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>1000</v>
+        <v>2133</v>
       </c>
       <c r="Q802" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R802" t="inlineStr">
         <is>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,32 +58173,32 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K803" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L803" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M803" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="Q803" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R803" t="inlineStr">
         <is>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,32 +58245,32 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K804" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L804" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M804" t="n">
-        <v>15583</v>
+        <v>18000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>1039</v>
+        <v>1000</v>
       </c>
       <c r="Q804" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R804" t="inlineStr">
         <is>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -58308,7 +58308,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K805" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L805" t="n">
         <v>17000</v>
       </c>
-      <c r="L805" t="n">
-        <v>20000</v>
-      </c>
       <c r="M805" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>1267</v>
+        <v>1100</v>
       </c>
       <c r="Q805" t="n">
         <v>15</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -58380,25 +58380,25 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="K806" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L806" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M806" t="n">
-        <v>13875</v>
+        <v>15583</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>925</v>
+        <v>1039</v>
       </c>
       <c r="Q806" t="n">
         <v>15</v>
@@ -58452,41 +58452,41 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="K807" t="n">
-        <v>53000</v>
+        <v>17000</v>
       </c>
       <c r="L807" t="n">
-        <v>53000</v>
+        <v>20000</v>
       </c>
       <c r="M807" t="n">
-        <v>53000</v>
+        <v>19000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>2944</v>
+        <v>1267</v>
       </c>
       <c r="Q807" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58524,41 +58524,41 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K808" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="L808" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M808" t="n">
-        <v>50000</v>
+        <v>13875</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>2778</v>
+        <v>925</v>
       </c>
       <c r="Q808" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R808" t="inlineStr">
         <is>
@@ -58596,41 +58596,41 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="K809" t="n">
-        <v>35000</v>
+        <v>53000</v>
       </c>
       <c r="L809" t="n">
-        <v>35000</v>
+        <v>53000</v>
       </c>
       <c r="M809" t="n">
-        <v>35000</v>
+        <v>53000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>2333</v>
+        <v>2944</v>
       </c>
       <c r="Q809" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58673,36 +58673,36 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K810" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L810" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M810" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>2000</v>
+        <v>2778</v>
       </c>
       <c r="Q810" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R810" t="inlineStr">
         <is>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="K811" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L811" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M811" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>1667</v>
+        <v>2333</v>
       </c>
       <c r="Q811" t="n">
         <v>15</v>
@@ -58812,25 +58812,25 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K812" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L812" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M812" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>2133</v>
+        <v>2000</v>
       </c>
       <c r="Q812" t="n">
         <v>15</v>
@@ -58884,41 +58884,41 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K813" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L813" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M813" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>2778</v>
+        <v>1667</v>
       </c>
       <c r="Q813" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R813" t="inlineStr">
         <is>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K814" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L814" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M814" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>2000</v>
+        <v>2133</v>
       </c>
       <c r="Q814" t="n">
         <v>15</v>
@@ -59033,36 +59033,36 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K815" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="L815" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="M815" t="n">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>1667</v>
+        <v>2778</v>
       </c>
       <c r="Q815" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R815" t="inlineStr">
         <is>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K816" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L816" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M816" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>1067</v>
+        <v>2000</v>
       </c>
       <c r="Q816" t="n">
         <v>15</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -59172,25 +59172,25 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K817" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L817" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M817" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>2333</v>
+        <v>1667</v>
       </c>
       <c r="Q817" t="n">
         <v>15</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -59249,36 +59249,36 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J818" t="n">
         <v>50</v>
       </c>
       <c r="K818" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L818" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M818" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>1389</v>
+        <v>1067</v>
       </c>
       <c r="Q818" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R818" t="inlineStr">
         <is>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -59316,41 +59316,41 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K819" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L819" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M819" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>1556</v>
+        <v>2333</v>
       </c>
       <c r="Q819" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K820" t="n">
         <v>25000</v>
       </c>
       <c r="L820" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M820" t="n">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>1417</v>
+        <v>1389</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,32 +59469,32 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K821" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L821" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M821" t="n">
-        <v>22556</v>
+        <v>28000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>1504</v>
+        <v>1556</v>
       </c>
       <c r="Q821" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R821" t="inlineStr">
         <is>
@@ -59532,7 +59532,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -59541,32 +59541,32 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K822" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L822" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M822" t="n">
-        <v>20000</v>
+        <v>25500</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="Q822" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R822" t="inlineStr">
         <is>
@@ -59604,7 +59604,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K823" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L823" t="n">
         <v>23000</v>
       </c>
       <c r="M823" t="n">
-        <v>23000</v>
+        <v>22556</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>1533</v>
+        <v>1504</v>
       </c>
       <c r="Q823" t="n">
         <v>15</v>
@@ -59676,7 +59676,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -59685,7 +59685,7 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K824" t="n">
         <v>20000</v>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K825" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L825" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M825" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>1133</v>
+        <v>1533</v>
       </c>
       <c r="Q825" t="n">
         <v>15</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -59820,41 +59820,41 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K826" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L826" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M826" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>1944</v>
+        <v>1333</v>
       </c>
       <c r="Q826" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R826" t="inlineStr">
         <is>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -59892,25 +59892,25 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K827" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="L827" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="M827" t="n">
-        <v>47000</v>
+        <v>17000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>3133</v>
+        <v>1133</v>
       </c>
       <c r="Q827" t="n">
         <v>15</v>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59973,32 +59973,32 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K828" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L828" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M828" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1867</v>
+        <v>1944</v>
       </c>
       <c r="Q828" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R828" t="inlineStr">
         <is>
@@ -60036,25 +60036,25 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="K829" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="L829" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="M829" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>1333</v>
+        <v>3133</v>
       </c>
       <c r="Q829" t="n">
         <v>15</v>
@@ -60108,7 +60108,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -60117,7 +60117,7 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K830" t="n">
         <v>28000</v>
@@ -60180,7 +60180,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -60189,7 +60189,7 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K831" t="n">
         <v>20000</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -60252,25 +60252,25 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K832" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L832" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M832" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>1000</v>
+        <v>1867</v>
       </c>
       <c r="Q832" t="n">
         <v>15</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -60324,25 +60324,25 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K833" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L833" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M833" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="Q833" t="n">
         <v>15</v>
@@ -60396,7 +60396,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K834" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L834" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M834" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q834" t="n">
         <v>15</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60480,13 +60480,13 @@
         <v>30</v>
       </c>
       <c r="K835" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="L835" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="M835" t="n">
-        <v>34000</v>
+        <v>13000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>2267</v>
+        <v>867</v>
       </c>
       <c r="Q835" t="n">
         <v>15</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,16 +60549,16 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K836" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L836" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M836" t="n">
-        <v>25471</v>
+        <v>10000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>1698</v>
+        <v>667</v>
       </c>
       <c r="Q836" t="n">
         <v>15</v>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K837" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L837" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="M837" t="n">
-        <v>25625</v>
+        <v>34000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>1708</v>
+        <v>2267</v>
       </c>
       <c r="Q837" t="n">
         <v>15</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K838" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L838" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M838" t="n">
-        <v>14000</v>
+        <v>25471</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>933</v>
+        <v>1698</v>
       </c>
       <c r="Q838" t="n">
         <v>15</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -60756,25 +60756,25 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K839" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L839" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M839" t="n">
-        <v>10000</v>
+        <v>25625</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>667</v>
+        <v>1708</v>
       </c>
       <c r="Q839" t="n">
         <v>15</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="K840" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L840" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M840" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1533</v>
+        <v>933</v>
       </c>
       <c r="Q840" t="n">
         <v>15</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -60900,25 +60900,25 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K841" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L841" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M841" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="Q841" t="n">
         <v>15</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="K842" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L842" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M842" t="n">
-        <v>13475</v>
+        <v>23000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>898</v>
+        <v>1533</v>
       </c>
       <c r="Q842" t="n">
         <v>15</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -61044,25 +61044,25 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K843" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="L843" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="M843" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>733</v>
+        <v>2000</v>
       </c>
       <c r="Q843" t="n">
         <v>15</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="K844" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L844" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M844" t="n">
-        <v>22764</v>
+        <v>13475</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>1518</v>
+        <v>898</v>
       </c>
       <c r="Q844" t="n">
         <v>15</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61188,41 +61188,41 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K845" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L845" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M845" t="n">
-        <v>17550</v>
+        <v>11000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>975</v>
+        <v>733</v>
       </c>
       <c r="Q845" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="K846" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L846" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M846" t="n">
-        <v>17419</v>
+        <v>22764</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1161</v>
+        <v>1518</v>
       </c>
       <c r="Q846" t="n">
         <v>15</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,32 +61341,32 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K847" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L847" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M847" t="n">
-        <v>15000</v>
+        <v>17550</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="Q847" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61404,7 +61404,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K848" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L848" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M848" t="n">
-        <v>13000</v>
+        <v>17419</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>867</v>
+        <v>1161</v>
       </c>
       <c r="Q848" t="n">
         <v>15</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61485,32 +61485,32 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="K849" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L849" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M849" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q849" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K850" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L850" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M850" t="n">
-        <v>14542</v>
+        <v>13000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>969</v>
+        <v>867</v>
       </c>
       <c r="Q850" t="n">
         <v>15</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K851" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L851" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M851" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61704,29 +61704,29 @@
         <v>120</v>
       </c>
       <c r="K852" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L852" t="n">
         <v>15000</v>
       </c>
       <c r="M852" t="n">
-        <v>15000</v>
+        <v>14542</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>833</v>
+        <v>969</v>
       </c>
       <c r="Q852" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K853" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L853" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M853" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,32 +61845,32 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K854" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L854" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M854" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>2333</v>
+        <v>833</v>
       </c>
       <c r="Q854" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61908,41 +61908,41 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K855" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L855" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M855" t="n">
-        <v>19600</v>
+        <v>13000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>1307</v>
+        <v>722</v>
       </c>
       <c r="Q855" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R855" t="inlineStr">
         <is>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K856" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L856" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M856" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>1133</v>
+        <v>2333</v>
       </c>
       <c r="Q856" t="n">
         <v>15</v>
@@ -62052,25 +62052,25 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K857" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L857" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M857" t="n">
-        <v>15455</v>
+        <v>19600</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>1030</v>
+        <v>1307</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -62124,25 +62124,25 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K858" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L858" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M858" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1333</v>
+        <v>1133</v>
       </c>
       <c r="Q858" t="n">
         <v>15</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="K859" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L859" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M859" t="n">
-        <v>18468</v>
+        <v>15455</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1231</v>
+        <v>1030</v>
       </c>
       <c r="Q859" t="n">
         <v>15</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K860" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L860" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M860" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>800</v>
+        <v>1333</v>
       </c>
       <c r="Q860" t="n">
         <v>15</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="K861" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L861" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M861" t="n">
-        <v>25521</v>
+        <v>18468</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>1701</v>
+        <v>1231</v>
       </c>
       <c r="Q861" t="n">
         <v>15</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62412,25 +62412,25 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="K862" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="L862" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="M862" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>3333</v>
+        <v>800</v>
       </c>
       <c r="Q862" t="n">
         <v>15</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="K863" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L863" t="n">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="M863" t="n">
-        <v>45000</v>
+        <v>25521</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>3000</v>
+        <v>1701</v>
       </c>
       <c r="Q863" t="n">
         <v>15</v>
@@ -62556,25 +62556,25 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K864" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="L864" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="M864" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>2867</v>
+        <v>3333</v>
       </c>
       <c r="Q864" t="n">
         <v>15</v>
@@ -62628,7 +62628,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -62640,13 +62640,13 @@
         <v>100</v>
       </c>
       <c r="K865" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L865" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M865" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q865" t="n">
         <v>15</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62700,41 +62700,41 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K866" t="n">
-        <v>14000</v>
+        <v>43000</v>
       </c>
       <c r="L866" t="n">
-        <v>14000</v>
+        <v>43000</v>
       </c>
       <c r="M866" t="n">
-        <v>14000</v>
+        <v>43000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>778</v>
+        <v>2867</v>
       </c>
       <c r="Q866" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62772,41 +62772,41 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K867" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L867" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M867" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="Q867" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62844,41 +62844,41 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K868" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L868" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M868" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>1333</v>
+        <v>778</v>
       </c>
       <c r="Q868" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62916,41 +62916,41 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K869" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L869" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M869" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="Q869" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62988,25 +62988,25 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="K870" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L870" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M870" t="n">
-        <v>16522</v>
+        <v>20000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>1101</v>
+        <v>1333</v>
       </c>
       <c r="Q870" t="n">
         <v>15</v>
@@ -63060,43 +63060,187 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J871" t="n">
+        <v>55</v>
+      </c>
+      <c r="K871" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L871" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M871" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O871" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P871" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>15</v>
+      </c>
+      <c r="R871" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>10</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D872" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E872" t="n">
+        <v>9</v>
+      </c>
+      <c r="F872" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J872" t="n">
+        <v>115</v>
+      </c>
+      <c r="K872" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L872" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M872" t="n">
+        <v>16522</v>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O872" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P872" t="n">
+        <v>1101</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>15</v>
+      </c>
+      <c r="R872" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>10</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D873" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E873" t="n">
+        <v>9</v>
+      </c>
+      <c r="F873" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I871" t="inlineStr">
+      <c r="I873" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J871" t="n">
+      <c r="J873" t="n">
         <v>125</v>
       </c>
-      <c r="K871" t="n">
+      <c r="K873" t="n">
         <v>10000</v>
       </c>
-      <c r="L871" t="n">
+      <c r="L873" t="n">
         <v>10000</v>
       </c>
-      <c r="M871" t="n">
+      <c r="M873" t="n">
         <v>10000</v>
       </c>
-      <c r="N871" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O871" t="inlineStr">
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O873" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P871" t="n">
+      <c r="P873" t="n">
         <v>667</v>
       </c>
-      <c r="Q871" t="n">
-        <v>15</v>
-      </c>
-      <c r="R871" t="inlineStr">
+      <c r="Q873" t="n">
+        <v>15</v>
+      </c>
+      <c r="R873" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R899"/>
+  <dimension ref="A1:R903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -56220,41 +56220,41 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J776" t="n">
         <v>20</v>
       </c>
       <c r="K776" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="L776" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="M776" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>2222</v>
+        <v>3667</v>
       </c>
       <c r="Q776" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -56292,41 +56292,41 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K777" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="L777" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="M777" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>1778</v>
+        <v>3333</v>
       </c>
       <c r="Q777" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -56364,25 +56364,25 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K778" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="L778" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M778" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>2667</v>
+        <v>3000</v>
       </c>
       <c r="Q778" t="n">
         <v>15</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -56436,12 +56436,12 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
@@ -56508,7 +56508,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -56517,32 +56517,32 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="K780" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L780" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M780" t="n">
-        <v>33909</v>
+        <v>40000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>2261</v>
+        <v>2222</v>
       </c>
       <c r="Q780" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56580,16 +56580,16 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K781" t="n">
         <v>32000</v>
@@ -56602,19 +56602,19 @@
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>2133</v>
+        <v>1778</v>
       </c>
       <c r="Q781" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -56661,16 +56661,16 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K782" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L782" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M782" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>1933</v>
+        <v>2667</v>
       </c>
       <c r="Q782" t="n">
         <v>15</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -56724,41 +56724,41 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K783" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="L783" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M783" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>944</v>
+        <v>2667</v>
       </c>
       <c r="Q783" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R783" t="inlineStr">
         <is>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56805,16 +56805,16 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="K784" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="L784" t="n">
         <v>35000</v>
       </c>
       <c r="M784" t="n">
-        <v>35000</v>
+        <v>33909</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>2333</v>
+        <v>2261</v>
       </c>
       <c r="Q784" t="n">
         <v>15</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -56868,25 +56868,25 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="K785" t="n">
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="L785" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="M785" t="n">
-        <v>17417</v>
+        <v>32000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>1161</v>
+        <v>2133</v>
       </c>
       <c r="Q785" t="n">
         <v>15</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="K786" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L786" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M786" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>1000</v>
+        <v>1933</v>
       </c>
       <c r="Q786" t="n">
         <v>15</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57021,32 +57021,32 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K787" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L787" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M787" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="Q787" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57093,32 +57093,32 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K788" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L788" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M788" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>667</v>
+        <v>2333</v>
       </c>
       <c r="Q788" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -57156,41 +57156,41 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="K789" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L789" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M789" t="n">
-        <v>10000</v>
+        <v>17417</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>556</v>
+        <v>1161</v>
       </c>
       <c r="Q789" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -57228,7 +57228,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -57240,13 +57240,13 @@
         <v>80</v>
       </c>
       <c r="K790" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L790" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M790" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q790" t="n">
         <v>15</v>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K791" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L791" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M791" t="n">
-        <v>13700</v>
+        <v>12500</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>913</v>
+        <v>833</v>
       </c>
       <c r="Q791" t="n">
         <v>15</v>
@@ -57372,7 +57372,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -57381,7 +57381,7 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K792" t="n">
         <v>12000</v>
@@ -57394,19 +57394,19 @@
       </c>
       <c r="N792" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q792" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R792" t="inlineStr">
         <is>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -57444,41 +57444,41 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K793" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L793" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M793" t="n">
-        <v>17400</v>
+        <v>10000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>1160</v>
+        <v>556</v>
       </c>
       <c r="Q793" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -57516,25 +57516,25 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K794" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L794" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M794" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>2000</v>
+        <v>1333</v>
       </c>
       <c r="Q794" t="n">
         <v>15</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -57593,36 +57593,36 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K795" t="n">
-        <v>45000</v>
+        <v>13500</v>
       </c>
       <c r="L795" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M795" t="n">
-        <v>45000</v>
+        <v>13700</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>2500</v>
+        <v>913</v>
       </c>
       <c r="Q795" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -57660,7 +57660,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -57669,16 +57669,16 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K796" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L796" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M796" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="Q796" t="n">
         <v>15</v>
@@ -57732,7 +57732,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -57741,16 +57741,16 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K797" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L797" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M797" t="n">
-        <v>14529</v>
+        <v>17400</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>969</v>
+        <v>1160</v>
       </c>
       <c r="Q797" t="n">
         <v>15</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -57804,41 +57804,41 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K798" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L798" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M798" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q798" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R798" t="inlineStr">
         <is>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -57876,41 +57876,41 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K799" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L799" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M799" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>2333</v>
+        <v>2500</v>
       </c>
       <c r="Q799" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E800" t="n">
         <v>9</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K800" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L800" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M800" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>1133</v>
+        <v>1667</v>
       </c>
       <c r="Q800" t="n">
         <v>15</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -58029,16 +58029,16 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="K801" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L801" t="n">
         <v>15000</v>
       </c>
       <c r="M801" t="n">
-        <v>15000</v>
+        <v>14529</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>1000</v>
+        <v>969</v>
       </c>
       <c r="Q801" t="n">
         <v>15</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -58092,41 +58092,41 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J802" t="n">
         <v>40</v>
       </c>
       <c r="K802" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="L802" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M802" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q802" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R802" t="inlineStr">
         <is>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K803" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L803" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M803" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>2667</v>
+        <v>2333</v>
       </c>
       <c r="Q803" t="n">
         <v>15</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K804" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L804" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M804" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>2000</v>
+        <v>1133</v>
       </c>
       <c r="Q804" t="n">
         <v>15</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -58308,7 +58308,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="K805" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L805" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M805" t="n">
-        <v>18936</v>
+        <v>15000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>1262</v>
+        <v>1000</v>
       </c>
       <c r="Q805" t="n">
         <v>15</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -58380,25 +58380,25 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>285</v>
+        <v>40</v>
       </c>
       <c r="K806" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="L806" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="M806" t="n">
-        <v>13544</v>
+        <v>45000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>903</v>
+        <v>3000</v>
       </c>
       <c r="Q806" t="n">
         <v>15</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -58452,16 +58452,16 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K807" t="n">
         <v>40000</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -58524,7 +58524,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -58533,16 +58533,16 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K808" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L808" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M808" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>1133</v>
+        <v>2000</v>
       </c>
       <c r="Q808" t="n">
         <v>15</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -58596,7 +58596,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -58605,16 +58605,16 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="K809" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L809" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M809" t="n">
-        <v>16455</v>
+        <v>18936</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>1097</v>
+        <v>1262</v>
       </c>
       <c r="Q809" t="n">
         <v>15</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58677,32 +58677,32 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="K810" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L810" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M810" t="n">
-        <v>12000</v>
+        <v>13544</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>667</v>
+        <v>903</v>
       </c>
       <c r="Q810" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R810" t="inlineStr">
         <is>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -58740,25 +58740,25 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="K811" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L811" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M811" t="n">
-        <v>18880</v>
+        <v>40000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>1259</v>
+        <v>2667</v>
       </c>
       <c r="Q811" t="n">
         <v>15</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E812" t="n">
         <v>9</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K812" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L812" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M812" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>933</v>
+        <v>1133</v>
       </c>
       <c r="Q812" t="n">
         <v>15</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E813" t="n">
         <v>9</v>
@@ -58893,16 +58893,16 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="K813" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L813" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M813" t="n">
-        <v>12579</v>
+        <v>16455</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>839</v>
+        <v>1097</v>
       </c>
       <c r="Q813" t="n">
         <v>15</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -58956,7 +58956,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -58965,32 +58965,32 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="K814" t="n">
         <v>12000</v>
       </c>
       <c r="L814" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M814" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="Q814" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R814" t="inlineStr">
         <is>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K815" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L815" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M815" t="n">
-        <v>35000</v>
+        <v>18880</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>2333</v>
+        <v>1259</v>
       </c>
       <c r="Q815" t="n">
         <v>15</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E816" t="n">
         <v>9</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="K816" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L816" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M816" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>1667</v>
+        <v>933</v>
       </c>
       <c r="Q816" t="n">
         <v>15</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -59172,7 +59172,7 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -59181,32 +59181,32 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="K817" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="L817" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M817" t="n">
-        <v>45000</v>
+        <v>12579</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>2500</v>
+        <v>839</v>
       </c>
       <c r="Q817" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R817" t="inlineStr">
         <is>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K818" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L818" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M818" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="Q818" t="n">
         <v>15</v>
@@ -59316,41 +59316,41 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J819" t="n">
         <v>50</v>
       </c>
       <c r="K819" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L819" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M819" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>1667</v>
+        <v>2333</v>
       </c>
       <c r="Q819" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K820" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L820" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M820" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>1100</v>
+        <v>1667</v>
       </c>
       <c r="Q820" t="n">
         <v>15</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -59465,36 +59465,36 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K821" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L821" t="n">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="M821" t="n">
-        <v>36154</v>
+        <v>45000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>2410</v>
+        <v>2500</v>
       </c>
       <c r="Q821" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R821" t="inlineStr">
         <is>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -59532,7 +59532,7 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K822" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L822" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M822" t="n">
-        <v>28500</v>
+        <v>20000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1900</v>
+        <v>1333</v>
       </c>
       <c r="Q822" t="n">
         <v>15</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -59604,41 +59604,41 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K823" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L823" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M823" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P823" t="n">
         <v>1667</v>
       </c>
       <c r="Q823" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R823" t="inlineStr">
         <is>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K824" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L824" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M824" t="n">
-        <v>35000</v>
+        <v>16500</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>2333</v>
+        <v>1100</v>
       </c>
       <c r="Q824" t="n">
         <v>15</v>
@@ -59748,25 +59748,25 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K825" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L825" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M825" t="n">
-        <v>30000</v>
+        <v>36154</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>2000</v>
+        <v>2410</v>
       </c>
       <c r="Q825" t="n">
         <v>15</v>
@@ -59820,25 +59820,25 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="K826" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L826" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M826" t="n">
-        <v>15000</v>
+        <v>28500</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="Q826" t="n">
         <v>15</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K827" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L827" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M827" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>2667</v>
+        <v>1667</v>
       </c>
       <c r="Q827" t="n">
         <v>15</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K828" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L828" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M828" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>2133</v>
+        <v>2333</v>
       </c>
       <c r="Q828" t="n">
         <v>15</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,32 +60045,32 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K829" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L829" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M829" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>833</v>
+        <v>2000</v>
       </c>
       <c r="Q829" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R829" t="inlineStr">
         <is>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60108,41 +60108,41 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K830" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L830" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M830" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P830" t="n">
         <v>1000</v>
       </c>
       <c r="Q830" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R830" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="K831" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L831" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M831" t="n">
-        <v>16500</v>
+        <v>40000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>1100</v>
+        <v>2667</v>
       </c>
       <c r="Q831" t="n">
         <v>15</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K832" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="L832" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="M832" t="n">
-        <v>15583</v>
+        <v>32000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>1039</v>
+        <v>2133</v>
       </c>
       <c r="Q832" t="n">
         <v>15</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -60333,32 +60333,32 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="K833" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L833" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M833" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>1267</v>
+        <v>833</v>
       </c>
       <c r="Q833" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -60396,41 +60396,41 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K834" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L834" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M834" t="n">
-        <v>13875</v>
+        <v>18000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>925</v>
+        <v>1000</v>
       </c>
       <c r="Q834" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R834" t="inlineStr">
         <is>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -60468,41 +60468,41 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K835" t="n">
-        <v>53000</v>
+        <v>16000</v>
       </c>
       <c r="L835" t="n">
-        <v>53000</v>
+        <v>17000</v>
       </c>
       <c r="M835" t="n">
-        <v>53000</v>
+        <v>16500</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>2944</v>
+        <v>1100</v>
       </c>
       <c r="Q835" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -60540,41 +60540,41 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="K836" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L836" t="n">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="M836" t="n">
-        <v>50000</v>
+        <v>15583</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>2778</v>
+        <v>1039</v>
       </c>
       <c r="Q836" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K837" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L837" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M837" t="n">
-        <v>35000</v>
+        <v>19000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>2333</v>
+        <v>1267</v>
       </c>
       <c r="Q837" t="n">
         <v>15</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K838" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L838" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M838" t="n">
-        <v>30000</v>
+        <v>13875</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>2000</v>
+        <v>925</v>
       </c>
       <c r="Q838" t="n">
         <v>15</v>
@@ -60756,41 +60756,41 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J839" t="n">
         <v>50</v>
       </c>
       <c r="K839" t="n">
-        <v>25000</v>
+        <v>53000</v>
       </c>
       <c r="L839" t="n">
-        <v>25000</v>
+        <v>53000</v>
       </c>
       <c r="M839" t="n">
-        <v>25000</v>
+        <v>53000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>1667</v>
+        <v>2944</v>
       </c>
       <c r="Q839" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,32 +60837,32 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K840" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="L840" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="M840" t="n">
-        <v>32000</v>
+        <v>50000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>2133</v>
+        <v>2778</v>
       </c>
       <c r="Q840" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60900,41 +60900,41 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="K841" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L841" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M841" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>2778</v>
+        <v>2333</v>
       </c>
       <c r="Q841" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60972,16 +60972,16 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K842" t="n">
         <v>30000</v>
@@ -61044,16 +61044,16 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K843" t="n">
         <v>25000</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J844" t="n">
         <v>50</v>
       </c>
       <c r="K844" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L844" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="M844" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>1067</v>
+        <v>2133</v>
       </c>
       <c r="Q844" t="n">
         <v>15</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61188,41 +61188,41 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K845" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="L845" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M845" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>2333</v>
+        <v>2778</v>
       </c>
       <c r="Q845" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61269,32 +61269,32 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K846" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L846" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M846" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1389</v>
+        <v>2000</v>
       </c>
       <c r="Q846" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61332,41 +61332,41 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K847" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L847" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M847" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>1556</v>
+        <v>1667</v>
       </c>
       <c r="Q847" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61404,41 +61404,41 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K848" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L848" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M848" t="n">
-        <v>25500</v>
+        <v>16000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1417</v>
+        <v>1067</v>
       </c>
       <c r="Q848" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R848" t="inlineStr">
         <is>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K849" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L849" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M849" t="n">
-        <v>22556</v>
+        <v>35000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>1504</v>
+        <v>2333</v>
       </c>
       <c r="Q849" t="n">
         <v>15</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61557,32 +61557,32 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="K850" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L850" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M850" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>1333</v>
+        <v>1389</v>
       </c>
       <c r="Q850" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R850" t="inlineStr">
         <is>
@@ -61620,7 +61620,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -61629,32 +61629,32 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K851" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L851" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M851" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>1533</v>
+        <v>1556</v>
       </c>
       <c r="Q851" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61704,29 +61704,29 @@
         <v>200</v>
       </c>
       <c r="K852" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L852" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M852" t="n">
-        <v>20000</v>
+        <v>25500</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1333</v>
+        <v>1417</v>
       </c>
       <c r="Q852" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61764,25 +61764,25 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K853" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L853" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M853" t="n">
-        <v>17000</v>
+        <v>22556</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1133</v>
+        <v>1504</v>
       </c>
       <c r="Q853" t="n">
         <v>15</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61836,41 +61836,41 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="K854" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L854" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M854" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1944</v>
+        <v>1333</v>
       </c>
       <c r="Q854" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61908,7 +61908,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K855" t="n">
-        <v>47000</v>
+        <v>23000</v>
       </c>
       <c r="L855" t="n">
-        <v>47000</v>
+        <v>23000</v>
       </c>
       <c r="M855" t="n">
-        <v>47000</v>
+        <v>23000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>3133</v>
+        <v>1533</v>
       </c>
       <c r="Q855" t="n">
         <v>15</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61980,25 +61980,25 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K856" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L856" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M856" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>1867</v>
+        <v>1333</v>
       </c>
       <c r="Q856" t="n">
         <v>15</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62052,25 +62052,25 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K857" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L857" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M857" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>1333</v>
+        <v>1133</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62133,32 +62133,32 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K858" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L858" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M858" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1867</v>
+        <v>1944</v>
       </c>
       <c r="Q858" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62196,25 +62196,25 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="K859" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="L859" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="M859" t="n">
-        <v>20000</v>
+        <v>47000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1333</v>
+        <v>3133</v>
       </c>
       <c r="Q859" t="n">
         <v>15</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62268,25 +62268,25 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J860" t="n">
         <v>50</v>
       </c>
       <c r="K860" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L860" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M860" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>1000</v>
+        <v>1867</v>
       </c>
       <c r="Q860" t="n">
         <v>15</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62340,25 +62340,25 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K861" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L861" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M861" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="Q861" t="n">
         <v>15</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62412,25 +62412,25 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K862" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L862" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M862" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>667</v>
+        <v>1867</v>
       </c>
       <c r="Q862" t="n">
         <v>15</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62484,25 +62484,25 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K863" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L863" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M863" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>2267</v>
+        <v>1333</v>
       </c>
       <c r="Q863" t="n">
         <v>15</v>
@@ -62556,7 +62556,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K864" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L864" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M864" t="n">
-        <v>25471</v>
+        <v>15000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>1698</v>
+        <v>1000</v>
       </c>
       <c r="Q864" t="n">
         <v>15</v>
@@ -62628,7 +62628,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K865" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L865" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="M865" t="n">
-        <v>25625</v>
+        <v>13000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1708</v>
+        <v>867</v>
       </c>
       <c r="Q865" t="n">
         <v>15</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="K866" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L866" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M866" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="Q866" t="n">
         <v>15</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62772,25 +62772,25 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K867" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="L867" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="M867" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>667</v>
+        <v>2267</v>
       </c>
       <c r="Q867" t="n">
         <v>15</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K868" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L868" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M868" t="n">
-        <v>23000</v>
+        <v>25471</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>1533</v>
+        <v>1698</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62916,25 +62916,25 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K869" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L869" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M869" t="n">
-        <v>30000</v>
+        <v>25625</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>2000</v>
+        <v>1708</v>
       </c>
       <c r="Q869" t="n">
         <v>15</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="K870" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L870" t="n">
         <v>14000</v>
       </c>
       <c r="M870" t="n">
-        <v>13475</v>
+        <v>14000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>898</v>
+        <v>933</v>
       </c>
       <c r="Q870" t="n">
         <v>15</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K871" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L871" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M871" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="Q871" t="n">
         <v>15</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="K872" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L872" t="n">
         <v>23000</v>
       </c>
       <c r="M872" t="n">
-        <v>22764</v>
+        <v>23000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1518</v>
+        <v>1533</v>
       </c>
       <c r="Q872" t="n">
         <v>15</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63216,29 +63216,29 @@
         <v>100</v>
       </c>
       <c r="K873" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L873" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M873" t="n">
-        <v>17550</v>
+        <v>30000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>975</v>
+        <v>2000</v>
       </c>
       <c r="Q873" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63276,7 +63276,7 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="K874" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L874" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M874" t="n">
-        <v>17419</v>
+        <v>13475</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1161</v>
+        <v>898</v>
       </c>
       <c r="Q874" t="n">
         <v>15</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63348,25 +63348,25 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K875" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L875" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M875" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="Q875" t="n">
         <v>15</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -63429,16 +63429,16 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="K876" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L876" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M876" t="n">
-        <v>13000</v>
+        <v>22764</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>867</v>
+        <v>1518</v>
       </c>
       <c r="Q876" t="n">
         <v>15</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K877" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L877" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M877" t="n">
-        <v>10000</v>
+        <v>17550</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>556</v>
+        <v>975</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K878" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L878" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M878" t="n">
-        <v>14542</v>
+        <v>17419</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>969</v>
+        <v>1161</v>
       </c>
       <c r="Q878" t="n">
         <v>15</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63636,41 +63636,41 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K879" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L879" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M879" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
         <v>1000</v>
       </c>
       <c r="Q879" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,32 +63717,32 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K880" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L880" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M880" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="Q880" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K881" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L881" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M881" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K882" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L882" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M882" t="n">
-        <v>35000</v>
+        <v>14542</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>2333</v>
+        <v>969</v>
       </c>
       <c r="Q882" t="n">
         <v>15</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63936,29 +63936,29 @@
         <v>50</v>
       </c>
       <c r="K883" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L883" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M883" t="n">
-        <v>19600</v>
+        <v>18000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>1307</v>
+        <v>1000</v>
       </c>
       <c r="Q883" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,32 +64005,32 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K884" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L884" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M884" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="Q884" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64068,41 +64068,41 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K885" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L885" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M885" t="n">
-        <v>15455</v>
+        <v>13000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1030</v>
+        <v>722</v>
       </c>
       <c r="Q885" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -64140,25 +64140,25 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K886" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L886" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M886" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64167,11 +64167,11 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1333</v>
+        <v>2333</v>
       </c>
       <c r="Q886" t="n">
         <v>15</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -64212,25 +64212,25 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="K887" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L887" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M887" t="n">
-        <v>18468</v>
+        <v>19600</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1231</v>
+        <v>1307</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64284,25 +64284,25 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K888" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L888" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M888" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="K889" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L889" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M889" t="n">
-        <v>25521</v>
+        <v>15455</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1701</v>
+        <v>1030</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64428,25 +64428,25 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K890" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L890" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="M890" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>3333</v>
+        <v>1333</v>
       </c>
       <c r="Q890" t="n">
         <v>15</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="K891" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="L891" t="n">
-        <v>45000</v>
+        <v>19000</v>
       </c>
       <c r="M891" t="n">
-        <v>45000</v>
+        <v>18468</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>3000</v>
+        <v>1231</v>
       </c>
       <c r="Q891" t="n">
         <v>15</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64572,25 +64572,25 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="K892" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="L892" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="M892" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>2867</v>
+        <v>800</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="K893" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L893" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M893" t="n">
-        <v>30000</v>
+        <v>25521</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>2000</v>
+        <v>1701</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64716,7 +64716,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -64725,32 +64725,32 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K894" t="n">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="L894" t="n">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="M894" t="n">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>778</v>
+        <v>3333</v>
       </c>
       <c r="Q894" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64788,41 +64788,41 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K895" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="L895" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="M895" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>667</v>
+        <v>3000</v>
       </c>
       <c r="Q895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64860,25 +64860,25 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K896" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="L896" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="M896" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>1333</v>
+        <v>2867</v>
       </c>
       <c r="Q896" t="n">
         <v>15</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K897" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L897" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M897" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -65004,7 +65004,7 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -65013,32 +65013,32 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="K898" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L898" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M898" t="n">
-        <v>16522</v>
+        <v>14000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1101</v>
+        <v>778</v>
       </c>
       <c r="Q898" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65076,43 +65076,331 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="K899" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L899" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M899" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P899" t="n">
         <v>667</v>
       </c>
       <c r="Q899" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R899" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>10</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D900" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E900" t="n">
+        <v>9</v>
+      </c>
+      <c r="F900" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G900" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>Zafiro amarillo</t>
+        </is>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J900" t="n">
+        <v>55</v>
+      </c>
+      <c r="K900" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L900" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M900" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N900" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O900" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P900" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>15</v>
+      </c>
+      <c r="R900" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>10</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D901" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E901" t="n">
+        <v>9</v>
+      </c>
+      <c r="F901" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J901" t="n">
+        <v>55</v>
+      </c>
+      <c r="K901" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L901" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M901" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N901" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O901" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P901" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>15</v>
+      </c>
+      <c r="R901" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>10</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D902" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E902" t="n">
+        <v>9</v>
+      </c>
+      <c r="F902" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J902" t="n">
+        <v>115</v>
+      </c>
+      <c r="K902" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L902" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M902" t="n">
+        <v>16522</v>
+      </c>
+      <c r="N902" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O902" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P902" t="n">
+        <v>1101</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>15</v>
+      </c>
+      <c r="R902" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>10</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D903" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E903" t="n">
+        <v>9</v>
+      </c>
+      <c r="F903" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J903" t="n">
+        <v>125</v>
+      </c>
+      <c r="K903" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L903" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M903" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N903" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O903" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P903" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>15</v>
+      </c>
+      <c r="R903" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R908"/>
+  <dimension ref="A1:R913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -55509,16 +55509,16 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K766" t="n">
-        <v>55000</v>
+        <v>48000</v>
       </c>
       <c r="L766" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="M766" t="n">
-        <v>55000</v>
+        <v>49000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>3667</v>
+        <v>3267</v>
       </c>
       <c r="Q766" t="n">
         <v>15</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -55577,7 +55577,7 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J767" t="n">
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,7 +55653,7 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="K768" t="n">
         <v>45000</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -55716,25 +55716,25 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K769" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L769" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M769" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>1333</v>
+        <v>2667</v>
       </c>
       <c r="Q769" t="n">
         <v>15</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -55788,25 +55788,25 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K770" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L770" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M770" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>1067</v>
+        <v>2333</v>
       </c>
       <c r="Q770" t="n">
         <v>15</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K771" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="L771" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="M771" t="n">
-        <v>15000</v>
+        <v>55000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>1000</v>
+        <v>3667</v>
       </c>
       <c r="Q771" t="n">
         <v>15</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -55932,7 +55932,7 @@
       </c>
       <c r="H772" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -55941,32 +55941,32 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K772" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="L772" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="M772" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>889</v>
+        <v>3333</v>
       </c>
       <c r="Q772" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,32 +56013,32 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K773" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="L773" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="M773" t="n">
-        <v>16556</v>
+        <v>45000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>920</v>
+        <v>3000</v>
       </c>
       <c r="Q773" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56076,41 +56076,41 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J774" t="n">
         <v>30</v>
       </c>
       <c r="K774" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L774" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M774" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>778</v>
+        <v>1333</v>
       </c>
       <c r="Q774" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -56148,7 +56148,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -56157,16 +56157,16 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K775" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L775" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="M775" t="n">
-        <v>35400</v>
+        <v>16000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>2360</v>
+        <v>1067</v>
       </c>
       <c r="Q775" t="n">
         <v>15</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56229,7 +56229,7 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K776" t="n">
         <v>15000</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -56304,29 +56304,29 @@
         <v>40</v>
       </c>
       <c r="K777" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L777" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M777" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="Q777" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -56364,7 +56364,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -56373,32 +56373,32 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="K778" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L778" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M778" t="n">
-        <v>12532</v>
+        <v>16556</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>835</v>
+        <v>920</v>
       </c>
       <c r="Q778" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -56436,41 +56436,41 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="K779" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L779" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M779" t="n">
-        <v>10936</v>
+        <v>14000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>729</v>
+        <v>778</v>
       </c>
       <c r="Q779" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -56508,7 +56508,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -56517,32 +56517,32 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K780" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L780" t="n">
-        <v>17000</v>
+        <v>36000</v>
       </c>
       <c r="M780" t="n">
-        <v>16486</v>
+        <v>35400</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>916</v>
+        <v>2360</v>
       </c>
       <c r="Q780" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="K781" t="n">
         <v>15000</v>
       </c>
       <c r="L781" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M781" t="n">
-        <v>15893</v>
+        <v>15000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="Q781" t="n">
         <v>15</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -56661,16 +56661,16 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="K782" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L782" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M782" t="n">
-        <v>17448</v>
+        <v>15000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>1163</v>
+        <v>1000</v>
       </c>
       <c r="Q782" t="n">
         <v>15</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -56724,7 +56724,7 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="K783" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L783" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M783" t="n">
-        <v>16471</v>
+        <v>12532</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>1098</v>
+        <v>835</v>
       </c>
       <c r="Q783" t="n">
         <v>15</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56805,32 +56805,32 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="K784" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L784" t="n">
         <v>12000</v>
       </c>
       <c r="M784" t="n">
-        <v>12000</v>
+        <v>10936</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>667</v>
+        <v>729</v>
       </c>
       <c r="Q784" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -56868,7 +56868,7 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -56877,32 +56877,32 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="K785" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L785" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M785" t="n">
-        <v>18880</v>
+        <v>16486</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>1259</v>
+        <v>916</v>
       </c>
       <c r="Q785" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="K786" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L786" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M786" t="n">
-        <v>14000</v>
+        <v>15893</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>933</v>
+        <v>1060</v>
       </c>
       <c r="Q786" t="n">
         <v>15</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="K787" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L787" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M787" t="n">
-        <v>12579</v>
+        <v>17448</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>839</v>
+        <v>1163</v>
       </c>
       <c r="Q787" t="n">
         <v>15</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57093,32 +57093,32 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K788" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L788" t="n">
         <v>17000</v>
       </c>
       <c r="M788" t="n">
-        <v>17000</v>
+        <v>16471</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>944</v>
+        <v>1098</v>
       </c>
       <c r="Q788" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -57156,7 +57156,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -57165,32 +57165,32 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="K789" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L789" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M789" t="n">
-        <v>17517</v>
+        <v>12000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>1168</v>
+        <v>667</v>
       </c>
       <c r="Q789" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -57228,7 +57228,7 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
@@ -57237,16 +57237,16 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="K790" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L790" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M790" t="n">
-        <v>16059</v>
+        <v>18880</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>1071</v>
+        <v>1259</v>
       </c>
       <c r="Q790" t="n">
         <v>15</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K791" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L791" t="n">
         <v>14000</v>
       </c>
       <c r="M791" t="n">
-        <v>12750</v>
+        <v>14000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>850</v>
+        <v>933</v>
       </c>
       <c r="Q791" t="n">
         <v>15</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -57372,25 +57372,25 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K792" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L792" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M792" t="n">
-        <v>30000</v>
+        <v>12579</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>2000</v>
+        <v>839</v>
       </c>
       <c r="Q792" t="n">
         <v>15</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -57444,7 +57444,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -57453,32 +57453,32 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="K793" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L793" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M793" t="n">
-        <v>25415</v>
+        <v>17000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>1694</v>
+        <v>944</v>
       </c>
       <c r="Q793" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="K794" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L794" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M794" t="n">
-        <v>25000</v>
+        <v>17517</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>1667</v>
+        <v>1168</v>
       </c>
       <c r="Q794" t="n">
         <v>15</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -57597,16 +57597,16 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="K795" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L795" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M795" t="n">
-        <v>25000</v>
+        <v>16059</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>1667</v>
+        <v>1071</v>
       </c>
       <c r="Q795" t="n">
         <v>15</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -57660,41 +57660,41 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K796" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L796" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M796" t="n">
-        <v>11500</v>
+        <v>12750</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>639</v>
+        <v>850</v>
       </c>
       <c r="Q796" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -57732,7 +57732,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -57741,7 +57741,7 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="K797" t="n">
         <v>30000</v>
@@ -57754,19 +57754,19 @@
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q797" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -57804,7 +57804,7 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="K798" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L798" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M798" t="n">
-        <v>21000</v>
+        <v>25415</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>1400</v>
+        <v>1694</v>
       </c>
       <c r="Q798" t="n">
         <v>15</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -57876,7 +57876,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -57885,16 +57885,16 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>600</v>
+        <v>210</v>
       </c>
       <c r="K799" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L799" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M799" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>1267</v>
+        <v>1667</v>
       </c>
       <c r="Q799" t="n">
         <v>15</v>
@@ -57948,41 +57948,41 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K800" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L800" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M800" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="Q800" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R800" t="inlineStr">
         <is>
@@ -58020,7 +58020,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -58029,32 +58029,32 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K801" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L801" t="n">
         <v>12000</v>
       </c>
       <c r="M801" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>800</v>
+        <v>639</v>
       </c>
       <c r="Q801" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -58092,25 +58092,25 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J802" t="n">
         <v>50</v>
       </c>
       <c r="K802" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L802" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M802" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>833</v>
+        <v>1667</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,32 +58173,32 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K803" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L803" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M803" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q803" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R803" t="inlineStr">
         <is>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K804" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L804" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M804" t="n">
-        <v>16500</v>
+        <v>19000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>1100</v>
+        <v>1267</v>
       </c>
       <c r="Q804" t="n">
         <v>15</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -58313,36 +58313,36 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="K805" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L805" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M805" t="n">
-        <v>15583</v>
+        <v>18000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>1039</v>
+        <v>1000</v>
       </c>
       <c r="Q805" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R805" t="inlineStr">
         <is>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -58380,7 +58380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K806" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L806" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="M806" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>1867</v>
+        <v>800</v>
       </c>
       <c r="Q806" t="n">
         <v>15</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -58452,7 +58452,7 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -58461,32 +58461,32 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="K807" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L807" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M807" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q807" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -58524,7 +58524,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -58533,16 +58533,16 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K808" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L808" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M808" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -58596,7 +58596,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -58605,32 +58605,32 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="K809" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L809" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M809" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q809" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44223</v>
+        <v>44357</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="K810" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L810" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M810" t="n">
-        <v>14000</v>
+        <v>15583</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>933</v>
+        <v>1039</v>
       </c>
       <c r="Q810" t="n">
         <v>15</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -58740,25 +58740,25 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K811" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L811" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="M811" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>667</v>
+        <v>1867</v>
       </c>
       <c r="Q811" t="n">
         <v>15</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E812" t="n">
         <v>9</v>
@@ -58812,7 +58812,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -58821,16 +58821,16 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="K812" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L812" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M812" t="n">
-        <v>21083</v>
+        <v>10000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>1406</v>
+        <v>667</v>
       </c>
       <c r="Q812" t="n">
         <v>15</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E813" t="n">
         <v>9</v>
@@ -58884,16 +58884,16 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K813" t="n">
         <v>12000</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="K814" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L814" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M814" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -59028,41 +59028,41 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K815" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L815" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M815" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>444</v>
+        <v>933</v>
       </c>
       <c r="Q815" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R815" t="inlineStr">
         <is>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E816" t="n">
         <v>9</v>
@@ -59100,25 +59100,25 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="K816" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L816" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M816" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>1267</v>
+        <v>667</v>
       </c>
       <c r="Q816" t="n">
         <v>15</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K817" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L817" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M817" t="n">
-        <v>15000</v>
+        <v>21083</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>1000</v>
+        <v>1406</v>
       </c>
       <c r="Q817" t="n">
         <v>15</v>
@@ -59244,16 +59244,16 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K818" t="n">
         <v>12000</v>
@@ -59266,19 +59266,19 @@
       </c>
       <c r="N818" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q818" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R818" t="inlineStr">
         <is>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -59325,32 +59325,32 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K819" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L819" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M819" t="n">
-        <v>12417</v>
+        <v>10000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>828</v>
+        <v>556</v>
       </c>
       <c r="Q819" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K820" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L820" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M820" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>1056</v>
+        <v>444</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -59460,25 +59460,25 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K821" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="L821" t="n">
-        <v>38000</v>
+        <v>20000</v>
       </c>
       <c r="M821" t="n">
-        <v>38000</v>
+        <v>19000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>2533</v>
+        <v>1267</v>
       </c>
       <c r="Q821" t="n">
         <v>15</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K822" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L822" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M822" t="n">
-        <v>17444</v>
+        <v>15000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1163</v>
+        <v>1000</v>
       </c>
       <c r="Q822" t="n">
         <v>15</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K823" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L823" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M823" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>1333</v>
+        <v>800</v>
       </c>
       <c r="Q823" t="n">
         <v>15</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K824" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L824" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M824" t="n">
-        <v>17400</v>
+        <v>12417</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>1160</v>
+        <v>828</v>
       </c>
       <c r="Q824" t="n">
         <v>15</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -59748,7 +59748,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -59760,29 +59760,29 @@
         <v>50</v>
       </c>
       <c r="K825" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="L825" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="M825" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>2667</v>
+        <v>1056</v>
       </c>
       <c r="Q825" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R825" t="inlineStr">
         <is>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -59820,25 +59820,25 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K826" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="L826" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M826" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>2000</v>
+        <v>2533</v>
       </c>
       <c r="Q826" t="n">
         <v>15</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="K827" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L827" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M827" t="n">
-        <v>25000</v>
+        <v>17444</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>1667</v>
+        <v>1163</v>
       </c>
       <c r="Q827" t="n">
         <v>15</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -59964,41 +59964,41 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K828" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L828" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M828" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q828" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R828" t="inlineStr">
         <is>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="K829" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L829" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M829" t="n">
-        <v>30000</v>
+        <v>17400</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>2000</v>
+        <v>1160</v>
       </c>
       <c r="Q829" t="n">
         <v>15</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60108,7 +60108,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>265</v>
+        <v>50</v>
       </c>
       <c r="K830" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L830" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="M830" t="n">
-        <v>15585</v>
+        <v>40000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>1039</v>
+        <v>2667</v>
       </c>
       <c r="Q830" t="n">
         <v>15</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -60180,7 +60180,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K831" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L831" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M831" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>867</v>
+        <v>2000</v>
       </c>
       <c r="Q831" t="n">
         <v>15</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -60252,41 +60252,41 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K832" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L832" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M832" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>778</v>
+        <v>1667</v>
       </c>
       <c r="Q832" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R832" t="inlineStr">
         <is>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="K833" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L833" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M833" t="n">
-        <v>10947</v>
+        <v>18000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>608</v>
+        <v>1000</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K834" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L834" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M834" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q834" t="n">
         <v>15</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="K835" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L835" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M835" t="n">
-        <v>13000</v>
+        <v>15585</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>867</v>
+        <v>1039</v>
       </c>
       <c r="Q835" t="n">
         <v>15</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -60540,41 +60540,41 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K836" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L836" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M836" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="Q836" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K837" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L837" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M837" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>889</v>
+        <v>778</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60693,32 +60693,32 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="K838" t="n">
-        <v>33000</v>
+        <v>10000</v>
       </c>
       <c r="L838" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="M838" t="n">
-        <v>33000</v>
+        <v>10947</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>2200</v>
+        <v>608</v>
       </c>
       <c r="Q838" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K839" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L839" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M839" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q839" t="n">
         <v>15</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>365</v>
+        <v>140</v>
       </c>
       <c r="K840" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L840" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M840" t="n">
-        <v>17589</v>
+        <v>13000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1173</v>
+        <v>867</v>
       </c>
       <c r="Q840" t="n">
         <v>15</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,7 +60909,7 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="K841" t="n">
         <v>18000</v>
@@ -60922,19 +60922,19 @@
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q841" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,32 +60981,32 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="K842" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L842" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M842" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="Q842" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,32 +61053,32 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K843" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L843" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M843" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="Q843" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61116,25 +61116,25 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K844" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L844" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="M844" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>3333</v>
+        <v>1333</v>
       </c>
       <c r="Q844" t="n">
         <v>15</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="K845" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="L845" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M845" t="n">
-        <v>45000</v>
+        <v>17589</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>3000</v>
+        <v>1173</v>
       </c>
       <c r="Q845" t="n">
         <v>15</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="K846" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="L846" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="M846" t="n">
-        <v>43000</v>
+        <v>18000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>2867</v>
+        <v>1200</v>
       </c>
       <c r="Q846" t="n">
         <v>15</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K847" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L847" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M847" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q847" t="n">
         <v>15</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61404,25 +61404,25 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J848" t="n">
         <v>65</v>
       </c>
       <c r="K848" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L848" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M848" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61485,32 +61485,32 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K849" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="L849" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="M849" t="n">
-        <v>16000</v>
+        <v>50000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>889</v>
+        <v>3333</v>
       </c>
       <c r="Q849" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K850" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L850" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M850" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q850" t="n">
         <v>15</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61620,25 +61620,25 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="K851" t="n">
-        <v>16000</v>
+        <v>43000</v>
       </c>
       <c r="L851" t="n">
-        <v>16000</v>
+        <v>43000</v>
       </c>
       <c r="M851" t="n">
-        <v>16000</v>
+        <v>43000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>1067</v>
+        <v>2867</v>
       </c>
       <c r="Q851" t="n">
         <v>15</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K852" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L852" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M852" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q852" t="n">
         <v>15</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -61764,41 +61764,41 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K853" t="n">
-        <v>35000</v>
+        <v>19000</v>
       </c>
       <c r="L853" t="n">
-        <v>35000</v>
+        <v>19000</v>
       </c>
       <c r="M853" t="n">
-        <v>35000</v>
+        <v>19000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>2333</v>
+        <v>1056</v>
       </c>
       <c r="Q853" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R853" t="inlineStr">
         <is>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K854" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L854" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M854" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1111</v>
+        <v>889</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61908,7 +61908,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="K855" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="L855" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="M855" t="n">
-        <v>48833</v>
+        <v>30000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>3256</v>
+        <v>2000</v>
       </c>
       <c r="Q855" t="n">
         <v>15</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K856" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="L856" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="M856" t="n">
-        <v>45000</v>
+        <v>16000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>3000</v>
+        <v>1067</v>
       </c>
       <c r="Q856" t="n">
         <v>15</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K857" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L857" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="M857" t="n">
-        <v>41500</v>
+        <v>15000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>2767</v>
+        <v>1000</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -62124,16 +62124,16 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K858" t="n">
         <v>35000</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,32 +62205,32 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K859" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L859" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M859" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>867</v>
+        <v>1111</v>
       </c>
       <c r="Q859" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62268,25 +62268,25 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="K860" t="n">
-        <v>14000</v>
+        <v>48000</v>
       </c>
       <c r="L860" t="n">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="M860" t="n">
-        <v>14000</v>
+        <v>48833</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>933</v>
+        <v>3256</v>
       </c>
       <c r="Q860" t="n">
         <v>15</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62340,25 +62340,25 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K861" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="L861" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="M861" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q861" t="n">
         <v>15</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,32 +62421,32 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K862" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="L862" t="n">
-        <v>14000</v>
+        <v>43000</v>
       </c>
       <c r="M862" t="n">
-        <v>14000</v>
+        <v>41500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>778</v>
+        <v>2767</v>
       </c>
       <c r="Q862" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62484,25 +62484,25 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="K863" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L863" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M863" t="n">
-        <v>16857</v>
+        <v>35000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1124</v>
+        <v>2333</v>
       </c>
       <c r="Q863" t="n">
         <v>15</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62556,7 +62556,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K864" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L864" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M864" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q864" t="n">
         <v>15</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62628,25 +62628,25 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="K865" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L865" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M865" t="n">
-        <v>16936</v>
+        <v>14000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1129</v>
+        <v>933</v>
       </c>
       <c r="Q865" t="n">
         <v>15</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -62709,32 +62709,32 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="K866" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="L866" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="M866" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>2222</v>
+        <v>800</v>
       </c>
       <c r="Q866" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K867" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="L867" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="M867" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>1778</v>
+        <v>778</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K868" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L868" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M868" t="n">
-        <v>40000</v>
+        <v>16857</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>2667</v>
+        <v>1124</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62916,25 +62916,25 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K869" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L869" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="M869" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>2667</v>
+        <v>667</v>
       </c>
       <c r="Q869" t="n">
         <v>15</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>550</v>
+        <v>235</v>
       </c>
       <c r="K870" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L870" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M870" t="n">
-        <v>33909</v>
+        <v>16936</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>2261</v>
+        <v>1129</v>
       </c>
       <c r="Q870" t="n">
         <v>15</v>
@@ -63060,41 +63060,41 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K871" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L871" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="M871" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>2133</v>
+        <v>2222</v>
       </c>
       <c r="Q871" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63132,41 +63132,41 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K872" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L872" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M872" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1933</v>
+        <v>1778</v>
       </c>
       <c r="Q872" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K873" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L873" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M873" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q873" t="n">
         <v>15</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J874" t="n">
         <v>50</v>
       </c>
       <c r="K874" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L874" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M874" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1667</v>
+        <v>2667</v>
       </c>
       <c r="Q874" t="n">
         <v>15</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>140</v>
+        <v>550</v>
       </c>
       <c r="K875" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L875" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M875" t="n">
-        <v>40000</v>
+        <v>33909</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>2667</v>
+        <v>2261</v>
       </c>
       <c r="Q875" t="n">
         <v>15</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63425,11 +63425,11 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K876" t="n">
         <v>32000</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63492,25 +63492,25 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="K877" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L877" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M877" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>2667</v>
+        <v>1933</v>
       </c>
       <c r="Q877" t="n">
         <v>15</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="K878" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L878" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M878" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>2333</v>
+        <v>1000</v>
       </c>
       <c r="Q878" t="n">
         <v>15</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63636,25 +63636,25 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="K879" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L879" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M879" t="n">
-        <v>16532</v>
+        <v>25000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>1102</v>
+        <v>1667</v>
       </c>
       <c r="Q879" t="n">
         <v>15</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K880" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L880" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M880" t="n">
-        <v>12500</v>
+        <v>40000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>833</v>
+        <v>2667</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -63780,7 +63780,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -63789,32 +63789,32 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K881" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="L881" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M881" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>667</v>
+        <v>2133</v>
       </c>
       <c r="Q881" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -63852,41 +63852,41 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K882" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="L882" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="M882" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>556</v>
+        <v>2667</v>
       </c>
       <c r="Q882" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="K883" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L883" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M883" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>1333</v>
+        <v>2333</v>
       </c>
       <c r="Q883" t="n">
         <v>15</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>500</v>
+        <v>235</v>
       </c>
       <c r="K884" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="L884" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M884" t="n">
-        <v>13700</v>
+        <v>16532</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>913</v>
+        <v>1102</v>
       </c>
       <c r="Q884" t="n">
         <v>15</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64083,10 +64083,10 @@
         <v>12000</v>
       </c>
       <c r="L885" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M885" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="K886" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L886" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M886" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -64212,41 +64212,41 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K887" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L887" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M887" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1333</v>
+        <v>556</v>
       </c>
       <c r="Q887" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K888" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L888" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M888" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1067</v>
+        <v>1333</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="K889" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L889" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M889" t="n">
-        <v>15000</v>
+        <v>13700</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1000</v>
+        <v>913</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64437,32 +64437,32 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K890" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L890" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M890" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q890" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,25 +64500,25 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K891" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L891" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M891" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64572,25 +64572,25 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="K892" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L892" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M892" t="n">
-        <v>12667</v>
+        <v>20000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>844</v>
+        <v>1333</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64644,25 +64644,25 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K893" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L893" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M893" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64716,7 +64716,7 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -64725,32 +64725,32 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="K894" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L894" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M894" t="n">
-        <v>11556</v>
+        <v>15000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>642</v>
+        <v>1000</v>
       </c>
       <c r="Q894" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64788,25 +64788,25 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K895" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L895" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M895" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,32 +64869,32 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>700</v>
+        <v>40</v>
       </c>
       <c r="K896" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L896" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M896" t="n">
-        <v>17429</v>
+        <v>15000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>1162</v>
+        <v>833</v>
       </c>
       <c r="Q896" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K897" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L897" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M897" t="n">
-        <v>15000</v>
+        <v>12667</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1000</v>
+        <v>844</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J898" t="n">
         <v>50</v>
       </c>
       <c r="K898" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L898" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M898" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q898" t="n">
         <v>15</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,32 +65085,32 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="K899" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L899" t="n">
         <v>12000</v>
       </c>
-      <c r="L899" t="n">
-        <v>13000</v>
-      </c>
       <c r="M899" t="n">
-        <v>12500</v>
+        <v>11556</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>833</v>
+        <v>642</v>
       </c>
       <c r="Q899" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K900" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L900" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M900" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65220,41 +65220,41 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="K901" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L901" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M901" t="n">
-        <v>12000</v>
+        <v>17429</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>667</v>
+        <v>1162</v>
       </c>
       <c r="Q901" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65292,25 +65292,25 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K902" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L902" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M902" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J903" t="n">
         <v>50</v>
       </c>
       <c r="K903" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L903" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M903" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="Q903" t="n">
         <v>15</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="K904" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L904" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M904" t="n">
-        <v>22500</v>
+        <v>12500</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1500</v>
+        <v>833</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65508,16 +65508,16 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="K905" t="n">
         <v>14000</v>
@@ -65530,19 +65530,19 @@
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>933</v>
+        <v>778</v>
       </c>
       <c r="Q905" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65580,41 +65580,41 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="K906" t="n">
         <v>12000</v>
       </c>
       <c r="L906" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M906" t="n">
-        <v>12583</v>
+        <v>12000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="Q906" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65652,25 +65652,25 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K907" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L907" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M907" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>2333</v>
+        <v>1600</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,58 +65709,418 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E908" t="n">
+        <v>9</v>
+      </c>
+      <c r="F908" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J908" t="n">
+        <v>50</v>
+      </c>
+      <c r="K908" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L908" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M908" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N908" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O908" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P908" t="n">
+        <v>1667</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>15</v>
+      </c>
+      <c r="R908" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>10</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D909" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E909" t="n">
+        <v>9</v>
+      </c>
+      <c r="F909" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G909" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J909" t="n">
+        <v>360</v>
+      </c>
+      <c r="K909" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L909" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M909" t="n">
+        <v>22500</v>
+      </c>
+      <c r="N909" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O909" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P909" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>15</v>
+      </c>
+      <c r="R909" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>10</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D910" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E910" t="n">
+        <v>9</v>
+      </c>
+      <c r="F910" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G910" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J910" t="n">
+        <v>30</v>
+      </c>
+      <c r="K910" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L910" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M910" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N910" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O910" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P910" t="n">
+        <v>933</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>15</v>
+      </c>
+      <c r="R910" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>10</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D911" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E911" t="n">
+        <v>9</v>
+      </c>
+      <c r="F911" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G911" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J911" t="n">
+        <v>240</v>
+      </c>
+      <c r="K911" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L911" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M911" t="n">
+        <v>12583</v>
+      </c>
+      <c r="N911" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O911" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P911" t="n">
+        <v>839</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>15</v>
+      </c>
+      <c r="R911" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>10</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D912" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E908" t="n">
-        <v>9</v>
-      </c>
-      <c r="F908" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G908" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H908" t="inlineStr">
+      <c r="E912" t="n">
+        <v>9</v>
+      </c>
+      <c r="F912" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G912" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J912" t="n">
+        <v>125</v>
+      </c>
+      <c r="K912" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L912" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M912" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N912" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O912" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P912" t="n">
+        <v>2333</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>15</v>
+      </c>
+      <c r="R912" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>10</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D913" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E913" t="n">
+        <v>9</v>
+      </c>
+      <c r="F913" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G913" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H913" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I908" t="inlineStr">
+      <c r="I913" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="J908" t="n">
+      <c r="J913" t="n">
         <v>200</v>
       </c>
-      <c r="K908" t="n">
+      <c r="K913" t="n">
         <v>30000</v>
       </c>
-      <c r="L908" t="n">
+      <c r="L913" t="n">
         <v>30000</v>
       </c>
-      <c r="M908" t="n">
+      <c r="M913" t="n">
         <v>30000</v>
       </c>
-      <c r="N908" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O908" t="inlineStr">
+      <c r="N913" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O913" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P908" t="n">
+      <c r="P913" t="n">
         <v>2000</v>
       </c>
-      <c r="Q908" t="n">
-        <v>15</v>
-      </c>
-      <c r="R908" t="inlineStr">
+      <c r="Q913" t="n">
+        <v>15</v>
+      </c>
+      <c r="R913" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R942"/>
+  <dimension ref="A1:R946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="K826" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L826" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M826" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="Q826" t="n">
         <v>15</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="K827" t="n">
-        <v>25000</v>
+        <v>48000</v>
       </c>
       <c r="L827" t="n">
-        <v>26000</v>
+        <v>48000</v>
       </c>
       <c r="M827" t="n">
-        <v>25415</v>
+        <v>48000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>1694</v>
+        <v>3200</v>
       </c>
       <c r="Q827" t="n">
         <v>15</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -59964,25 +59964,25 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="K828" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="L828" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="M828" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1667</v>
+        <v>2800</v>
       </c>
       <c r="Q828" t="n">
         <v>15</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="K829" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L829" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M829" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>1667</v>
+        <v>2667</v>
       </c>
       <c r="Q829" t="n">
         <v>15</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60108,41 +60108,41 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>400</v>
+        <v>195</v>
       </c>
       <c r="K830" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="L830" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M830" t="n">
-        <v>11500</v>
+        <v>30000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>639</v>
+        <v>2000</v>
       </c>
       <c r="Q830" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R830" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -60180,41 +60180,41 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="K831" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L831" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M831" t="n">
-        <v>30000</v>
+        <v>25415</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>1667</v>
+        <v>1694</v>
       </c>
       <c r="Q831" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R831" t="inlineStr">
         <is>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -60252,7 +60252,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K832" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L832" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M832" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>1400</v>
+        <v>1667</v>
       </c>
       <c r="Q832" t="n">
         <v>15</v>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="K833" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L833" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M833" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>1267</v>
+        <v>1667</v>
       </c>
       <c r="Q833" t="n">
         <v>15</v>
@@ -60396,25 +60396,25 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="K834" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L834" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M834" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>1000</v>
+        <v>639</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60468,41 +60468,41 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K835" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L835" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M835" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>800</v>
+        <v>1667</v>
       </c>
       <c r="Q835" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,32 +60549,32 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K836" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L836" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M836" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>833</v>
+        <v>1400</v>
       </c>
       <c r="Q836" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,32 +60621,32 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K837" t="n">
         <v>18000</v>
       </c>
       <c r="L837" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M837" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>1000</v>
+        <v>1267</v>
       </c>
       <c r="Q837" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R837" t="inlineStr">
         <is>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60684,41 +60684,41 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="K838" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L838" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M838" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q838" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K839" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L839" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M839" t="n">
-        <v>15583</v>
+        <v>12000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>1039</v>
+        <v>800</v>
       </c>
       <c r="Q839" t="n">
         <v>15</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,32 +60837,32 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K840" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L840" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M840" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1867</v>
+        <v>833</v>
       </c>
       <c r="Q840" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,32 +60909,32 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K841" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L841" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M841" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q841" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,32 +60981,32 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="K842" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L842" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M842" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="Q842" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,32 +61053,32 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="K843" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L843" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M843" t="n">
-        <v>12000</v>
+        <v>15583</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>667</v>
+        <v>1039</v>
       </c>
       <c r="Q843" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K844" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L844" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M844" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>933</v>
+        <v>1867</v>
       </c>
       <c r="Q844" t="n">
         <v>15</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61188,16 +61188,16 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="K845" t="n">
         <v>10000</v>
@@ -61215,7 +61215,7 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P845" t="n">
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61260,7 +61260,7 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -61269,32 +61269,32 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K846" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L846" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M846" t="n">
-        <v>21083</v>
+        <v>12000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1406</v>
+        <v>667</v>
       </c>
       <c r="Q846" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61337,11 +61337,11 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K847" t="n">
         <v>12000</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61404,7 +61404,7 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
@@ -61413,32 +61413,32 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K848" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L848" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M848" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="Q848" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R848" t="inlineStr">
         <is>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61485,32 +61485,32 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K849" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L849" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M849" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q849" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="K850" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L850" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M850" t="n">
-        <v>19000</v>
+        <v>21083</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>1267</v>
+        <v>1406</v>
       </c>
       <c r="Q850" t="n">
         <v>15</v>
@@ -61620,41 +61620,41 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K851" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L851" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M851" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q851" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61692,41 +61692,41 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K852" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L852" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M852" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q852" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61764,41 +61764,41 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="K853" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L853" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M853" t="n">
-        <v>12417</v>
+        <v>8000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>828</v>
+        <v>444</v>
       </c>
       <c r="Q853" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R853" t="inlineStr">
         <is>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,32 +61845,32 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K854" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L854" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M854" t="n">
         <v>19000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1056</v>
+        <v>1267</v>
       </c>
       <c r="Q854" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K855" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="L855" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="M855" t="n">
-        <v>38000</v>
+        <v>15000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>2533</v>
+        <v>1000</v>
       </c>
       <c r="Q855" t="n">
         <v>15</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="K856" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L856" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M856" t="n">
-        <v>17444</v>
+        <v>12000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>1163</v>
+        <v>800</v>
       </c>
       <c r="Q856" t="n">
         <v>15</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="K857" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L857" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M857" t="n">
-        <v>20000</v>
+        <v>12417</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>1333</v>
+        <v>828</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62124,7 +62124,7 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
@@ -62133,32 +62133,32 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K858" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L858" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M858" t="n">
-        <v>17400</v>
+        <v>19000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1160</v>
+        <v>1056</v>
       </c>
       <c r="Q858" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K859" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="L859" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="M859" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>2667</v>
+        <v>2533</v>
       </c>
       <c r="Q859" t="n">
         <v>15</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K860" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L860" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M860" t="n">
-        <v>30000</v>
+        <v>17444</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>2000</v>
+        <v>1163</v>
       </c>
       <c r="Q860" t="n">
         <v>15</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K861" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L861" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M861" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="Q861" t="n">
         <v>15</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,32 +62421,32 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="K862" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L862" t="n">
         <v>18000</v>
       </c>
       <c r="M862" t="n">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q862" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62484,7 +62484,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K863" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L863" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M863" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>2000</v>
+        <v>2667</v>
       </c>
       <c r="Q863" t="n">
         <v>15</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62556,7 +62556,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="K864" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L864" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M864" t="n">
-        <v>15585</v>
+        <v>30000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>1039</v>
+        <v>2000</v>
       </c>
       <c r="Q864" t="n">
         <v>15</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62628,7 +62628,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K865" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L865" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M865" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>867</v>
+        <v>1667</v>
       </c>
       <c r="Q865" t="n">
         <v>15</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K866" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L866" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M866" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,32 +62781,32 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="K867" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L867" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M867" t="n">
-        <v>10947</v>
+        <v>30000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>608</v>
+        <v>2000</v>
       </c>
       <c r="Q867" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="K868" t="n">
         <v>15000</v>
       </c>
       <c r="L868" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M868" t="n">
-        <v>15000</v>
+        <v>15585</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>1000</v>
+        <v>1039</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,7 +62925,7 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K869" t="n">
         <v>13000</v>
@@ -62943,7 +62943,7 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P869" t="n">
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K870" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L870" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M870" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K871" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L871" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M871" t="n">
-        <v>16000</v>
+        <v>10947</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>889</v>
+        <v>608</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63132,7 +63132,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K872" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L872" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="M872" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="Q872" t="n">
         <v>15</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63204,25 +63204,25 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K873" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L873" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M873" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="Q873" t="n">
         <v>15</v>
@@ -63276,41 +63276,41 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="K874" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L874" t="n">
         <v>18000</v>
       </c>
       <c r="M874" t="n">
-        <v>17589</v>
+        <v>18000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1173</v>
+        <v>1000</v>
       </c>
       <c r="Q874" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63348,41 +63348,41 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K875" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L875" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M875" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="Q875" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -63429,16 +63429,16 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="K876" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L876" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="M876" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="Q876" t="n">
         <v>15</v>
@@ -63492,41 +63492,41 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K877" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L877" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M877" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q877" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="K878" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="L878" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="M878" t="n">
-        <v>50000</v>
+        <v>17589</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>3333</v>
+        <v>1173</v>
       </c>
       <c r="Q878" t="n">
         <v>15</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63636,25 +63636,25 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K879" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="L879" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M879" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q879" t="n">
         <v>15</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K880" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="L880" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="M880" t="n">
-        <v>43000</v>
+        <v>15000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>2867</v>
+        <v>1000</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -63789,32 +63789,32 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K881" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L881" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M881" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q881" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -63852,41 +63852,41 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K882" t="n">
-        <v>19000</v>
+        <v>50000</v>
       </c>
       <c r="L882" t="n">
-        <v>19000</v>
+        <v>50000</v>
       </c>
       <c r="M882" t="n">
-        <v>19000</v>
+        <v>50000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>1056</v>
+        <v>3333</v>
       </c>
       <c r="Q882" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,32 +63933,32 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K883" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="L883" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="M883" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>889</v>
+        <v>3000</v>
       </c>
       <c r="Q883" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -63996,25 +63996,25 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K884" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="L884" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="M884" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>2000</v>
+        <v>2867</v>
       </c>
       <c r="Q884" t="n">
         <v>15</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K885" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L885" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M885" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1067</v>
+        <v>2000</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64140,41 +64140,41 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="K886" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L886" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M886" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="Q886" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,32 +64221,32 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K887" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L887" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M887" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>2333</v>
+        <v>889</v>
       </c>
       <c r="Q887" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,32 +64293,32 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K888" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L888" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M888" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1111</v>
+        <v>2000</v>
       </c>
       <c r="Q888" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="K889" t="n">
-        <v>48000</v>
+        <v>16000</v>
       </c>
       <c r="L889" t="n">
-        <v>50000</v>
+        <v>16000</v>
       </c>
       <c r="M889" t="n">
-        <v>48833</v>
+        <v>16000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>3256</v>
+        <v>1067</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64428,25 +64428,25 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K890" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="L890" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="M890" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q890" t="n">
         <v>15</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K891" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L891" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="M891" t="n">
-        <v>41500</v>
+        <v>35000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>2767</v>
+        <v>2333</v>
       </c>
       <c r="Q891" t="n">
         <v>15</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64577,36 +64577,36 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J892" t="n">
         <v>50</v>
       </c>
       <c r="K892" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L892" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M892" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>2333</v>
+        <v>1111</v>
       </c>
       <c r="Q892" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="K893" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="L893" t="n">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="M893" t="n">
-        <v>13000</v>
+        <v>48833</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>867</v>
+        <v>3256</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64716,25 +64716,25 @@
       </c>
       <c r="H894" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K894" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="L894" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="M894" t="n">
-        <v>14000</v>
+        <v>45000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64743,11 +64743,11 @@
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>933</v>
+        <v>3000</v>
       </c>
       <c r="Q894" t="n">
         <v>15</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K895" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L895" t="n">
-        <v>12000</v>
+        <v>43000</v>
       </c>
       <c r="M895" t="n">
-        <v>12000</v>
+        <v>41500</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>800</v>
+        <v>2767</v>
       </c>
       <c r="Q895" t="n">
         <v>15</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64860,41 +64860,41 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K896" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L896" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M896" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>778</v>
+        <v>2333</v>
       </c>
       <c r="Q896" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="K897" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L897" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M897" t="n">
-        <v>16857</v>
+        <v>13000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1124</v>
+        <v>867</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="K898" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L898" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M898" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="Q898" t="n">
         <v>15</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="K899" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L899" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M899" t="n">
-        <v>16936</v>
+        <v>12000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1129</v>
+        <v>800</v>
       </c>
       <c r="Q899" t="n">
         <v>15</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K900" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="L900" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="M900" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>2222</v>
+        <v>778</v>
       </c>
       <c r="Q900" t="n">
         <v>18</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65220,41 +65220,41 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="K901" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L901" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M901" t="n">
-        <v>32000</v>
+        <v>16857</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1778</v>
+        <v>1124</v>
       </c>
       <c r="Q901" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K902" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="L902" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="M902" t="n">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>2667</v>
+        <v>667</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="K903" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L903" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M903" t="n">
-        <v>40000</v>
+        <v>16936</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>2667</v>
+        <v>1129</v>
       </c>
       <c r="Q903" t="n">
         <v>15</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,32 +65445,32 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="K904" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L904" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M904" t="n">
-        <v>33909</v>
+        <v>40000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>2261</v>
+        <v>2222</v>
       </c>
       <c r="Q904" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65508,16 +65508,16 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K905" t="n">
         <v>32000</v>
@@ -65530,19 +65530,19 @@
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>2133</v>
+        <v>1778</v>
       </c>
       <c r="Q905" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K906" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L906" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M906" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1933</v>
+        <v>2667</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65652,25 +65652,25 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K907" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L907" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M907" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="K908" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L908" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M908" t="n">
-        <v>25000</v>
+        <v>33909</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>1667</v>
+        <v>2261</v>
       </c>
       <c r="Q908" t="n">
         <v>15</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65796,25 +65796,25 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K909" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="L909" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="M909" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>2667</v>
+        <v>2133</v>
       </c>
       <c r="Q909" t="n">
         <v>15</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K910" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L910" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M910" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>2133</v>
+        <v>1933</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65940,25 +65940,25 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K911" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L911" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="M911" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="Q911" t="n">
         <v>15</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="K912" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L912" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M912" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>2333</v>
+        <v>1667</v>
       </c>
       <c r="Q912" t="n">
         <v>15</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="K913" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L913" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M913" t="n">
-        <v>16532</v>
+        <v>40000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1102</v>
+        <v>2667</v>
       </c>
       <c r="Q913" t="n">
         <v>15</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K914" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="L914" t="n">
-        <v>13000</v>
+        <v>32000</v>
       </c>
       <c r="M914" t="n">
-        <v>12500</v>
+        <v>32000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>833</v>
+        <v>2133</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66228,41 +66228,41 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="K915" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L915" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="M915" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>667</v>
+        <v>2667</v>
       </c>
       <c r="Q915" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66300,41 +66300,41 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="K916" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L916" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M916" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>556</v>
+        <v>2333</v>
       </c>
       <c r="Q916" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="K917" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L917" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M917" t="n">
-        <v>20000</v>
+        <v>16532</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1333</v>
+        <v>1102</v>
       </c>
       <c r="Q917" t="n">
         <v>15</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K918" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L918" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M918" t="n">
-        <v>13700</v>
+        <v>12500</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>913</v>
+        <v>833</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,7 +66525,7 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K919" t="n">
         <v>12000</v>
@@ -66538,19 +66538,19 @@
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q919" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K920" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L920" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M920" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1056</v>
+        <v>556</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -66660,16 +66660,16 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K921" t="n">
         <v>20000</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="K922" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="L922" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M922" t="n">
-        <v>16000</v>
+        <v>13700</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>1067</v>
+        <v>913</v>
       </c>
       <c r="Q922" t="n">
         <v>15</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K923" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L923" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M923" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66876,25 +66876,25 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K924" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L924" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M924" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66948,41 +66948,41 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K925" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L925" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M925" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>833</v>
+        <v>1333</v>
       </c>
       <c r="Q925" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E926" t="n">
         <v>9</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="K926" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L926" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M926" t="n">
-        <v>12667</v>
+        <v>16000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>844</v>
+        <v>1067</v>
       </c>
       <c r="Q926" t="n">
         <v>15</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67092,25 +67092,25 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K927" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L927" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M927" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q927" t="n">
         <v>15</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="K928" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L928" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M928" t="n">
-        <v>11556</v>
+        <v>18000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>642</v>
+        <v>1000</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67236,25 +67236,25 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K929" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L929" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M929" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K930" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L930" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M930" t="n">
-        <v>17429</v>
+        <v>12667</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>1162</v>
+        <v>844</v>
       </c>
       <c r="Q930" t="n">
         <v>15</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K931" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L931" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M931" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q931" t="n">
         <v>15</v>
@@ -67452,41 +67452,41 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K932" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L932" t="n">
         <v>12000</v>
       </c>
       <c r="M932" t="n">
-        <v>12000</v>
+        <v>11556</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>800</v>
+        <v>642</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67524,41 +67524,41 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K933" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L933" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M933" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q933" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E934" t="n">
         <v>9</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,32 +67605,32 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K934" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L934" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M934" t="n">
-        <v>14000</v>
+        <v>17429</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>778</v>
+        <v>1162</v>
       </c>
       <c r="Q934" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,32 +67677,32 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K935" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L935" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M935" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q935" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
@@ -67740,25 +67740,25 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J936" t="n">
         <v>50</v>
       </c>
       <c r="K936" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L936" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M936" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="Q936" t="n">
         <v>15</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="K937" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L937" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M937" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1667</v>
+        <v>833</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67884,7 +67884,7 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -67893,32 +67893,32 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="K938" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L938" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M938" t="n">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1500</v>
+        <v>778</v>
       </c>
       <c r="Q938" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67956,41 +67956,41 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K939" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L939" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M939" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="Q939" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="K940" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L940" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M940" t="n">
-        <v>12583</v>
+        <v>24000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>839</v>
+        <v>1600</v>
       </c>
       <c r="Q940" t="n">
         <v>15</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E941" t="n">
         <v>9</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K941" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L941" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M941" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>2333</v>
+        <v>1667</v>
       </c>
       <c r="Q941" t="n">
         <v>15</v>
@@ -68157,58 +68157,346 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E942" t="n">
+        <v>9</v>
+      </c>
+      <c r="F942" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G942" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J942" t="n">
+        <v>360</v>
+      </c>
+      <c r="K942" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L942" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M942" t="n">
+        <v>22500</v>
+      </c>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O942" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P942" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>15</v>
+      </c>
+      <c r="R942" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>10</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D943" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E943" t="n">
+        <v>9</v>
+      </c>
+      <c r="F943" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G943" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J943" t="n">
+        <v>30</v>
+      </c>
+      <c r="K943" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L943" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M943" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N943" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O943" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P943" t="n">
+        <v>933</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>15</v>
+      </c>
+      <c r="R943" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>10</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D944" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E944" t="n">
+        <v>9</v>
+      </c>
+      <c r="F944" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G944" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J944" t="n">
+        <v>240</v>
+      </c>
+      <c r="K944" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L944" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M944" t="n">
+        <v>12583</v>
+      </c>
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O944" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P944" t="n">
+        <v>839</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>15</v>
+      </c>
+      <c r="R944" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>10</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D945" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E942" t="n">
-        <v>9</v>
-      </c>
-      <c r="F942" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H942" t="inlineStr">
+      <c r="E945" t="n">
+        <v>9</v>
+      </c>
+      <c r="F945" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J945" t="n">
+        <v>125</v>
+      </c>
+      <c r="K945" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L945" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M945" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O945" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P945" t="n">
+        <v>2333</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>15</v>
+      </c>
+      <c r="R945" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>10</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D946" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E946" t="n">
+        <v>9</v>
+      </c>
+      <c r="F946" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H946" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I942" t="inlineStr">
+      <c r="I946" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="J942" t="n">
+      <c r="J946" t="n">
         <v>200</v>
       </c>
-      <c r="K942" t="n">
+      <c r="K946" t="n">
         <v>30000</v>
       </c>
-      <c r="L942" t="n">
+      <c r="L946" t="n">
         <v>30000</v>
       </c>
-      <c r="M942" t="n">
+      <c r="M946" t="n">
         <v>30000</v>
       </c>
-      <c r="N942" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O942" t="inlineStr">
+      <c r="N946" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O946" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P942" t="n">
+      <c r="P946" t="n">
         <v>2000</v>
       </c>
-      <c r="Q942" t="n">
-        <v>15</v>
-      </c>
-      <c r="R942" t="inlineStr">
+      <c r="Q946" t="n">
+        <v>15</v>
+      </c>
+      <c r="R946" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R973"/>
+  <dimension ref="A1:R976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59472,29 +59472,29 @@
         <v>90</v>
       </c>
       <c r="K821" t="n">
-        <v>16000</v>
+        <v>48000</v>
       </c>
       <c r="L821" t="n">
-        <v>17000</v>
+        <v>50000</v>
       </c>
       <c r="M821" t="n">
-        <v>16556</v>
+        <v>48778</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>920</v>
+        <v>3252</v>
       </c>
       <c r="Q821" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R821" t="inlineStr">
         <is>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -59532,41 +59532,41 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K822" t="n">
-        <v>14000</v>
+        <v>48000</v>
       </c>
       <c r="L822" t="n">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="M822" t="n">
-        <v>14000</v>
+        <v>48520</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>778</v>
+        <v>3235</v>
       </c>
       <c r="Q822" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R822" t="inlineStr">
         <is>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -59604,7 +59604,7 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>50</v>
+        <v>265</v>
       </c>
       <c r="K823" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L823" t="n">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="M823" t="n">
-        <v>35400</v>
+        <v>40415</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>2360</v>
+        <v>2694</v>
       </c>
       <c r="Q823" t="n">
         <v>15</v>
@@ -59676,7 +59676,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -59685,32 +59685,32 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K824" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L824" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M824" t="n">
-        <v>15000</v>
+        <v>16556</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q824" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R824" t="inlineStr">
         <is>
@@ -59748,41 +59748,41 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K825" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L825" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M825" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q825" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R825" t="inlineStr">
         <is>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -59820,7 +59820,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K826" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L826" t="n">
-        <v>14000</v>
+        <v>36000</v>
       </c>
       <c r="M826" t="n">
-        <v>14000</v>
+        <v>35400</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>933</v>
+        <v>2360</v>
       </c>
       <c r="Q826" t="n">
         <v>15</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -59892,25 +59892,25 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K827" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L827" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M827" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q827" t="n">
         <v>15</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="K828" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L828" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M828" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1533</v>
+        <v>1000</v>
       </c>
       <c r="Q828" t="n">
         <v>15</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K829" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="L829" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M829" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>3000</v>
+        <v>933</v>
       </c>
       <c r="Q829" t="n">
         <v>15</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60108,25 +60108,25 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="K830" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="L830" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="M830" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>3000</v>
+        <v>667</v>
       </c>
       <c r="Q830" t="n">
         <v>15</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -60180,7 +60180,7 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="K831" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L831" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M831" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>2667</v>
+        <v>1533</v>
       </c>
       <c r="Q831" t="n">
         <v>15</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K832" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="L832" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="M832" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>3333</v>
+        <v>3000</v>
       </c>
       <c r="Q832" t="n">
         <v>15</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -60333,7 +60333,7 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="K833" t="n">
         <v>45000</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K834" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="L834" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="M834" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>2867</v>
+        <v>2667</v>
       </c>
       <c r="Q834" t="n">
         <v>15</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K835" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L835" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M835" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="Q835" t="n">
         <v>15</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,32 +60549,32 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K836" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="L836" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M836" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>1333</v>
+        <v>3000</v>
       </c>
       <c r="Q836" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -60612,41 +60612,41 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="K837" t="n">
-        <v>19000</v>
+        <v>43000</v>
       </c>
       <c r="L837" t="n">
-        <v>20000</v>
+        <v>43000</v>
       </c>
       <c r="M837" t="n">
-        <v>19545</v>
+        <v>43000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>1086</v>
+        <v>2867</v>
       </c>
       <c r="Q837" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R837" t="inlineStr">
         <is>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K838" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L838" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M838" t="n">
-        <v>34600</v>
+        <v>30000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>2307</v>
+        <v>2000</v>
       </c>
       <c r="Q838" t="n">
         <v>15</v>
@@ -60756,41 +60756,41 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K839" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L839" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M839" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>2000</v>
+        <v>1333</v>
       </c>
       <c r="Q839" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,32 +60837,32 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="K840" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L840" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M840" t="n">
-        <v>24550</v>
+        <v>19545</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1637</v>
+        <v>1086</v>
       </c>
       <c r="Q840" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="K841" t="n">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="L841" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M841" t="n">
-        <v>14091</v>
+        <v>34600</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>939</v>
+        <v>2307</v>
       </c>
       <c r="Q841" t="n">
         <v>15</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -60972,41 +60972,41 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K842" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L842" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M842" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>833</v>
+        <v>2000</v>
       </c>
       <c r="Q842" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,32 +61053,32 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K843" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L843" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M843" t="n">
-        <v>17000</v>
+        <v>24550</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>944</v>
+        <v>1637</v>
       </c>
       <c r="Q843" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K844" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L844" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M844" t="n">
-        <v>17400</v>
+        <v>14091</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>1160</v>
+        <v>939</v>
       </c>
       <c r="Q844" t="n">
         <v>15</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,7 +61197,7 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K845" t="n">
         <v>15000</v>
@@ -61210,19 +61210,19 @@
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="Q845" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61260,41 +61260,41 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K846" t="n">
-        <v>55000</v>
+        <v>17000</v>
       </c>
       <c r="L846" t="n">
-        <v>55000</v>
+        <v>17000</v>
       </c>
       <c r="M846" t="n">
-        <v>55000</v>
+        <v>17000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>3667</v>
+        <v>944</v>
       </c>
       <c r="Q846" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="K847" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="L847" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="M847" t="n">
-        <v>50000</v>
+        <v>17400</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>3333</v>
+        <v>1160</v>
       </c>
       <c r="Q847" t="n">
         <v>15</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61404,25 +61404,25 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K848" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L848" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M848" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>3333</v>
+        <v>1000</v>
       </c>
       <c r="Q848" t="n">
         <v>15</v>
@@ -61476,25 +61476,25 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="K849" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L849" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="M849" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="Q849" t="n">
         <v>15</v>
@@ -61548,25 +61548,25 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K850" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="L850" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="M850" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>3000</v>
+        <v>3333</v>
       </c>
       <c r="Q850" t="n">
         <v>15</v>
@@ -61620,25 +61620,25 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="K851" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L851" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="M851" t="n">
-        <v>41404</v>
+        <v>50000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>2760</v>
+        <v>3333</v>
       </c>
       <c r="Q851" t="n">
         <v>15</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Cuatro cascos</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61704,13 +61704,13 @@
         <v>185</v>
       </c>
       <c r="K852" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="L852" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="M852" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q852" t="n">
         <v>15</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -61764,25 +61764,25 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="K853" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L853" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M853" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1667</v>
+        <v>3000</v>
       </c>
       <c r="Q853" t="n">
         <v>15</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61836,25 +61836,25 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="K854" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="L854" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="M854" t="n">
-        <v>22000</v>
+        <v>41404</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1467</v>
+        <v>2760</v>
       </c>
       <c r="Q854" t="n">
         <v>15</v>
@@ -61908,7 +61908,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="K855" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L855" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M855" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>1467</v>
+        <v>1600</v>
       </c>
       <c r="Q855" t="n">
         <v>15</v>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -61989,7 +61989,7 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K856" t="n">
         <v>25000</v>
@@ -62007,7 +62007,7 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P856" t="n">
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62061,16 +62061,16 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K857" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L857" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M857" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K858" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L858" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M858" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="Q858" t="n">
         <v>15</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="K859" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L859" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M859" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1100</v>
+        <v>1667</v>
       </c>
       <c r="Q859" t="n">
         <v>15</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62268,25 +62268,25 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K860" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L860" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="M860" t="n">
-        <v>36154</v>
+        <v>18000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>2410</v>
+        <v>1200</v>
       </c>
       <c r="Q860" t="n">
         <v>15</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62340,25 +62340,25 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="K861" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L861" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M861" t="n">
-        <v>28500</v>
+        <v>20000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>1900</v>
+        <v>1333</v>
       </c>
       <c r="Q861" t="n">
         <v>15</v>
@@ -62412,25 +62412,25 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K862" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L862" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M862" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1667</v>
+        <v>1100</v>
       </c>
       <c r="Q862" t="n">
         <v>15</v>
@@ -62484,7 +62484,7 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K863" t="n">
         <v>35000</v>
       </c>
       <c r="L863" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M863" t="n">
-        <v>35000</v>
+        <v>36154</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>2333</v>
+        <v>2410</v>
       </c>
       <c r="Q863" t="n">
         <v>15</v>
@@ -62556,7 +62556,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K864" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L864" t="n">
         <v>30000</v>
       </c>
       <c r="M864" t="n">
-        <v>30000</v>
+        <v>28500</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Q864" t="n">
         <v>15</v>
@@ -62628,25 +62628,25 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K865" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L865" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M865" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="Q865" t="n">
         <v>15</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -62709,32 +62709,32 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K866" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L866" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M866" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>1000</v>
+        <v>2333</v>
       </c>
       <c r="Q866" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,32 +62781,32 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K867" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L867" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M867" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>889</v>
+        <v>2000</v>
       </c>
       <c r="Q867" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62844,25 +62844,25 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K868" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L868" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="M868" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,32 +62925,32 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K869" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L869" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M869" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q869" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62988,7 +62988,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -62997,32 +62997,32 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="K870" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L870" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M870" t="n">
-        <v>17589</v>
+        <v>16000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>1173</v>
+        <v>889</v>
       </c>
       <c r="Q870" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63060,25 +63060,25 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K871" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L871" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M871" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="Q871" t="n">
         <v>15</v>
@@ -63132,25 +63132,25 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="K872" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L872" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M872" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q872" t="n">
         <v>15</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,32 +63213,32 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="K873" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L873" t="n">
         <v>18000</v>
       </c>
       <c r="M873" t="n">
-        <v>18000</v>
+        <v>17589</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1000</v>
+        <v>1173</v>
       </c>
       <c r="Q873" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63276,25 +63276,25 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K874" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L874" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M874" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="Q874" t="n">
         <v>15</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63348,7 +63348,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -63357,32 +63357,32 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K875" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L875" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M875" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q875" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63420,25 +63420,25 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K876" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L876" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M876" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63492,7 +63492,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K877" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L877" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M877" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1333</v>
+        <v>833</v>
       </c>
       <c r="Q877" t="n">
         <v>15</v>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,32 +63573,32 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="K878" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L878" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M878" t="n">
-        <v>13700</v>
+        <v>12000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>913</v>
+        <v>667</v>
       </c>
       <c r="Q878" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63636,41 +63636,41 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K879" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L879" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M879" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q879" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K880" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L880" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="M880" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>3333</v>
+        <v>1333</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="K881" t="n">
-        <v>50000</v>
+        <v>13500</v>
       </c>
       <c r="L881" t="n">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="M881" t="n">
-        <v>50000</v>
+        <v>13700</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>3333</v>
+        <v>913</v>
       </c>
       <c r="Q881" t="n">
         <v>15</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -63852,25 +63852,25 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K882" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="L882" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="M882" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q882" t="n">
         <v>15</v>
@@ -63924,25 +63924,25 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K883" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="L883" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="M883" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>2867</v>
+        <v>3333</v>
       </c>
       <c r="Q883" t="n">
         <v>15</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K884" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L884" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M884" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q884" t="n">
         <v>15</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K885" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L885" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M885" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>2333</v>
+        <v>3000</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -64140,25 +64140,25 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K886" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="L886" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="M886" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1200</v>
+        <v>2867</v>
       </c>
       <c r="Q886" t="n">
         <v>15</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K887" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L887" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M887" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1200</v>
+        <v>2667</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64284,25 +64284,25 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K888" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L888" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M888" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>3333</v>
+        <v>2333</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64368,13 +64368,13 @@
         <v>140</v>
       </c>
       <c r="K889" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="L889" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M889" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K890" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="L890" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M890" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>2667</v>
+        <v>1200</v>
       </c>
       <c r="Q890" t="n">
         <v>15</v>
@@ -64500,25 +64500,25 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K891" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="L891" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M891" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>2333</v>
+        <v>3333</v>
       </c>
       <c r="Q891" t="n">
         <v>15</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="K892" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="L892" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="M892" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>2867</v>
+        <v>3000</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K893" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L893" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M893" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>2000</v>
+        <v>2667</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K894" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L894" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M894" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>1200</v>
+        <v>2333</v>
       </c>
       <c r="Q894" t="n">
         <v>15</v>
@@ -64788,41 +64788,41 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K895" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="L895" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="M895" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>1000</v>
+        <v>2867</v>
       </c>
       <c r="Q895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K896" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="L896" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="M896" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q896" t="n">
         <v>15</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K897" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="L897" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="M897" t="n">
-        <v>45000</v>
+        <v>18000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65013,32 +65013,32 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="K898" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="L898" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M898" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>2667</v>
+        <v>1000</v>
       </c>
       <c r="Q898" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65076,25 +65076,25 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K899" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="L899" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="M899" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>2333</v>
+        <v>3200</v>
       </c>
       <c r="Q899" t="n">
         <v>15</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -65148,41 +65148,41 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K900" t="n">
-        <v>34000</v>
+        <v>45000</v>
       </c>
       <c r="L900" t="n">
-        <v>34000</v>
+        <v>45000</v>
       </c>
       <c r="M900" t="n">
-        <v>34000</v>
+        <v>45000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="Q900" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,32 +65229,32 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K901" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="L901" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M901" t="n">
-        <v>19429</v>
+        <v>40000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1079</v>
+        <v>2667</v>
       </c>
       <c r="Q901" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65304,29 +65304,29 @@
         <v>50</v>
       </c>
       <c r="K902" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L902" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M902" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>944</v>
+        <v>2333</v>
       </c>
       <c r="Q902" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,32 +65373,32 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K903" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L903" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M903" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="Q903" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,32 +65445,32 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K904" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L904" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M904" t="n">
-        <v>15000</v>
+        <v>19429</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1000</v>
+        <v>1079</v>
       </c>
       <c r="Q904" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -65508,41 +65508,41 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K905" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L905" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="M905" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1867</v>
+        <v>944</v>
       </c>
       <c r="Q905" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="K906" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L906" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M906" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K907" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L907" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M907" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1667</v>
+        <v>1000</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,32 +65733,32 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="K908" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="L908" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="M908" t="n">
-        <v>11500</v>
+        <v>28000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>639</v>
+        <v>1867</v>
       </c>
       <c r="Q908" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65796,41 +65796,41 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="K909" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L909" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M909" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1667</v>
+        <v>667</v>
       </c>
       <c r="Q909" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K910" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L910" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M910" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>1400</v>
+        <v>1667</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,32 +65949,32 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K911" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L911" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M911" t="n">
-        <v>19000</v>
+        <v>11500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1267</v>
+        <v>639</v>
       </c>
       <c r="Q911" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K912" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L912" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M912" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66096,13 +66096,13 @@
         <v>200</v>
       </c>
       <c r="K913" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L913" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M913" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q913" t="n">
         <v>15</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,32 +66165,32 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="K914" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L914" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M914" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1389</v>
+        <v>1267</v>
       </c>
       <c r="Q914" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66228,25 +66228,25 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K915" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L915" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M915" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,32 +66309,32 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K916" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L916" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M916" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="Q916" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66372,25 +66372,25 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K917" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L917" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M917" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>833</v>
+        <v>1389</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66444,41 +66444,41 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K918" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L918" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="M918" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>2667</v>
+        <v>833</v>
       </c>
       <c r="Q918" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66516,41 +66516,41 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K919" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L919" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M919" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>2200</v>
+        <v>944</v>
       </c>
       <c r="Q919" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66588,41 +66588,41 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K920" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L920" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M920" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q920" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66672,13 +66672,13 @@
         <v>20</v>
       </c>
       <c r="K921" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="L921" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M921" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1133</v>
+        <v>2667</v>
       </c>
       <c r="Q921" t="n">
         <v>15</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66732,25 +66732,25 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K922" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L922" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="M922" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>867</v>
+        <v>2200</v>
       </c>
       <c r="Q922" t="n">
         <v>15</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -66804,25 +66804,25 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
         <v>40</v>
       </c>
       <c r="K923" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L923" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M923" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>933</v>
+        <v>2000</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -66876,25 +66876,25 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="K924" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L924" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M924" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="Q924" t="n">
         <v>15</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,32 +66957,32 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K925" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L925" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M925" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="Q925" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67020,25 +67020,25 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K926" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L926" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M926" t="n">
-        <v>16857</v>
+        <v>14000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>1124</v>
+        <v>933</v>
       </c>
       <c r="Q926" t="n">
         <v>15</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="K927" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L927" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M927" t="n">
-        <v>15448</v>
+        <v>12000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>1030</v>
+        <v>800</v>
       </c>
       <c r="Q927" t="n">
         <v>15</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,32 +67173,32 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K928" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L928" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M928" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="Q928" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E929" t="n">
         <v>9</v>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="K929" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L929" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M929" t="n">
-        <v>13500</v>
+        <v>16857</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>900</v>
+        <v>1124</v>
       </c>
       <c r="Q929" t="n">
         <v>15</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="K930" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L930" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M930" t="n">
-        <v>30000</v>
+        <v>15448</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>2000</v>
+        <v>1030</v>
       </c>
       <c r="Q930" t="n">
         <v>15</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E931" t="n">
         <v>9</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="K931" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L931" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M931" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="Q931" t="n">
         <v>15</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,32 +67461,32 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K932" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="L932" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M932" t="n">
-        <v>35000</v>
+        <v>13500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>1944</v>
+        <v>900</v>
       </c>
       <c r="Q932" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,32 +67533,32 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K933" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L933" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M933" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>1389</v>
+        <v>2000</v>
       </c>
       <c r="Q933" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67596,25 +67596,25 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K934" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L934" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M934" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="Q934" t="n">
         <v>15</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67677,32 +67677,32 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K935" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L935" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M935" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>2667</v>
+        <v>1944</v>
       </c>
       <c r="Q935" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
@@ -67749,32 +67749,32 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K936" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="L936" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="M936" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>2533</v>
+        <v>1389</v>
       </c>
       <c r="Q936" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67812,41 +67812,41 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K937" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L937" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M937" t="n">
-        <v>16467</v>
+        <v>12000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>915</v>
+        <v>800</v>
       </c>
       <c r="Q937" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E938" t="n">
         <v>9</v>
@@ -67884,41 +67884,41 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="K938" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="L938" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="M938" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>778</v>
+        <v>2667</v>
       </c>
       <c r="Q938" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E939" t="n">
         <v>9</v>
@@ -67956,25 +67956,25 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="K939" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="L939" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="M939" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>2667</v>
+        <v>2533</v>
       </c>
       <c r="Q939" t="n">
         <v>15</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,32 +68037,32 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K940" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L940" t="n">
-        <v>36000</v>
+        <v>17000</v>
       </c>
       <c r="M940" t="n">
-        <v>35500</v>
+        <v>16467</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>2367</v>
+        <v>915</v>
       </c>
       <c r="Q940" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68100,41 +68100,41 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K941" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L941" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M941" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>1267</v>
+        <v>778</v>
       </c>
       <c r="Q941" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68172,25 +68172,25 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="K942" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L942" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="M942" t="n">
-        <v>15583</v>
+        <v>40000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>1039</v>
+        <v>2667</v>
       </c>
       <c r="Q942" t="n">
         <v>15</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K943" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L943" t="n">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="M943" t="n">
-        <v>15000</v>
+        <v>35500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>1000</v>
+        <v>2367</v>
       </c>
       <c r="Q943" t="n">
         <v>15</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E944" t="n">
         <v>9</v>
@@ -68316,25 +68316,25 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K944" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L944" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M944" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>933</v>
+        <v>1267</v>
       </c>
       <c r="Q944" t="n">
         <v>15</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E945" t="n">
         <v>9</v>
@@ -68388,25 +68388,25 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="K945" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L945" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M945" t="n">
-        <v>10000</v>
+        <v>15583</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>667</v>
+        <v>1039</v>
       </c>
       <c r="Q945" t="n">
         <v>15</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E946" t="n">
         <v>9</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K946" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L946" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M946" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1533</v>
+        <v>1000</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E947" t="n">
         <v>9</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,32 +68541,32 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="K947" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L947" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M947" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q947" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E948" t="n">
         <v>9</v>
@@ -68604,41 +68604,41 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K948" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L948" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M948" t="n">
-        <v>12448</v>
+        <v>10000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="Q948" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E949" t="n">
         <v>9</v>
@@ -68676,41 +68676,41 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="K949" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="L949" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="M949" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>444</v>
+        <v>1533</v>
       </c>
       <c r="Q949" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,32 +68757,32 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K950" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L950" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M950" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q950" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,32 +68829,32 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K951" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L951" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M951" t="n">
-        <v>18000</v>
+        <v>12448</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>1200</v>
+        <v>692</v>
       </c>
       <c r="Q951" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68892,41 +68892,41 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="K952" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L952" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M952" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>867</v>
+        <v>444</v>
       </c>
       <c r="Q952" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E953" t="n">
         <v>9</v>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K953" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L953" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M953" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>800</v>
+        <v>1333</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E954" t="n">
         <v>9</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="K954" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L954" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M954" t="n">
-        <v>10429</v>
+        <v>18000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>695</v>
+        <v>1200</v>
       </c>
       <c r="Q954" t="n">
         <v>15</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E955" t="n">
         <v>9</v>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69117,32 +69117,32 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="K955" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L955" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M955" t="n">
-        <v>14583</v>
+        <v>13000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>810</v>
+        <v>867</v>
       </c>
       <c r="Q955" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69180,16 +69180,16 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K956" t="n">
         <v>12000</v>
@@ -69202,19 +69202,19 @@
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q956" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K957" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L957" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M957" t="n">
-        <v>15000</v>
+        <v>10429</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1000</v>
+        <v>695</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E958" t="n">
         <v>9</v>
@@ -69324,41 +69324,41 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="K958" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L958" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M958" t="n">
-        <v>35000</v>
+        <v>14583</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>2333</v>
+        <v>810</v>
       </c>
       <c r="Q958" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E959" t="n">
         <v>9</v>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="K959" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L959" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M959" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="Q959" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E960" t="n">
         <v>9</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K960" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L960" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M960" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E961" t="n">
         <v>9</v>
@@ -69540,41 +69540,41 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J961" t="n">
         <v>50</v>
       </c>
       <c r="K961" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="L961" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="M961" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>722</v>
+        <v>2333</v>
       </c>
       <c r="Q961" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E962" t="n">
         <v>9</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,32 +69621,32 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K962" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L962" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M962" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="Q962" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E963" t="n">
         <v>9</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="K963" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L963" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M963" t="n">
-        <v>19111</v>
+        <v>30000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1274</v>
+        <v>2000</v>
       </c>
       <c r="Q963" t="n">
         <v>15</v>
@@ -69756,41 +69756,41 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K964" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L964" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M964" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>1067</v>
+        <v>722</v>
       </c>
       <c r="Q964" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,32 +69837,32 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K965" t="n">
         <v>12000</v>
       </c>
       <c r="L965" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M965" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q965" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E966" t="n">
         <v>9</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K966" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L966" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M966" t="n">
-        <v>23000</v>
+        <v>19111</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1533</v>
+        <v>1274</v>
       </c>
       <c r="Q966" t="n">
         <v>15</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E967" t="n">
         <v>9</v>
@@ -69972,25 +69972,25 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K967" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L967" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M967" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>2200</v>
+        <v>1067</v>
       </c>
       <c r="Q967" t="n">
         <v>15</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E968" t="n">
         <v>9</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="K968" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L968" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M968" t="n">
-        <v>30000</v>
+        <v>12500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q968" t="n">
         <v>15</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K969" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L969" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M969" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70143,11 +70143,11 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="Q969" t="n">
         <v>15</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -70188,25 +70188,25 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K970" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="L970" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="M970" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>3333</v>
+        <v>2200</v>
       </c>
       <c r="Q970" t="n">
         <v>15</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E971" t="n">
         <v>9</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>195</v>
+        <v>500</v>
       </c>
       <c r="K971" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="L971" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="M971" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q971" t="n">
         <v>15</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -70332,25 +70332,25 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="K972" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="L972" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M972" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q972" t="n">
         <v>15</v>
@@ -70404,43 +70404,259 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J973" t="n">
+        <v>110</v>
+      </c>
+      <c r="K973" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L973" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M973" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N973" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O973" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P973" t="n">
+        <v>3333</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>15</v>
+      </c>
+      <c r="R973" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>10</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D974" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E974" t="n">
+        <v>9</v>
+      </c>
+      <c r="F974" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J974" t="n">
+        <v>195</v>
+      </c>
+      <c r="K974" t="n">
+        <v>48000</v>
+      </c>
+      <c r="L974" t="n">
+        <v>48000</v>
+      </c>
+      <c r="M974" t="n">
+        <v>48000</v>
+      </c>
+      <c r="N974" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O974" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P974" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>15</v>
+      </c>
+      <c r="R974" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>10</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D975" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E975" t="n">
+        <v>9</v>
+      </c>
+      <c r="F975" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J975" t="n">
+        <v>110</v>
+      </c>
+      <c r="K975" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L975" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M975" t="n">
+        <v>42000</v>
+      </c>
+      <c r="N975" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O975" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P975" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>15</v>
+      </c>
+      <c r="R975" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>10</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D976" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E976" t="n">
+        <v>9</v>
+      </c>
+      <c r="F976" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I973" t="inlineStr">
+      <c r="I976" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J973" t="n">
+      <c r="J976" t="n">
         <v>210</v>
       </c>
-      <c r="K973" t="n">
+      <c r="K976" t="n">
         <v>40000</v>
       </c>
-      <c r="L973" t="n">
+      <c r="L976" t="n">
         <v>40000</v>
       </c>
-      <c r="M973" t="n">
+      <c r="M976" t="n">
         <v>40000</v>
       </c>
-      <c r="N973" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O973" t="inlineStr">
+      <c r="N976" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O976" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P973" t="n">
+      <c r="P976" t="n">
         <v>2667</v>
       </c>
-      <c r="Q973" t="n">
-        <v>15</v>
-      </c>
-      <c r="R973" t="inlineStr">
+      <c r="Q976" t="n">
+        <v>15</v>
+      </c>
+      <c r="R976" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R976"/>
+  <dimension ref="A1:R980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="K832" t="n">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="L832" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="M832" t="n">
-        <v>45000</v>
+        <v>48933</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>3000</v>
+        <v>3262</v>
       </c>
       <c r="Q832" t="n">
         <v>15</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K833" t="n">
-        <v>45000</v>
+        <v>48000</v>
       </c>
       <c r="L833" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="M833" t="n">
-        <v>45000</v>
+        <v>49086</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>3000</v>
+        <v>3272</v>
       </c>
       <c r="Q833" t="n">
         <v>15</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K834" t="n">
         <v>40000</v>
       </c>
       <c r="L834" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="M834" t="n">
-        <v>40000</v>
+        <v>40581</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>2667</v>
+        <v>2705</v>
       </c>
       <c r="Q834" t="n">
         <v>15</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -60468,25 +60468,25 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K835" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="L835" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="M835" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>3333</v>
+        <v>2400</v>
       </c>
       <c r="Q835" t="n">
         <v>15</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,7 +60549,7 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K836" t="n">
         <v>45000</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -60612,25 +60612,25 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="K837" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="L837" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="M837" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>2867</v>
+        <v>3000</v>
       </c>
       <c r="Q837" t="n">
         <v>15</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K838" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L838" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M838" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>2000</v>
+        <v>2667</v>
       </c>
       <c r="Q838" t="n">
         <v>15</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -60765,32 +60765,32 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K839" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="L839" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="M839" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>1333</v>
+        <v>3333</v>
       </c>
       <c r="Q839" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -60828,7 +60828,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -60837,32 +60837,32 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="K840" t="n">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="L840" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M840" t="n">
-        <v>19545</v>
+        <v>45000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1086</v>
+        <v>3000</v>
       </c>
       <c r="Q840" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -60900,25 +60900,25 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K841" t="n">
-        <v>34000</v>
+        <v>43000</v>
       </c>
       <c r="L841" t="n">
-        <v>35000</v>
+        <v>43000</v>
       </c>
       <c r="M841" t="n">
-        <v>34600</v>
+        <v>43000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>2307</v>
+        <v>2867</v>
       </c>
       <c r="Q841" t="n">
         <v>15</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -60972,16 +60972,16 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K842" t="n">
         <v>30000</v>
@@ -61044,7 +61044,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -61053,32 +61053,32 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="K843" t="n">
         <v>24000</v>
       </c>
       <c r="L843" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M843" t="n">
-        <v>24550</v>
+        <v>24000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>1637</v>
+        <v>1333</v>
       </c>
       <c r="Q843" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,32 +61125,32 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="K844" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L844" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M844" t="n">
-        <v>14091</v>
+        <v>19545</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>939</v>
+        <v>1086</v>
       </c>
       <c r="Q844" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R844" t="inlineStr">
         <is>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61200,29 +61200,29 @@
         <v>50</v>
       </c>
       <c r="K845" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L845" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M845" t="n">
-        <v>15000</v>
+        <v>34600</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>833</v>
+        <v>2307</v>
       </c>
       <c r="Q845" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61260,41 +61260,41 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K846" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L846" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M846" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>944</v>
+        <v>2000</v>
       </c>
       <c r="Q846" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K847" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L847" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M847" t="n">
-        <v>17400</v>
+        <v>24550</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>1160</v>
+        <v>1637</v>
       </c>
       <c r="Q847" t="n">
         <v>15</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="K848" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L848" t="n">
         <v>15000</v>
       </c>
       <c r="M848" t="n">
-        <v>15000</v>
+        <v>14091</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1000</v>
+        <v>939</v>
       </c>
       <c r="Q848" t="n">
         <v>15</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61476,41 +61476,41 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K849" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="L849" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="M849" t="n">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>3667</v>
+        <v>833</v>
       </c>
       <c r="Q849" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61557,32 +61557,32 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K850" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="L850" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="M850" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>3333</v>
+        <v>944</v>
       </c>
       <c r="Q850" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R850" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K851" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="L851" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="M851" t="n">
-        <v>50000</v>
+        <v>17400</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>3333</v>
+        <v>1160</v>
       </c>
       <c r="Q851" t="n">
         <v>15</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="K852" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="L852" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="M852" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q852" t="n">
         <v>15</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K853" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="L853" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="M853" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>3000</v>
+        <v>3667</v>
       </c>
       <c r="Q853" t="n">
         <v>15</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="K854" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L854" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="M854" t="n">
-        <v>41404</v>
+        <v>50000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>2760</v>
+        <v>3333</v>
       </c>
       <c r="Q854" t="n">
         <v>15</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Cuatro cascos</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="K855" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="L855" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="M855" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>1600</v>
+        <v>3333</v>
       </c>
       <c r="Q855" t="n">
         <v>15</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K856" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L856" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M856" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>1667</v>
+        <v>3000</v>
       </c>
       <c r="Q856" t="n">
         <v>15</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62052,25 +62052,25 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K857" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="L857" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="M857" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>1467</v>
+        <v>3000</v>
       </c>
       <c r="Q857" t="n">
         <v>15</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -62133,16 +62133,16 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="K858" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="L858" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="M858" t="n">
-        <v>22000</v>
+        <v>41404</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1467</v>
+        <v>2760</v>
       </c>
       <c r="Q858" t="n">
         <v>15</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="K859" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L859" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M859" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1667</v>
+        <v>1600</v>
       </c>
       <c r="Q859" t="n">
         <v>15</v>
@@ -62268,25 +62268,25 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="K860" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L860" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M860" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>1200</v>
+        <v>1667</v>
       </c>
       <c r="Q860" t="n">
         <v>15</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="K861" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L861" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M861" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="Q861" t="n">
         <v>15</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>500</v>
+        <v>115</v>
       </c>
       <c r="K862" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L862" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M862" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1100</v>
+        <v>1467</v>
       </c>
       <c r="Q862" t="n">
         <v>15</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62484,25 +62484,25 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K863" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L863" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="M863" t="n">
-        <v>36154</v>
+        <v>25000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>2410</v>
+        <v>1667</v>
       </c>
       <c r="Q863" t="n">
         <v>15</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62556,25 +62556,25 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="K864" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L864" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M864" t="n">
-        <v>28500</v>
+        <v>18000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="Q864" t="n">
         <v>15</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62628,7 +62628,7 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K865" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L865" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M865" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="Q865" t="n">
         <v>15</v>
@@ -62700,25 +62700,25 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K866" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L866" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M866" t="n">
-        <v>35000</v>
+        <v>16500</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>2333</v>
+        <v>1100</v>
       </c>
       <c r="Q866" t="n">
         <v>15</v>
@@ -62772,25 +62772,25 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K867" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L867" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="M867" t="n">
-        <v>30000</v>
+        <v>36154</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>2000</v>
+        <v>2410</v>
       </c>
       <c r="Q867" t="n">
         <v>15</v>
@@ -62844,25 +62844,25 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="K868" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L868" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M868" t="n">
-        <v>15000</v>
+        <v>28500</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62916,41 +62916,41 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K869" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L869" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M869" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="Q869" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62988,41 +62988,41 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K870" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L870" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M870" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>889</v>
+        <v>2333</v>
       </c>
       <c r="Q870" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K871" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L871" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M871" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Q871" t="n">
         <v>15</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63132,25 +63132,25 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K872" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L872" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M872" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q872" t="n">
         <v>15</v>
@@ -63204,41 +63204,41 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="K873" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L873" t="n">
         <v>18000</v>
       </c>
       <c r="M873" t="n">
-        <v>17589</v>
+        <v>18000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1173</v>
+        <v>1000</v>
       </c>
       <c r="Q873" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63276,41 +63276,41 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K874" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L874" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M874" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1200</v>
+        <v>889</v>
       </c>
       <c r="Q874" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63348,7 +63348,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="K875" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L875" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="M875" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="Q875" t="n">
         <v>15</v>
@@ -63420,41 +63420,41 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K876" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L876" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M876" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q876" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63492,7 +63492,7 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="K877" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L877" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M877" t="n">
-        <v>12500</v>
+        <v>17589</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>833</v>
+        <v>1173</v>
       </c>
       <c r="Q877" t="n">
         <v>15</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63564,41 +63564,41 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="K878" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L878" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M878" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q878" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63636,41 +63636,41 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K879" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L879" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M879" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q879" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,32 +63717,32 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K880" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L880" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M880" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q880" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63780,7 +63780,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K881" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L881" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M881" t="n">
-        <v>13700</v>
+        <v>12500</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>913</v>
+        <v>833</v>
       </c>
       <c r="Q881" t="n">
         <v>15</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,7 +63861,7 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K882" t="n">
         <v>12000</v>
@@ -63874,19 +63874,19 @@
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q882" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -63924,41 +63924,41 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K883" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="L883" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="M883" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>3333</v>
+        <v>556</v>
       </c>
       <c r="Q883" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K884" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L884" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="M884" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>3333</v>
+        <v>1333</v>
       </c>
       <c r="Q884" t="n">
         <v>15</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K885" t="n">
-        <v>45000</v>
+        <v>13500</v>
       </c>
       <c r="L885" t="n">
-        <v>45000</v>
+        <v>14000</v>
       </c>
       <c r="M885" t="n">
-        <v>45000</v>
+        <v>13700</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>3000</v>
+        <v>913</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K886" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="L886" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="M886" t="n">
-        <v>43000</v>
+        <v>12000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>2867</v>
+        <v>800</v>
       </c>
       <c r="Q886" t="n">
         <v>15</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K887" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L887" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M887" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64284,25 +64284,25 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K888" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="L888" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M888" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>2333</v>
+        <v>3333</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K889" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="L889" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M889" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K890" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="L890" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="M890" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1200</v>
+        <v>2867</v>
       </c>
       <c r="Q890" t="n">
         <v>15</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K891" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L891" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="M891" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>3333</v>
+        <v>2667</v>
       </c>
       <c r="Q891" t="n">
         <v>15</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64572,25 +64572,25 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K892" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L892" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M892" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>3000</v>
+        <v>2333</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64644,7 +64644,7 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="K893" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="L893" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M893" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>2667</v>
+        <v>1200</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K894" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L894" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M894" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>2333</v>
+        <v>1200</v>
       </c>
       <c r="Q894" t="n">
         <v>15</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64788,25 +64788,25 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K895" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="L895" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="M895" t="n">
-        <v>43000</v>
+        <v>50000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>2867</v>
+        <v>3333</v>
       </c>
       <c r="Q895" t="n">
         <v>15</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K896" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L896" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M896" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q896" t="n">
         <v>15</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="K897" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L897" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="M897" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1200</v>
+        <v>2667</v>
       </c>
       <c r="Q897" t="n">
         <v>15</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65009,36 +65009,36 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K898" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L898" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M898" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1000</v>
+        <v>2333</v>
       </c>
       <c r="Q898" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K899" t="n">
-        <v>48000</v>
+        <v>43000</v>
       </c>
       <c r="L899" t="n">
-        <v>48000</v>
+        <v>43000</v>
       </c>
       <c r="M899" t="n">
-        <v>48000</v>
+        <v>43000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>3200</v>
+        <v>2867</v>
       </c>
       <c r="Q899" t="n">
         <v>15</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K900" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L900" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M900" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q900" t="n">
         <v>15</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K901" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="L901" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M901" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>2667</v>
+        <v>1200</v>
       </c>
       <c r="Q901" t="n">
         <v>15</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65297,36 +65297,36 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K902" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L902" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M902" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>2333</v>
+        <v>1000</v>
       </c>
       <c r="Q902" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,32 +65373,32 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K903" t="n">
-        <v>34000</v>
+        <v>48000</v>
       </c>
       <c r="L903" t="n">
-        <v>34000</v>
+        <v>48000</v>
       </c>
       <c r="M903" t="n">
-        <v>34000</v>
+        <v>48000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>1889</v>
+        <v>3200</v>
       </c>
       <c r="Q903" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65436,41 +65436,41 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K904" t="n">
-        <v>19000</v>
+        <v>45000</v>
       </c>
       <c r="L904" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="M904" t="n">
-        <v>19429</v>
+        <v>45000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1079</v>
+        <v>3000</v>
       </c>
       <c r="Q904" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -65508,41 +65508,41 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K905" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="L905" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M905" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>944</v>
+        <v>2667</v>
       </c>
       <c r="Q905" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65580,25 +65580,25 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J906" t="n">
         <v>50</v>
       </c>
       <c r="K906" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L906" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M906" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>2000</v>
+        <v>2333</v>
       </c>
       <c r="Q906" t="n">
         <v>15</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,32 +65661,32 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K907" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="L907" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="M907" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1000</v>
+        <v>1889</v>
       </c>
       <c r="Q907" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,32 +65733,32 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K908" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="L908" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M908" t="n">
-        <v>28000</v>
+        <v>19429</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>1867</v>
+        <v>1079</v>
       </c>
       <c r="Q908" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65796,41 +65796,41 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="K909" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L909" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M909" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q909" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65868,7 +65868,7 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K910" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L910" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M910" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>1667</v>
+        <v>2000</v>
       </c>
       <c r="Q910" t="n">
         <v>15</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65940,7 +65940,7 @@
       </c>
       <c r="H911" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -65949,32 +65949,32 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="K911" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L911" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M911" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>639</v>
+        <v>1000</v>
       </c>
       <c r="Q911" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -66012,41 +66012,41 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K912" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L912" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M912" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1667</v>
+        <v>1867</v>
       </c>
       <c r="Q912" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="K913" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L913" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M913" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="Q913" t="n">
         <v>15</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="K914" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L914" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M914" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1267</v>
+        <v>1667</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66228,25 +66228,25 @@
       </c>
       <c r="H915" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="K915" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L915" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M915" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1000</v>
+        <v>639</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66300,41 +66300,41 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K916" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L916" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M916" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>800</v>
+        <v>1667</v>
       </c>
       <c r="Q916" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,32 +66381,32 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K917" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L917" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M917" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1389</v>
+        <v>1400</v>
       </c>
       <c r="Q917" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,32 +66453,32 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="K918" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L918" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M918" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>833</v>
+        <v>1267</v>
       </c>
       <c r="Q918" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66516,25 +66516,25 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K919" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L919" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M919" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66588,41 +66588,41 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K920" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L920" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M920" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="Q920" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66660,41 +66660,41 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K921" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L921" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M921" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>2667</v>
+        <v>1389</v>
       </c>
       <c r="Q921" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66732,41 +66732,41 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K922" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L922" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="M922" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>2200</v>
+        <v>833</v>
       </c>
       <c r="Q922" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,32 +66813,32 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K923" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L923" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M923" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>2000</v>
+        <v>944</v>
       </c>
       <c r="Q923" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66876,41 +66876,41 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K924" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L924" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M924" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="Q924" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66948,25 +66948,25 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K925" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="L925" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M925" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>867</v>
+        <v>2667</v>
       </c>
       <c r="Q925" t="n">
         <v>15</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E926" t="n">
         <v>9</v>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K926" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="L926" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M926" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>933</v>
+        <v>2200</v>
       </c>
       <c r="Q926" t="n">
         <v>15</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="K927" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L927" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M927" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q927" t="n">
         <v>15</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67164,41 +67164,41 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K928" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L928" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M928" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>778</v>
+        <v>1133</v>
       </c>
       <c r="Q928" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R928" t="inlineStr">
         <is>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="K929" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L929" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M929" t="n">
-        <v>16857</v>
+        <v>13000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>1124</v>
+        <v>867</v>
       </c>
       <c r="Q929" t="n">
         <v>15</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -67308,25 +67308,25 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="K930" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L930" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M930" t="n">
-        <v>15448</v>
+        <v>14000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>1030</v>
+        <v>933</v>
       </c>
       <c r="Q930" t="n">
         <v>15</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E931" t="n">
         <v>9</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,7 +67389,7 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="K931" t="n">
         <v>12000</v>
@@ -67407,7 +67407,7 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P931" t="n">
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E932" t="n">
         <v>9</v>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -67461,32 +67461,32 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K932" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L932" t="n">
         <v>14000</v>
       </c>
       <c r="M932" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="Q932" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E933" t="n">
         <v>9</v>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="K933" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L933" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M933" t="n">
-        <v>30000</v>
+        <v>16857</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>2000</v>
+        <v>1124</v>
       </c>
       <c r="Q933" t="n">
         <v>15</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E934" t="n">
         <v>9</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>400</v>
+        <v>145</v>
       </c>
       <c r="K934" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L934" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="M934" t="n">
-        <v>21000</v>
+        <v>15448</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>1400</v>
+        <v>1030</v>
       </c>
       <c r="Q934" t="n">
         <v>15</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,32 +67677,32 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K935" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L935" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M935" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>1944</v>
+        <v>800</v>
       </c>
       <c r="Q935" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R935" t="inlineStr">
         <is>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,32 +67749,32 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K936" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L936" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M936" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1389</v>
+        <v>900</v>
       </c>
       <c r="Q936" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J937" t="n">
         <v>50</v>
       </c>
       <c r="K937" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L937" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M937" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E938" t="n">
         <v>9</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="K938" t="n">
-        <v>40000</v>
+        <v>21000</v>
       </c>
       <c r="L938" t="n">
-        <v>40000</v>
+        <v>21000</v>
       </c>
       <c r="M938" t="n">
-        <v>40000</v>
+        <v>21000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>2667</v>
+        <v>1400</v>
       </c>
       <c r="Q938" t="n">
         <v>15</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E939" t="n">
         <v>9</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,32 +67965,32 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K939" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="L939" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="M939" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>2533</v>
+        <v>1944</v>
       </c>
       <c r="Q939" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E940" t="n">
         <v>9</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K940" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L940" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M940" t="n">
-        <v>16467</v>
+        <v>25000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>915</v>
+        <v>1389</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E941" t="n">
         <v>9</v>
@@ -68100,7 +68100,7 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
@@ -68109,32 +68109,32 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K941" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L941" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M941" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="Q941" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E942" t="n">
         <v>9</v>
@@ -68172,16 +68172,16 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K942" t="n">
         <v>40000</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E943" t="n">
         <v>9</v>
@@ -68244,7 +68244,7 @@
       </c>
       <c r="H943" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K943" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="L943" t="n">
-        <v>36000</v>
+        <v>38000</v>
       </c>
       <c r="M943" t="n">
-        <v>35500</v>
+        <v>38000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>2367</v>
+        <v>2533</v>
       </c>
       <c r="Q943" t="n">
         <v>15</v>
@@ -68316,41 +68316,41 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K944" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L944" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M944" t="n">
-        <v>19000</v>
+        <v>16467</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>1267</v>
+        <v>915</v>
       </c>
       <c r="Q944" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68388,41 +68388,41 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="K945" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L945" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M945" t="n">
-        <v>15583</v>
+        <v>14000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>1039</v>
+        <v>778</v>
       </c>
       <c r="Q945" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68460,25 +68460,25 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K946" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L946" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M946" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E947" t="n">
         <v>9</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K947" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L947" t="n">
-        <v>14000</v>
+        <v>36000</v>
       </c>
       <c r="M947" t="n">
-        <v>14000</v>
+        <v>35500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>933</v>
+        <v>2367</v>
       </c>
       <c r="Q947" t="n">
         <v>15</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E948" t="n">
         <v>9</v>
@@ -68604,25 +68604,25 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K948" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L948" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M948" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>667</v>
+        <v>1267</v>
       </c>
       <c r="Q948" t="n">
         <v>15</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E949" t="n">
         <v>9</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="K949" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L949" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M949" t="n">
-        <v>23000</v>
+        <v>15583</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1533</v>
+        <v>1039</v>
       </c>
       <c r="Q949" t="n">
         <v>15</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E950" t="n">
         <v>9</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,32 +68757,32 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K950" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L950" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M950" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P950" t="n">
         <v>1000</v>
       </c>
       <c r="Q950" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E951" t="n">
         <v>9</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,32 +68829,32 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="K951" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L951" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M951" t="n">
-        <v>12448</v>
+        <v>14000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>692</v>
+        <v>933</v>
       </c>
       <c r="Q951" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E952" t="n">
         <v>9</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,32 +68901,32 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="K952" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L952" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M952" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q952" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E953" t="n">
         <v>9</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K953" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L953" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M953" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>1333</v>
+        <v>1533</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,7 +69045,7 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="K954" t="n">
         <v>18000</v>
@@ -69058,19 +69058,19 @@
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q954" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69108,7 +69108,7 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
@@ -69117,32 +69117,32 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K955" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L955" t="n">
         <v>13000</v>
       </c>
       <c r="M955" t="n">
-        <v>13000</v>
+        <v>12448</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>867</v>
+        <v>692</v>
       </c>
       <c r="Q955" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E956" t="n">
         <v>9</v>
@@ -69180,41 +69180,41 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K956" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L956" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M956" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="Q956" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>700</v>
+        <v>55</v>
       </c>
       <c r="K957" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L957" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="M957" t="n">
-        <v>10429</v>
+        <v>20000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>695</v>
+        <v>1333</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E958" t="n">
         <v>9</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,32 +69333,32 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="K958" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L958" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M958" t="n">
-        <v>14583</v>
+        <v>18000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>810</v>
+        <v>1200</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E959" t="n">
         <v>9</v>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K959" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L959" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M959" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="Q959" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69468,25 +69468,25 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="K960" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L960" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M960" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E961" t="n">
         <v>9</v>
@@ -69540,25 +69540,25 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="K961" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L961" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="M961" t="n">
-        <v>35000</v>
+        <v>10429</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>2333</v>
+        <v>695</v>
       </c>
       <c r="Q961" t="n">
         <v>15</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E962" t="n">
         <v>9</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,32 +69621,32 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K962" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L962" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M962" t="n">
-        <v>30000</v>
+        <v>14583</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>2000</v>
+        <v>810</v>
       </c>
       <c r="Q962" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E963" t="n">
         <v>9</v>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="K963" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L963" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M963" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="Q963" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E964" t="n">
         <v>9</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69765,32 +69765,32 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K964" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L964" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M964" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q964" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E965" t="n">
         <v>9</v>
@@ -69828,41 +69828,41 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K965" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L965" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M965" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>667</v>
+        <v>2333</v>
       </c>
       <c r="Q965" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E966" t="n">
         <v>9</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K966" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L966" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M966" t="n">
-        <v>19111</v>
+        <v>30000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1274</v>
+        <v>2000</v>
       </c>
       <c r="Q966" t="n">
         <v>15</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E967" t="n">
         <v>9</v>
@@ -69972,25 +69972,25 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K967" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L967" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M967" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>1067</v>
+        <v>2000</v>
       </c>
       <c r="Q967" t="n">
         <v>15</v>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,32 +70053,32 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K968" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L968" t="n">
         <v>13000</v>
       </c>
       <c r="M968" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q968" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70128,29 +70128,29 @@
         <v>100</v>
       </c>
       <c r="K969" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L969" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="M969" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>1533</v>
+        <v>667</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K970" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L970" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M970" t="n">
-        <v>33000</v>
+        <v>19111</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>2200</v>
+        <v>1274</v>
       </c>
       <c r="Q970" t="n">
         <v>15</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E971" t="n">
         <v>9</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="K971" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L971" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M971" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>2000</v>
+        <v>1067</v>
       </c>
       <c r="Q971" t="n">
         <v>15</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K972" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L972" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M972" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="Q972" t="n">
         <v>15</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E973" t="n">
         <v>9</v>
@@ -70404,25 +70404,25 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K973" t="n">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="L973" t="n">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="M973" t="n">
-        <v>50000</v>
+        <v>23000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>3333</v>
+        <v>1533</v>
       </c>
       <c r="Q973" t="n">
         <v>15</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E974" t="n">
         <v>9</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="K974" t="n">
-        <v>48000</v>
+        <v>33000</v>
       </c>
       <c r="L974" t="n">
-        <v>48000</v>
+        <v>33000</v>
       </c>
       <c r="M974" t="n">
-        <v>48000</v>
+        <v>33000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="Q974" t="n">
         <v>15</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E975" t="n">
         <v>9</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="K975" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="L975" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="M975" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q975" t="n">
         <v>15</v>
@@ -70605,58 +70605,346 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E976" t="n">
+        <v>9</v>
+      </c>
+      <c r="F976" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J976" t="n">
+        <v>180</v>
+      </c>
+      <c r="K976" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L976" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M976" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N976" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O976" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P976" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q976" t="n">
+        <v>15</v>
+      </c>
+      <c r="R976" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>10</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D977" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E976" t="n">
-        <v>9</v>
-      </c>
-      <c r="F976" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H976" t="inlineStr">
+      <c r="E977" t="n">
+        <v>9</v>
+      </c>
+      <c r="F977" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J977" t="n">
+        <v>110</v>
+      </c>
+      <c r="K977" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L977" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M977" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N977" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O977" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P977" t="n">
+        <v>3333</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>15</v>
+      </c>
+      <c r="R977" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>10</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D978" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E978" t="n">
+        <v>9</v>
+      </c>
+      <c r="F978" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J978" t="n">
+        <v>195</v>
+      </c>
+      <c r="K978" t="n">
+        <v>48000</v>
+      </c>
+      <c r="L978" t="n">
+        <v>48000</v>
+      </c>
+      <c r="M978" t="n">
+        <v>48000</v>
+      </c>
+      <c r="N978" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O978" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P978" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>15</v>
+      </c>
+      <c r="R978" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>10</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D979" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E979" t="n">
+        <v>9</v>
+      </c>
+      <c r="F979" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J979" t="n">
+        <v>110</v>
+      </c>
+      <c r="K979" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L979" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M979" t="n">
+        <v>42000</v>
+      </c>
+      <c r="N979" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O979" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P979" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>15</v>
+      </c>
+      <c r="R979" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>10</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D980" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E980" t="n">
+        <v>9</v>
+      </c>
+      <c r="F980" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I976" t="inlineStr">
+      <c r="I980" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J976" t="n">
+      <c r="J980" t="n">
         <v>210</v>
       </c>
-      <c r="K976" t="n">
+      <c r="K980" t="n">
         <v>40000</v>
       </c>
-      <c r="L976" t="n">
+      <c r="L980" t="n">
         <v>40000</v>
       </c>
-      <c r="M976" t="n">
+      <c r="M980" t="n">
         <v>40000</v>
       </c>
-      <c r="N976" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O976" t="inlineStr">
+      <c r="N980" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O980" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P976" t="n">
+      <c r="P980" t="n">
         <v>2667</v>
       </c>
-      <c r="Q976" t="n">
-        <v>15</v>
-      </c>
-      <c r="R976" t="inlineStr">
+      <c r="Q980" t="n">
+        <v>15</v>
+      </c>
+      <c r="R980" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R984"/>
+  <dimension ref="A1:R987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E946" t="n">
         <v>9</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="K946" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L946" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M946" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E947" t="n">
         <v>9</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K947" t="n">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="L947" t="n">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="M947" t="n">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>2533</v>
+        <v>3333</v>
       </c>
       <c r="Q947" t="n">
         <v>15</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E948" t="n">
         <v>9</v>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,32 +68613,32 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K948" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L948" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M948" t="n">
-        <v>16467</v>
+        <v>30000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>915</v>
+        <v>2000</v>
       </c>
       <c r="Q948" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E949" t="n">
         <v>9</v>
@@ -68676,41 +68676,41 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="K949" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="L949" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="M949" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>778</v>
+        <v>2667</v>
       </c>
       <c r="Q949" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E950" t="n">
         <v>9</v>
@@ -68748,25 +68748,25 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="K950" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="L950" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="M950" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>2667</v>
+        <v>2533</v>
       </c>
       <c r="Q950" t="n">
         <v>15</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,32 +68829,32 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K951" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L951" t="n">
-        <v>36000</v>
+        <v>17000</v>
       </c>
       <c r="M951" t="n">
-        <v>35500</v>
+        <v>16467</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>2367</v>
+        <v>915</v>
       </c>
       <c r="Q951" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68892,41 +68892,41 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K952" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L952" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M952" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>1267</v>
+        <v>778</v>
       </c>
       <c r="Q952" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="K953" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L953" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="M953" t="n">
-        <v>15583</v>
+        <v>40000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>1039</v>
+        <v>2667</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K954" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L954" t="n">
-        <v>15000</v>
+        <v>36000</v>
       </c>
       <c r="M954" t="n">
-        <v>15000</v>
+        <v>35500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1000</v>
+        <v>2367</v>
       </c>
       <c r="Q954" t="n">
         <v>15</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E955" t="n">
         <v>9</v>
@@ -69108,25 +69108,25 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K955" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L955" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M955" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>933</v>
+        <v>1267</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E956" t="n">
         <v>9</v>
@@ -69180,25 +69180,25 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="K956" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L956" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M956" t="n">
-        <v>10000</v>
+        <v>15583</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>667</v>
+        <v>1039</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K957" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L957" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M957" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1533</v>
+        <v>1000</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E958" t="n">
         <v>9</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,32 +69333,32 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="K958" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L958" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M958" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E959" t="n">
         <v>9</v>
@@ -69396,41 +69396,41 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K959" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L959" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M959" t="n">
-        <v>12448</v>
+        <v>10000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="Q959" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E960" t="n">
         <v>9</v>
@@ -69468,41 +69468,41 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="K960" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="L960" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="M960" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>444</v>
+        <v>1533</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,32 +69549,32 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K961" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L961" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M961" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q961" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,32 +69621,32 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K962" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L962" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M962" t="n">
-        <v>18000</v>
+        <v>12448</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>1200</v>
+        <v>692</v>
       </c>
       <c r="Q962" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="K963" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L963" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M963" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>867</v>
+        <v>444</v>
       </c>
       <c r="Q963" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E964" t="n">
         <v>9</v>
@@ -69756,25 +69756,25 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="K964" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L964" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M964" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>800</v>
+        <v>1333</v>
       </c>
       <c r="Q964" t="n">
         <v>15</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E965" t="n">
         <v>9</v>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>700</v>
+        <v>125</v>
       </c>
       <c r="K965" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L965" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M965" t="n">
-        <v>10429</v>
+        <v>18000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>695</v>
+        <v>1200</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E966" t="n">
         <v>9</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69909,32 +69909,32 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="K966" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L966" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M966" t="n">
-        <v>14583</v>
+        <v>13000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>810</v>
+        <v>867</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69972,16 +69972,16 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K967" t="n">
         <v>12000</v>
@@ -69994,19 +69994,19 @@
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="K968" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L968" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M968" t="n">
-        <v>15000</v>
+        <v>10429</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>1000</v>
+        <v>695</v>
       </c>
       <c r="Q968" t="n">
         <v>15</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -70116,41 +70116,41 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="K969" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L969" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M969" t="n">
-        <v>35000</v>
+        <v>14583</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>2333</v>
+        <v>810</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -70188,41 +70188,41 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="K970" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L970" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M970" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="Q970" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E971" t="n">
         <v>9</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="K971" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L971" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M971" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q971" t="n">
         <v>15</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -70332,41 +70332,41 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J972" t="n">
         <v>50</v>
       </c>
       <c r="K972" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="L972" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="M972" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>722</v>
+        <v>2333</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E973" t="n">
         <v>9</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70413,32 +70413,32 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K973" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L973" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M973" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="Q973" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E974" t="n">
         <v>9</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="K974" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L974" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M974" t="n">
-        <v>19111</v>
+        <v>30000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>1274</v>
+        <v>2000</v>
       </c>
       <c r="Q974" t="n">
         <v>15</v>
@@ -70548,41 +70548,41 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K975" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L975" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M975" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>1067</v>
+        <v>722</v>
       </c>
       <c r="Q975" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,32 +70629,32 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K976" t="n">
         <v>12000</v>
       </c>
       <c r="L976" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M976" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q976" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E977" t="n">
         <v>9</v>
@@ -70692,7 +70692,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K977" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L977" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M977" t="n">
-        <v>23000</v>
+        <v>19111</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>1533</v>
+        <v>1274</v>
       </c>
       <c r="Q977" t="n">
         <v>15</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E978" t="n">
         <v>9</v>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K978" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L978" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M978" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>2200</v>
+        <v>1067</v>
       </c>
       <c r="Q978" t="n">
         <v>15</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E979" t="n">
         <v>9</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="K979" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L979" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M979" t="n">
-        <v>30000</v>
+        <v>12500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q979" t="n">
         <v>15</v>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K980" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L980" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M980" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="Q980" t="n">
         <v>15</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E981" t="n">
         <v>9</v>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K981" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="L981" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="M981" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>3333</v>
+        <v>2200</v>
       </c>
       <c r="Q981" t="n">
         <v>15</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E982" t="n">
         <v>9</v>
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>195</v>
+        <v>500</v>
       </c>
       <c r="K982" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="L982" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="M982" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q982" t="n">
         <v>15</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E983" t="n">
         <v>9</v>
@@ -71124,25 +71124,25 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="K983" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="L983" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M983" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q983" t="n">
         <v>15</v>
@@ -71196,43 +71196,259 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J984" t="n">
+        <v>110</v>
+      </c>
+      <c r="K984" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L984" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M984" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N984" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O984" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P984" t="n">
+        <v>3333</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>15</v>
+      </c>
+      <c r="R984" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>10</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D985" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E985" t="n">
+        <v>9</v>
+      </c>
+      <c r="F985" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J985" t="n">
+        <v>195</v>
+      </c>
+      <c r="K985" t="n">
+        <v>48000</v>
+      </c>
+      <c r="L985" t="n">
+        <v>48000</v>
+      </c>
+      <c r="M985" t="n">
+        <v>48000</v>
+      </c>
+      <c r="N985" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O985" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P985" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>15</v>
+      </c>
+      <c r="R985" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>10</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D986" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E986" t="n">
+        <v>9</v>
+      </c>
+      <c r="F986" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J986" t="n">
+        <v>110</v>
+      </c>
+      <c r="K986" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L986" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M986" t="n">
+        <v>42000</v>
+      </c>
+      <c r="N986" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O986" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P986" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>15</v>
+      </c>
+      <c r="R986" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>10</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D987" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E987" t="n">
+        <v>9</v>
+      </c>
+      <c r="F987" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I984" t="inlineStr">
+      <c r="I987" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J984" t="n">
+      <c r="J987" t="n">
         <v>210</v>
       </c>
-      <c r="K984" t="n">
+      <c r="K987" t="n">
         <v>40000</v>
       </c>
-      <c r="L984" t="n">
+      <c r="L987" t="n">
         <v>40000</v>
       </c>
-      <c r="M984" t="n">
+      <c r="M987" t="n">
         <v>40000</v>
       </c>
-      <c r="N984" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O984" t="inlineStr">
+      <c r="N987" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O987" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P984" t="n">
+      <c r="P987" t="n">
         <v>2667</v>
       </c>
-      <c r="Q984" t="n">
-        <v>15</v>
-      </c>
-      <c r="R984" t="inlineStr">
+      <c r="Q987" t="n">
+        <v>15</v>
+      </c>
+      <c r="R987" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1010"/>
+  <dimension ref="A1:R1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E956" t="n">
         <v>9</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K956" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="L956" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="M956" t="n">
-        <v>13000</v>
+        <v>46375</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>867</v>
+        <v>3092</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -69252,25 +69252,25 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="K957" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="L957" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M957" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>933</v>
+        <v>2333</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K958" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L958" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M958" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="Q958" t="n">
         <v>15</v>
@@ -69396,16 +69396,16 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K959" t="n">
         <v>14000</v>
@@ -69418,19 +69418,19 @@
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="Q959" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K960" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L960" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M960" t="n">
-        <v>16857</v>
+        <v>12000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1124</v>
+        <v>800</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E961" t="n">
         <v>9</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,32 +69549,32 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="K961" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L961" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M961" t="n">
-        <v>15448</v>
+        <v>14000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>1030</v>
+        <v>778</v>
       </c>
       <c r="Q961" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E962" t="n">
         <v>9</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="K962" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L962" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M962" t="n">
-        <v>12000</v>
+        <v>16857</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>800</v>
+        <v>1124</v>
       </c>
       <c r="Q962" t="n">
         <v>15</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E963" t="n">
         <v>9</v>
@@ -69684,7 +69684,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>800</v>
+        <v>145</v>
       </c>
       <c r="K963" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L963" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M963" t="n">
-        <v>13500</v>
+        <v>15448</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>900</v>
+        <v>1030</v>
       </c>
       <c r="Q963" t="n">
         <v>15</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E964" t="n">
         <v>9</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K964" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L964" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M964" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q964" t="n">
         <v>15</v>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K965" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L965" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M965" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69855,11 +69855,11 @@
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="Q965" t="n">
         <v>15</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69909,32 +69909,32 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K966" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L966" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M966" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1944</v>
+        <v>2000</v>
       </c>
       <c r="Q966" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,32 +69981,32 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K967" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L967" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M967" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>1389</v>
+        <v>1400</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K968" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L968" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M968" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>800</v>
+        <v>1944</v>
       </c>
       <c r="Q968" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,32 +70125,32 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K969" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L969" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M969" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>3333</v>
+        <v>1389</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -70188,25 +70188,25 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
         <v>50</v>
       </c>
       <c r="K970" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="L970" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="M970" t="n">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>3333</v>
+        <v>800</v>
       </c>
       <c r="Q970" t="n">
         <v>15</v>
@@ -70260,7 +70260,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K971" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L971" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M971" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>2000</v>
+        <v>3333</v>
       </c>
       <c r="Q971" t="n">
         <v>15</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K972" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L972" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M972" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q972" t="n">
         <v>15</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E973" t="n">
         <v>9</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K973" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L973" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="M973" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>2533</v>
+        <v>2000</v>
       </c>
       <c r="Q973" t="n">
         <v>15</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E974" t="n">
         <v>9</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,32 +70485,32 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="K974" t="n">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="L974" t="n">
-        <v>17000</v>
+        <v>40000</v>
       </c>
       <c r="M974" t="n">
-        <v>16467</v>
+        <v>40000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>915</v>
+        <v>2667</v>
       </c>
       <c r="Q974" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E975" t="n">
         <v>9</v>
@@ -70548,41 +70548,41 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K975" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="L975" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="M975" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>778</v>
+        <v>2533</v>
       </c>
       <c r="Q975" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70620,41 +70620,41 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="K976" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="L976" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="M976" t="n">
-        <v>40000</v>
+        <v>16467</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>2667</v>
+        <v>915</v>
       </c>
       <c r="Q976" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70692,41 +70692,41 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K977" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L977" t="n">
-        <v>36000</v>
+        <v>14000</v>
       </c>
       <c r="M977" t="n">
-        <v>35500</v>
+        <v>14000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>2367</v>
+        <v>778</v>
       </c>
       <c r="Q977" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70764,7 +70764,7 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K978" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="L978" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M978" t="n">
-        <v>19000</v>
+        <v>40000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>1267</v>
+        <v>2667</v>
       </c>
       <c r="Q978" t="n">
         <v>15</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K979" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L979" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="M979" t="n">
-        <v>15583</v>
+        <v>35500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>1039</v>
+        <v>2367</v>
       </c>
       <c r="Q979" t="n">
         <v>15</v>
@@ -70908,25 +70908,25 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K980" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L980" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M980" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>1000</v>
+        <v>1267</v>
       </c>
       <c r="Q980" t="n">
         <v>15</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E981" t="n">
         <v>9</v>
@@ -70980,7 +70980,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="K981" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L981" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M981" t="n">
-        <v>14000</v>
+        <v>15583</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>933</v>
+        <v>1039</v>
       </c>
       <c r="Q981" t="n">
         <v>15</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E982" t="n">
         <v>9</v>
@@ -71052,25 +71052,25 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K982" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L982" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M982" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q982" t="n">
         <v>15</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="K983" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L983" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M983" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>1533</v>
+        <v>933</v>
       </c>
       <c r="Q983" t="n">
         <v>15</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E984" t="n">
         <v>9</v>
@@ -71196,41 +71196,41 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="K984" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L984" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M984" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q984" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E985" t="n">
         <v>9</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,32 +71277,32 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K985" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L985" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M985" t="n">
-        <v>12448</v>
+        <v>23000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>692</v>
+        <v>1533</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K986" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L986" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M986" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,32 +71421,32 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K987" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L987" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M987" t="n">
-        <v>20000</v>
+        <v>12448</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>1333</v>
+        <v>692</v>
       </c>
       <c r="Q987" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71484,41 +71484,41 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="K988" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L988" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M988" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="Q988" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K989" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L989" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M989" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="Q989" t="n">
         <v>15</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E990" t="n">
         <v>9</v>
@@ -71628,25 +71628,25 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K990" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L990" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M990" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q990" t="n">
         <v>15</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E991" t="n">
         <v>9</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>700</v>
+        <v>155</v>
       </c>
       <c r="K991" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L991" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M991" t="n">
-        <v>10429</v>
+        <v>13000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>695</v>
+        <v>867</v>
       </c>
       <c r="Q991" t="n">
         <v>15</v>
@@ -71772,41 +71772,41 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K992" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L992" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M992" t="n">
-        <v>14583</v>
+        <v>12000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="Q992" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71844,41 +71844,41 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>40</v>
+        <v>700</v>
       </c>
       <c r="K993" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L993" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M993" t="n">
-        <v>12000</v>
+        <v>10429</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="Q993" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,32 +71925,32 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="K994" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L994" t="n">
         <v>15000</v>
       </c>
       <c r="M994" t="n">
-        <v>15000</v>
+        <v>14583</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>1000</v>
+        <v>810</v>
       </c>
       <c r="Q994" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E995" t="n">
         <v>9</v>
@@ -71988,41 +71988,41 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K995" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L995" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M995" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>2333</v>
+        <v>667</v>
       </c>
       <c r="Q995" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E996" t="n">
         <v>9</v>
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="K996" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L996" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M996" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q996" t="n">
         <v>15</v>
@@ -72132,25 +72132,25 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K997" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L997" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M997" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>2000</v>
+        <v>2333</v>
       </c>
       <c r="Q997" t="n">
         <v>15</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E998" t="n">
         <v>9</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,32 +72213,32 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K998" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L998" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M998" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>722</v>
+        <v>2000</v>
       </c>
       <c r="Q998" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R998" t="inlineStr">
         <is>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E999" t="n">
         <v>9</v>
@@ -72276,7 +72276,7 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
@@ -72285,32 +72285,32 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K999" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L999" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M999" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="Q999" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,32 +72357,32 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K1000" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L1000" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M1000" t="n">
-        <v>19111</v>
+        <v>13000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>1274</v>
+        <v>722</v>
       </c>
       <c r="Q1000" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72420,41 +72420,41 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K1001" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1001" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M1001" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="Q1001" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K1002" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L1002" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1002" t="n">
-        <v>12500</v>
+        <v>19111</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>833</v>
+        <v>1274</v>
       </c>
       <c r="Q1002" t="n">
         <v>15</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1003" t="n">
         <v>9</v>
@@ -72564,25 +72564,25 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K1003" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L1003" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M1003" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>1533</v>
+        <v>1067</v>
       </c>
       <c r="Q1003" t="n">
         <v>15</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1004" t="n">
         <v>9</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K1004" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="L1004" t="n">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="M1004" t="n">
-        <v>33000</v>
+        <v>12500</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>2200</v>
+        <v>833</v>
       </c>
       <c r="Q1004" t="n">
         <v>15</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K1005" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L1005" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M1005" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>2000</v>
+        <v>1533</v>
       </c>
       <c r="Q1005" t="n">
         <v>15</v>
@@ -72780,7 +72780,7 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K1006" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L1006" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="M1006" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="Q1006" t="n">
         <v>15</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1007" t="n">
         <v>9</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="K1007" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L1007" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="M1007" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="Q1007" t="n">
         <v>15</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1008" t="n">
         <v>9</v>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K1008" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="L1008" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="M1008" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="Q1008" t="n">
         <v>15</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1009" t="n">
         <v>110</v>
       </c>
       <c r="K1009" t="n">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="L1009" t="n">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="M1009" t="n">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>2800</v>
+        <v>3333</v>
       </c>
       <c r="Q1009" t="n">
         <v>15</v>
@@ -73068,43 +73068,187 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1010" t="n">
+        <v>195</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>48000</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>48000</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>48000</v>
+      </c>
+      <c r="N1010" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1010" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1010" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1010" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1011" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1011" t="n">
+        <v>110</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>42000</v>
+      </c>
+      <c r="N1011" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1011" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1011" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1011" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1012" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1010" t="inlineStr">
+      <c r="I1012" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1010" t="n">
+      <c r="J1012" t="n">
         <v>210</v>
       </c>
-      <c r="K1010" t="n">
+      <c r="K1012" t="n">
         <v>40000</v>
       </c>
-      <c r="L1010" t="n">
+      <c r="L1012" t="n">
         <v>40000</v>
       </c>
-      <c r="M1010" t="n">
+      <c r="M1012" t="n">
         <v>40000</v>
       </c>
-      <c r="N1010" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O1010" t="inlineStr">
+      <c r="N1012" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1012" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1010" t="n">
+      <c r="P1012" t="n">
         <v>2667</v>
       </c>
-      <c r="Q1010" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1010" t="inlineStr">
+      <c r="Q1012" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1012" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1018"/>
+  <dimension ref="A1:R1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62628,25 +62628,25 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K865" t="n">
-        <v>14000</v>
+        <v>43000</v>
       </c>
       <c r="L865" t="n">
-        <v>14000</v>
+        <v>43000</v>
       </c>
       <c r="M865" t="n">
-        <v>14000</v>
+        <v>43000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>933</v>
+        <v>2867</v>
       </c>
       <c r="Q865" t="n">
         <v>15</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62700,25 +62700,25 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="K866" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="L866" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="M866" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>667</v>
+        <v>2667</v>
       </c>
       <c r="Q866" t="n">
         <v>15</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="K867" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L867" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M867" t="n">
-        <v>23000</v>
+        <v>30667</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>1533</v>
+        <v>2044</v>
       </c>
       <c r="Q867" t="n">
         <v>15</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62844,25 +62844,25 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K868" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="L868" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M868" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>3333</v>
+        <v>1667</v>
       </c>
       <c r="Q868" t="n">
         <v>15</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="K869" t="n">
-        <v>48000</v>
+        <v>14000</v>
       </c>
       <c r="L869" t="n">
-        <v>48000</v>
+        <v>14000</v>
       </c>
       <c r="M869" t="n">
-        <v>48000</v>
+        <v>14000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>3200</v>
+        <v>933</v>
       </c>
       <c r="Q869" t="n">
         <v>15</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62988,7 +62988,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -63000,13 +63000,13 @@
         <v>110</v>
       </c>
       <c r="K870" t="n">
-        <v>42000</v>
+        <v>10000</v>
       </c>
       <c r="L870" t="n">
-        <v>42000</v>
+        <v>10000</v>
       </c>
       <c r="M870" t="n">
-        <v>42000</v>
+        <v>10000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>2800</v>
+        <v>667</v>
       </c>
       <c r="Q870" t="n">
         <v>15</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="K871" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L871" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M871" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>2667</v>
+        <v>1533</v>
       </c>
       <c r="Q871" t="n">
         <v>15</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63132,25 +63132,25 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K872" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="L872" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="M872" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1000</v>
+        <v>3333</v>
       </c>
       <c r="Q872" t="n">
         <v>15</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="K873" t="n">
-        <v>10000</v>
+        <v>48000</v>
       </c>
       <c r="L873" t="n">
-        <v>11000</v>
+        <v>48000</v>
       </c>
       <c r="M873" t="n">
-        <v>10500</v>
+        <v>48000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="Q873" t="n">
         <v>15</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63276,41 +63276,41 @@
       </c>
       <c r="H874" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K874" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="L874" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="M874" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>833</v>
+        <v>2800</v>
       </c>
       <c r="Q874" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63348,7 +63348,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K875" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L875" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M875" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q875" t="n">
         <v>15</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -63429,16 +63429,16 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K876" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L876" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M876" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="Q876" t="n">
         <v>15</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="K877" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L877" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M877" t="n">
-        <v>9043</v>
+        <v>10500</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>603</v>
+        <v>700</v>
       </c>
       <c r="Q877" t="n">
         <v>15</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K878" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L878" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M878" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63636,41 +63636,41 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K879" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L879" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M879" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="Q879" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="K880" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L880" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M880" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="Q880" t="n">
         <v>15</v>
@@ -63780,25 +63780,25 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>310</v>
+        <v>115</v>
       </c>
       <c r="K881" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L881" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M881" t="n">
-        <v>19065</v>
+        <v>9043</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>1271</v>
+        <v>603</v>
       </c>
       <c r="Q881" t="n">
         <v>15</v>
@@ -63852,41 +63852,41 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K882" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L882" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M882" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q882" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63924,41 +63924,41 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="K883" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L883" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M883" t="n">
-        <v>12597</v>
+        <v>8000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>840</v>
+        <v>444</v>
       </c>
       <c r="Q883" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="K884" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L884" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M884" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>2000</v>
+        <v>1333</v>
       </c>
       <c r="Q884" t="n">
         <v>15</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K885" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L885" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M885" t="n">
-        <v>25000</v>
+        <v>19065</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1667</v>
+        <v>1271</v>
       </c>
       <c r="Q885" t="n">
         <v>15</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="K886" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L886" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M886" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q886" t="n">
         <v>15</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="K887" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L887" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M887" t="n">
-        <v>14565</v>
+        <v>12597</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>971</v>
+        <v>840</v>
       </c>
       <c r="Q887" t="n">
         <v>15</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K888" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L888" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M888" t="n">
-        <v>21103</v>
+        <v>30000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1407</v>
+        <v>2000</v>
       </c>
       <c r="Q888" t="n">
         <v>15</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="K889" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="L889" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M889" t="n">
-        <v>43682</v>
+        <v>25000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>2912</v>
+        <v>1667</v>
       </c>
       <c r="Q889" t="n">
         <v>15</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J890" t="n">
         <v>155</v>
       </c>
       <c r="K890" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L890" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M890" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>2667</v>
+        <v>1333</v>
       </c>
       <c r="Q890" t="n">
         <v>15</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="K891" t="n">
-        <v>50000</v>
+        <v>14000</v>
       </c>
       <c r="L891" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M891" t="n">
-        <v>50000</v>
+        <v>14565</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>3333</v>
+        <v>971</v>
       </c>
       <c r="Q891" t="n">
         <v>15</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="K892" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="L892" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="M892" t="n">
-        <v>45000</v>
+        <v>21103</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>3000</v>
+        <v>1407</v>
       </c>
       <c r="Q892" t="n">
         <v>15</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64644,25 +64644,25 @@
       </c>
       <c r="H893" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="K893" t="n">
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="L893" t="n">
-        <v>43000</v>
+        <v>45000</v>
       </c>
       <c r="M893" t="n">
-        <v>43000</v>
+        <v>43682</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>2867</v>
+        <v>2912</v>
       </c>
       <c r="Q893" t="n">
         <v>15</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K894" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L894" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M894" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>2000</v>
+        <v>2667</v>
       </c>
       <c r="Q894" t="n">
         <v>15</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,32 +64797,32 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K895" t="n">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="L895" t="n">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="M895" t="n">
-        <v>13000</v>
+        <v>50000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>722</v>
+        <v>3333</v>
       </c>
       <c r="Q895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,32 +64869,32 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K896" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="L896" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="M896" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>667</v>
+        <v>3000</v>
       </c>
       <c r="Q896" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64932,41 +64932,41 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K897" t="n">
-        <v>10000</v>
+        <v>43000</v>
       </c>
       <c r="L897" t="n">
-        <v>10000</v>
+        <v>43000</v>
       </c>
       <c r="M897" t="n">
-        <v>10000</v>
+        <v>43000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>556</v>
+        <v>2867</v>
       </c>
       <c r="Q897" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R897" t="inlineStr">
         <is>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K898" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L898" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M898" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="Q898" t="n">
         <v>15</v>
@@ -65076,41 +65076,41 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K899" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L899" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M899" t="n">
-        <v>19571</v>
+        <v>13000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1305</v>
+        <v>722</v>
       </c>
       <c r="Q899" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,32 +65157,32 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K900" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L900" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M900" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q900" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65232,29 +65232,29 @@
         <v>50</v>
       </c>
       <c r="K901" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L901" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M901" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1067</v>
+        <v>556</v>
       </c>
       <c r="Q901" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R901" t="inlineStr">
         <is>
@@ -65292,25 +65292,25 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K902" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L902" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M902" t="n">
-        <v>17429</v>
+        <v>20000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1162</v>
+        <v>1333</v>
       </c>
       <c r="Q902" t="n">
         <v>15</v>
@@ -65364,25 +65364,25 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K903" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L903" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M903" t="n">
-        <v>12000</v>
+        <v>19571</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>800</v>
+        <v>1305</v>
       </c>
       <c r="Q903" t="n">
         <v>15</v>
@@ -65436,25 +65436,25 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K904" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L904" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M904" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q904" t="n">
         <v>15</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -65508,16 +65508,16 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="K905" t="n">
         <v>16000</v>
@@ -65530,19 +65530,19 @@
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>889</v>
+        <v>1067</v>
       </c>
       <c r="Q905" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65580,41 +65580,41 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K906" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L906" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M906" t="n">
-        <v>16000</v>
+        <v>17429</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>889</v>
+        <v>1162</v>
       </c>
       <c r="Q906" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K907" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L907" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M907" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="Q907" t="n">
         <v>15</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65724,41 +65724,41 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="K908" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L908" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M908" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q908" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65796,25 +65796,25 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K909" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L909" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M909" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65868,41 +65868,41 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="K910" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L910" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M910" t="n">
-        <v>19872</v>
+        <v>16000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>1325</v>
+        <v>889</v>
       </c>
       <c r="Q910" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R910" t="inlineStr">
         <is>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="K911" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L911" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M911" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q911" t="n">
         <v>15</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,32 +66021,32 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="K912" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L912" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M912" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q912" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R912" t="inlineStr">
         <is>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66084,41 +66084,41 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="K913" t="n">
-        <v>55000</v>
+        <v>12000</v>
       </c>
       <c r="L913" t="n">
-        <v>55000</v>
+        <v>12000</v>
       </c>
       <c r="M913" t="n">
-        <v>55000</v>
+        <v>12000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>3667</v>
+        <v>667</v>
       </c>
       <c r="Q913" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="K914" t="n">
-        <v>55000</v>
+        <v>18000</v>
       </c>
       <c r="L914" t="n">
-        <v>55000</v>
+        <v>22000</v>
       </c>
       <c r="M914" t="n">
-        <v>55000</v>
+        <v>19872</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>3667</v>
+        <v>1325</v>
       </c>
       <c r="Q914" t="n">
         <v>15</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="K915" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="L915" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="M915" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="Q915" t="n">
         <v>15</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K916" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="L916" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="M916" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>3000</v>
+        <v>667</v>
       </c>
       <c r="Q916" t="n">
         <v>15</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66384,29 +66384,29 @@
         <v>30</v>
       </c>
       <c r="K917" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="L917" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="M917" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>3333</v>
+        <v>3667</v>
       </c>
       <c r="Q917" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66444,25 +66444,25 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K918" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="L918" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="M918" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>2667</v>
+        <v>3667</v>
       </c>
       <c r="Q918" t="n">
         <v>15</v>
@@ -66516,25 +66516,25 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K919" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="L919" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="M919" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>2333</v>
+        <v>3200</v>
       </c>
       <c r="Q919" t="n">
         <v>15</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66588,25 +66588,25 @@
       </c>
       <c r="H920" t="inlineStr">
         <is>
-          <t>Cuatro cascos amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K920" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="L920" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M920" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1667</v>
+        <v>3000</v>
       </c>
       <c r="Q920" t="n">
         <v>15</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -66660,41 +66660,41 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="K921" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="L921" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="M921" t="n">
-        <v>25000</v>
+        <v>60000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1667</v>
+        <v>3333</v>
       </c>
       <c r="Q921" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K922" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L922" t="n">
-        <v>13000</v>
+        <v>40000</v>
       </c>
       <c r="M922" t="n">
-        <v>12554</v>
+        <v>40000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>837</v>
+        <v>2667</v>
       </c>
       <c r="Q922" t="n">
         <v>15</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -66804,7 +66804,7 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K923" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L923" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M923" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>667</v>
+        <v>2333</v>
       </c>
       <c r="Q923" t="n">
         <v>15</v>
@@ -66876,7 +66876,7 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos amarillo</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -66885,7 +66885,7 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="K924" t="n">
         <v>25000</v>
@@ -66903,7 +66903,7 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P924" t="n">
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,32 +66957,32 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K925" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L925" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M925" t="n">
-        <v>14500</v>
+        <v>25000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>806</v>
+        <v>1667</v>
       </c>
       <c r="Q925" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E926" t="n">
         <v>9</v>
@@ -67020,41 +67020,41 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K926" t="n">
         <v>12000</v>
       </c>
       <c r="L926" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M926" t="n">
-        <v>12000</v>
+        <v>12554</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>667</v>
+        <v>837</v>
       </c>
       <c r="Q926" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67092,25 +67092,25 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K927" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L927" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M927" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="Q927" t="n">
         <v>15</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="K928" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L928" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M928" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>1867</v>
+        <v>1667</v>
       </c>
       <c r="Q928" t="n">
         <v>15</v>
@@ -67236,41 +67236,41 @@
       </c>
       <c r="H929" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K929" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L929" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M929" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>1133</v>
+        <v>806</v>
       </c>
       <c r="Q929" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67308,16 +67308,16 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K930" t="n">
         <v>12000</v>
@@ -67330,19 +67330,19 @@
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q930" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E931" t="n">
         <v>9</v>
@@ -67380,25 +67380,25 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K931" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="L931" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="M931" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>3333</v>
+        <v>2000</v>
       </c>
       <c r="Q931" t="n">
         <v>15</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E932" t="n">
         <v>9</v>
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="K932" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="L932" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="M932" t="n">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>3333</v>
+        <v>1867</v>
       </c>
       <c r="Q932" t="n">
         <v>15</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E933" t="n">
         <v>9</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K933" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L933" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M933" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>2000</v>
+        <v>1133</v>
       </c>
       <c r="Q933" t="n">
         <v>15</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E934" t="n">
         <v>9</v>
@@ -67596,7 +67596,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K934" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L934" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M934" t="n">
-        <v>20800</v>
+        <v>12000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>1387</v>
+        <v>800</v>
       </c>
       <c r="Q934" t="n">
         <v>15</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67668,25 +67668,25 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K935" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L935" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M935" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q935" t="n">
         <v>15</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="K936" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L936" t="n">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="M936" t="n">
-        <v>32143</v>
+        <v>50000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>2143</v>
+        <v>3333</v>
       </c>
       <c r="Q936" t="n">
         <v>15</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="K937" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L937" t="n">
         <v>30000</v>
       </c>
       <c r="M937" t="n">
-        <v>29333</v>
+        <v>30000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1956</v>
+        <v>2000</v>
       </c>
       <c r="Q937" t="n">
         <v>15</v>
@@ -67884,25 +67884,25 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K938" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L938" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M938" t="n">
-        <v>40000</v>
+        <v>20800</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67911,11 +67911,11 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>2667</v>
+        <v>1387</v>
       </c>
       <c r="Q938" t="n">
         <v>15</v>
@@ -67956,25 +67956,25 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K939" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L939" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M939" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>1667</v>
+        <v>2667</v>
       </c>
       <c r="Q939" t="n">
         <v>15</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,32 +68037,32 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="K940" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L940" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M940" t="n">
-        <v>25000</v>
+        <v>32143</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>1389</v>
+        <v>2143</v>
       </c>
       <c r="Q940" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E941" t="n">
         <v>9</v>
@@ -68100,25 +68100,25 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K941" t="n">
-        <v>55000</v>
+        <v>28000</v>
       </c>
       <c r="L941" t="n">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="M941" t="n">
-        <v>55000</v>
+        <v>29333</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>3667</v>
+        <v>1956</v>
       </c>
       <c r="Q941" t="n">
         <v>15</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E942" t="n">
         <v>9</v>
@@ -68172,25 +68172,25 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K942" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L942" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="M942" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>3333</v>
+        <v>2667</v>
       </c>
       <c r="Q942" t="n">
         <v>15</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E943" t="n">
         <v>9</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="K943" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L943" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M943" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>3000</v>
+        <v>1667</v>
       </c>
       <c r="Q943" t="n">
         <v>15</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E944" t="n">
         <v>9</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,32 +68325,32 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K944" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L944" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M944" t="n">
-        <v>13471</v>
+        <v>25000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>898</v>
+        <v>1389</v>
       </c>
       <c r="Q944" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E945" t="n">
         <v>9</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="K945" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="L945" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="M945" t="n">
-        <v>23000</v>
+        <v>55000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>1533</v>
+        <v>3667</v>
       </c>
       <c r="Q945" t="n">
         <v>15</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44391</v>
+        <v>44468</v>
       </c>
       <c r="E946" t="n">
         <v>9</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K946" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="L946" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="M946" t="n">
-        <v>18000</v>
+        <v>50000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>1200</v>
+        <v>3333</v>
       </c>
       <c r="Q946" t="n">
         <v>15</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44391</v>
+        <v>44468</v>
       </c>
       <c r="E947" t="n">
         <v>9</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="K947" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="L947" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="M947" t="n">
-        <v>16000</v>
+        <v>45000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>1067</v>
+        <v>3000</v>
       </c>
       <c r="Q947" t="n">
         <v>15</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E948" t="n">
         <v>9</v>
@@ -68604,25 +68604,25 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="K948" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L948" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M948" t="n">
-        <v>18000</v>
+        <v>13471</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>1200</v>
+        <v>898</v>
       </c>
       <c r="Q948" t="n">
         <v>15</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E949" t="n">
         <v>9</v>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="K949" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L949" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M949" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1067</v>
+        <v>1533</v>
       </c>
       <c r="Q949" t="n">
         <v>15</v>
@@ -68748,25 +68748,25 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K950" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L950" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M950" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>867</v>
+        <v>1200</v>
       </c>
       <c r="Q950" t="n">
         <v>15</v>
@@ -68820,25 +68820,25 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K951" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L951" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M951" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="Q951" t="n">
         <v>15</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E952" t="n">
         <v>9</v>
@@ -68892,25 +68892,25 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="K952" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L952" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M952" t="n">
-        <v>12564</v>
+        <v>18000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>838</v>
+        <v>1200</v>
       </c>
       <c r="Q952" t="n">
         <v>15</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E953" t="n">
         <v>9</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K953" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L953" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M953" t="n">
-        <v>23968</v>
+        <v>16000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>1598</v>
+        <v>1067</v>
       </c>
       <c r="Q953" t="n">
         <v>15</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E954" t="n">
         <v>9</v>
@@ -69036,41 +69036,41 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="K954" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L954" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M954" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1056</v>
+        <v>867</v>
       </c>
       <c r="Q954" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E955" t="n">
         <v>9</v>
@@ -69108,25 +69108,25 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="K955" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L955" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M955" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="Q955" t="n">
         <v>15</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E956" t="n">
         <v>9</v>
@@ -69180,7 +69180,7 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="K956" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L956" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M956" t="n">
-        <v>16000</v>
+        <v>12564</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>1067</v>
+        <v>838</v>
       </c>
       <c r="Q956" t="n">
         <v>15</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K957" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="L957" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M957" t="n">
-        <v>15000</v>
+        <v>23968</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>1000</v>
+        <v>1598</v>
       </c>
       <c r="Q957" t="n">
         <v>15</v>
@@ -69324,25 +69324,25 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K958" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L958" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M958" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E959" t="n">
         <v>9</v>
@@ -69396,25 +69396,25 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="K959" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L959" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M959" t="n">
-        <v>14431</v>
+        <v>20000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>962</v>
+        <v>1333</v>
       </c>
       <c r="Q959" t="n">
         <v>15</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E960" t="n">
         <v>9</v>
@@ -69468,7 +69468,7 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>305</v>
+        <v>125</v>
       </c>
       <c r="K960" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L960" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M960" t="n">
-        <v>8721</v>
+        <v>16000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>581</v>
+        <v>1067</v>
       </c>
       <c r="Q960" t="n">
         <v>15</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E961" t="n">
         <v>9</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,32 +69549,32 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K961" t="n">
         <v>15000</v>
       </c>
       <c r="L961" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M961" t="n">
-        <v>15476</v>
+        <v>15000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="Q961" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E962" t="n">
         <v>9</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="K962" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="L962" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M962" t="n">
-        <v>19909</v>
+        <v>18000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>1106</v>
+        <v>1000</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E963" t="n">
         <v>9</v>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="K963" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L963" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M963" t="n">
-        <v>16000</v>
+        <v>14431</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>889</v>
+        <v>962</v>
       </c>
       <c r="Q963" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E964" t="n">
         <v>9</v>
@@ -69756,25 +69756,25 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="K964" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="L964" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="M964" t="n">
-        <v>32000</v>
+        <v>8721</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>2133</v>
+        <v>581</v>
       </c>
       <c r="Q964" t="n">
         <v>15</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E965" t="n">
         <v>9</v>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,32 +69837,32 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="K965" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L965" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M965" t="n">
-        <v>28966</v>
+        <v>15476</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1931</v>
+        <v>860</v>
       </c>
       <c r="Q965" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69900,41 +69900,41 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="K966" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="L966" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M966" t="n">
-        <v>25000</v>
+        <v>19909</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>1667</v>
+        <v>1106</v>
       </c>
       <c r="Q966" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69972,41 +69972,41 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="K967" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L967" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M967" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="Q967" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70044,25 +70044,25 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K968" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="L968" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M968" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>800</v>
+        <v>2133</v>
       </c>
       <c r="Q968" t="n">
         <v>15</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="K969" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L969" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="M969" t="n">
-        <v>46596</v>
+        <v>28966</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>3106</v>
+        <v>1931</v>
       </c>
       <c r="Q969" t="n">
         <v>15</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="K970" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="L970" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="M970" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>2867</v>
+        <v>1667</v>
       </c>
       <c r="Q970" t="n">
         <v>15</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E971" t="n">
         <v>9</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="K971" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L971" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M971" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>2333</v>
+        <v>1000</v>
       </c>
       <c r="Q971" t="n">
         <v>15</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -70337,36 +70337,36 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K972" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="L972" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="M972" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1833</v>
+        <v>800</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70404,25 +70404,25 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K973" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L973" t="n">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="M973" t="n">
-        <v>30000</v>
+        <v>46596</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>2000</v>
+        <v>3106</v>
       </c>
       <c r="Q973" t="n">
         <v>15</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E974" t="n">
         <v>9</v>
@@ -70476,41 +70476,41 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="K974" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="L974" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M974" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>1389</v>
+        <v>2867</v>
       </c>
       <c r="Q974" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E975" t="n">
         <v>9</v>
@@ -70548,7 +70548,7 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -70557,32 +70557,32 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="K975" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L975" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M975" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>833</v>
+        <v>2333</v>
       </c>
       <c r="Q975" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E976" t="n">
         <v>9</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K976" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L976" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M976" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>944</v>
+        <v>1833</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E977" t="n">
         <v>9</v>
@@ -70692,7 +70692,7 @@
       </c>
       <c r="H977" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -70701,32 +70701,32 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="K977" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L977" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M977" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>833</v>
+        <v>2000</v>
       </c>
       <c r="Q977" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70764,41 +70764,41 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K978" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L978" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M978" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>2667</v>
+        <v>1389</v>
       </c>
       <c r="Q978" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70836,41 +70836,41 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K979" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L979" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="M979" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>2200</v>
+        <v>833</v>
       </c>
       <c r="Q979" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K980" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L980" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M980" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>2000</v>
+        <v>944</v>
       </c>
       <c r="Q980" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70980,41 +70980,41 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K981" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L981" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M981" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>1133</v>
+        <v>833</v>
       </c>
       <c r="Q981" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E982" t="n">
         <v>9</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="K982" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L982" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M982" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>2333</v>
+        <v>2667</v>
       </c>
       <c r="Q982" t="n">
         <v>15</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E983" t="n">
         <v>9</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="K983" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L983" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M983" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Q983" t="n">
         <v>15</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E984" t="n">
         <v>9</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K984" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="L984" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="M984" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>2867</v>
+        <v>2000</v>
       </c>
       <c r="Q984" t="n">
         <v>15</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44181</v>
+        <v>44330</v>
       </c>
       <c r="E985" t="n">
         <v>9</v>
@@ -71268,25 +71268,25 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K985" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L985" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M985" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>2000</v>
+        <v>1133</v>
       </c>
       <c r="Q985" t="n">
         <v>15</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E986" t="n">
         <v>9</v>
@@ -71340,25 +71340,25 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J986" t="n">
         <v>125</v>
       </c>
       <c r="K986" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L986" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M986" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>1200</v>
+        <v>2333</v>
       </c>
       <c r="Q986" t="n">
         <v>15</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E987" t="n">
         <v>9</v>
@@ -71417,36 +71417,36 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K987" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L987" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M987" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q987" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E988" t="n">
         <v>9</v>
@@ -71484,25 +71484,25 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="K988" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="L988" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="M988" t="n">
-        <v>18000</v>
+        <v>43000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>1200</v>
+        <v>2867</v>
       </c>
       <c r="Q988" t="n">
         <v>15</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E989" t="n">
         <v>9</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K989" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L989" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M989" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>2667</v>
+        <v>2000</v>
       </c>
       <c r="Q989" t="n">
         <v>15</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E990" t="n">
         <v>9</v>
@@ -71628,7 +71628,7 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="K990" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L990" t="n">
-        <v>37000</v>
+        <v>18000</v>
       </c>
       <c r="M990" t="n">
-        <v>35943</v>
+        <v>18000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>2396</v>
+        <v>1200</v>
       </c>
       <c r="Q990" t="n">
         <v>15</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E991" t="n">
         <v>9</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="K991" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L991" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M991" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q991" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="K992" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L992" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M992" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="Q992" t="n">
         <v>15</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E993" t="n">
         <v>9</v>
@@ -71844,25 +71844,25 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K993" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L993" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M993" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q993" t="n">
         <v>15</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E994" t="n">
         <v>9</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K994" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L994" t="n">
-        <v>11000</v>
+        <v>37000</v>
       </c>
       <c r="M994" t="n">
-        <v>10444</v>
+        <v>35943</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>696</v>
+        <v>2396</v>
       </c>
       <c r="Q994" t="n">
         <v>15</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E995" t="n">
         <v>9</v>
@@ -71988,41 +71988,41 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K995" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L995" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M995" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>833</v>
+        <v>2000</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E996" t="n">
         <v>9</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K996" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L996" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M996" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>1000</v>
+        <v>1133</v>
       </c>
       <c r="Q996" t="n">
         <v>15</v>
@@ -72132,25 +72132,25 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K997" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L997" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M997" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q997" t="n">
         <v>15</v>
@@ -72204,7 +72204,7 @@
       </c>
       <c r="H998" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="K998" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L998" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M998" t="n">
-        <v>15556</v>
+        <v>10444</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>1037</v>
+        <v>696</v>
       </c>
       <c r="Q998" t="n">
         <v>15</v>
@@ -72276,41 +72276,41 @@
       </c>
       <c r="H999" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K999" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L999" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M999" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q999" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1000" t="n">
         <v>9</v>
@@ -72348,7 +72348,7 @@
       </c>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -72357,32 +72357,32 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="K1000" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L1000" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M1000" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1000" t="n">
         <v>1000</v>
       </c>
       <c r="Q1000" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1001" t="n">
         <v>9</v>
@@ -72420,41 +72420,41 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="K1001" t="n">
         <v>12000</v>
       </c>
       <c r="L1001" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1001" t="n">
-        <v>12448</v>
+        <v>12000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>692</v>
+        <v>800</v>
       </c>
       <c r="Q1001" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1002" t="n">
         <v>9</v>
@@ -72492,41 +72492,41 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K1002" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L1002" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M1002" t="n">
-        <v>8000</v>
+        <v>15556</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>444</v>
+        <v>1037</v>
       </c>
       <c r="Q1002" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1003" t="n">
         <v>9</v>
@@ -72564,25 +72564,25 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K1003" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L1003" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1003" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="Q1003" t="n">
         <v>15</v>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,7 +72645,7 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="K1004" t="n">
         <v>18000</v>
@@ -72658,19 +72658,19 @@
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q1004" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,32 +72717,32 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K1005" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L1005" t="n">
         <v>13000</v>
       </c>
       <c r="M1005" t="n">
-        <v>13000</v>
+        <v>12448</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>867</v>
+        <v>692</v>
       </c>
       <c r="Q1005" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1006" t="n">
         <v>9</v>
@@ -72780,41 +72780,41 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="K1006" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L1006" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M1006" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="Q1006" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1007" t="n">
         <v>9</v>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K1007" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1007" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1007" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="Q1007" t="n">
         <v>15</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1008" t="n">
         <v>9</v>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,32 +72933,32 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K1008" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L1008" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M1008" t="n">
-        <v>12542</v>
+        <v>18000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>697</v>
+        <v>1200</v>
       </c>
       <c r="Q1008" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1009" t="n">
         <v>9</v>
@@ -72996,41 +72996,41 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="K1009" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L1009" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M1009" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>444</v>
+        <v>867</v>
       </c>
       <c r="Q1009" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1010" t="n">
         <v>9</v>
@@ -73077,7 +73077,7 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="K1010" t="n">
         <v>18000</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1011" t="n">
         <v>9</v>
@@ -73140,25 +73140,25 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K1011" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1011" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1011" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q1011" t="n">
         <v>15</v>
@@ -73212,7 +73212,7 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -73221,32 +73221,32 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="K1012" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L1012" t="n">
         <v>13000</v>
       </c>
       <c r="M1012" t="n">
-        <v>13000</v>
+        <v>12542</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>867</v>
+        <v>697</v>
       </c>
       <c r="Q1012" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1013" t="n">
         <v>9</v>
@@ -73284,41 +73284,41 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K1013" t="n">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="L1013" t="n">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="M1013" t="n">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>3333</v>
+        <v>444</v>
       </c>
       <c r="Q1013" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1014" t="n">
         <v>9</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="K1014" t="n">
-        <v>48000</v>
+        <v>18000</v>
       </c>
       <c r="L1014" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="M1014" t="n">
-        <v>49111</v>
+        <v>18000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>3274</v>
+        <v>1200</v>
       </c>
       <c r="Q1014" t="n">
         <v>15</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1015" t="n">
         <v>9</v>
@@ -73428,25 +73428,25 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K1015" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="L1015" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="M1015" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q1015" t="n">
         <v>15</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1016" t="n">
         <v>9</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K1016" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L1016" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M1016" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>2000</v>
+        <v>867</v>
       </c>
       <c r="Q1016" t="n">
         <v>15</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1017" t="n">
         <v>9</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K1017" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="L1017" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="M1017" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>1000</v>
+        <v>3333</v>
       </c>
       <c r="Q1017" t="n">
         <v>15</v>
@@ -73629,58 +73629,346 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1018" t="n">
+        <v>450</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>48000</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>50000</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>49111</v>
+      </c>
+      <c r="N1018" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1018" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1018" t="n">
+        <v>3274</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1018" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1019" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1019" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1019" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>42000</v>
+      </c>
+      <c r="N1019" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1019" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1019" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1019" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1020" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1020" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1020" t="n">
+        <v>200</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N1020" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1020" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1020" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1020" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1021" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E1018" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G1018" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H1018" t="inlineStr">
+      <c r="E1021" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1021" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>Cuatro cascos verde</t>
+        </is>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1021" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N1021" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1021" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1021" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1021" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1022" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1022" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1022" t="inlineStr">
         <is>
           <t>Zafiro rojo</t>
         </is>
       </c>
-      <c r="I1018" t="inlineStr">
+      <c r="I1022" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1018" t="n">
+      <c r="J1022" t="n">
         <v>50</v>
       </c>
-      <c r="K1018" t="n">
+      <c r="K1022" t="n">
         <v>25000</v>
       </c>
-      <c r="L1018" t="n">
+      <c r="L1022" t="n">
         <v>25000</v>
       </c>
-      <c r="M1018" t="n">
+      <c r="M1022" t="n">
         <v>25000</v>
       </c>
-      <c r="N1018" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O1018" t="inlineStr">
+      <c r="N1022" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1022" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1018" t="n">
+      <c r="P1022" t="n">
         <v>1667</v>
       </c>
-      <c r="Q1018" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1018" t="inlineStr">
+      <c r="Q1022" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1022" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1130"/>
+  <dimension ref="A1:R1133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1012" t="n">
         <v>9</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K1012" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L1012" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M1012" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>3000</v>
+        <v>1667</v>
       </c>
       <c r="Q1012" t="n">
         <v>15</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1013" t="n">
         <v>9</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="K1013" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="L1013" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="M1013" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>3333</v>
+        <v>1333</v>
       </c>
       <c r="Q1013" t="n">
         <v>15</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1014" t="n">
         <v>9</v>
@@ -73356,7 +73356,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="K1014" t="n">
-        <v>46000</v>
+        <v>13000</v>
       </c>
       <c r="L1014" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="M1014" t="n">
-        <v>46925</v>
+        <v>14000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>3128</v>
+        <v>933</v>
       </c>
       <c r="Q1014" t="n">
         <v>15</v>
@@ -73428,25 +73428,25 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="K1015" t="n">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="L1015" t="n">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="M1015" t="n">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q1015" t="n">
         <v>15</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K1016" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="L1016" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="M1016" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>4000</v>
+        <v>3333</v>
       </c>
       <c r="Q1016" t="n">
         <v>15</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>65</v>
+        <v>335</v>
       </c>
       <c r="K1017" t="n">
-        <v>40000</v>
+        <v>46000</v>
       </c>
       <c r="L1017" t="n">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="M1017" t="n">
-        <v>40000</v>
+        <v>46925</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>2667</v>
+        <v>3128</v>
       </c>
       <c r="Q1017" t="n">
         <v>15</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1018" t="n">
         <v>9</v>
@@ -73644,41 +73644,41 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K1018" t="n">
-        <v>38000</v>
+        <v>42000</v>
       </c>
       <c r="L1018" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="M1018" t="n">
-        <v>39200</v>
+        <v>42000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>2178</v>
+        <v>2800</v>
       </c>
       <c r="Q1018" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1019" t="n">
         <v>9</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K1019" t="n">
-        <v>43000</v>
+        <v>60000</v>
       </c>
       <c r="L1019" t="n">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="M1019" t="n">
-        <v>44000</v>
+        <v>60000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>2933</v>
+        <v>4000</v>
       </c>
       <c r="Q1019" t="n">
         <v>15</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1020" t="n">
         <v>9</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>550</v>
+        <v>65</v>
       </c>
       <c r="K1020" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L1020" t="n">
-        <v>38000</v>
+        <v>40000</v>
       </c>
       <c r="M1020" t="n">
-        <v>36364</v>
+        <v>40000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>2424</v>
+        <v>2667</v>
       </c>
       <c r="Q1020" t="n">
         <v>15</v>
@@ -73860,41 +73860,41 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K1021" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="L1021" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M1021" t="n">
-        <v>35000</v>
+        <v>39200</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>2333</v>
+        <v>2178</v>
       </c>
       <c r="Q1021" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73932,25 +73932,25 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K1022" t="n">
-        <v>28000</v>
+        <v>43000</v>
       </c>
       <c r="L1022" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M1022" t="n">
-        <v>28889</v>
+        <v>44000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>1926</v>
+        <v>2933</v>
       </c>
       <c r="Q1022" t="n">
         <v>15</v>
@@ -74004,7 +74004,7 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -74013,32 +74013,32 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="K1023" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L1023" t="n">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="M1023" t="n">
-        <v>40000</v>
+        <v>36364</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>2222</v>
+        <v>2424</v>
       </c>
       <c r="Q1023" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1024" t="n">
         <v>9</v>
@@ -74076,7 +74076,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K1024" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L1024" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M1024" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>3333</v>
+        <v>2333</v>
       </c>
       <c r="Q1024" t="n">
         <v>15</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1025" t="n">
         <v>9</v>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="K1025" t="n">
-        <v>48000</v>
+        <v>28000</v>
       </c>
       <c r="L1025" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="M1025" t="n">
-        <v>48000</v>
+        <v>28889</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>3200</v>
+        <v>1926</v>
       </c>
       <c r="Q1025" t="n">
         <v>15</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1026" t="n">
         <v>9</v>
@@ -74220,41 +74220,41 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K1026" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="L1026" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="M1026" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>2800</v>
+        <v>2222</v>
       </c>
       <c r="Q1026" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74292,25 +74292,25 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="K1027" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="L1027" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="M1027" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>2667</v>
+        <v>3333</v>
       </c>
       <c r="Q1027" t="n">
         <v>15</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1028" t="n">
         <v>9</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74373,16 +74373,16 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="K1028" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="L1028" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="M1028" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>867</v>
+        <v>3200</v>
       </c>
       <c r="Q1028" t="n">
         <v>15</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1029" t="n">
         <v>9</v>
@@ -74436,7 +74436,7 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K1029" t="n">
-        <v>10000</v>
+        <v>42000</v>
       </c>
       <c r="L1029" t="n">
-        <v>10000</v>
+        <v>42000</v>
       </c>
       <c r="M1029" t="n">
-        <v>10000</v>
+        <v>42000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>667</v>
+        <v>2800</v>
       </c>
       <c r="Q1029" t="n">
         <v>15</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1030" t="n">
         <v>9</v>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K1030" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="L1030" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M1030" t="n">
-        <v>14658</v>
+        <v>40000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>977</v>
+        <v>2667</v>
       </c>
       <c r="Q1030" t="n">
         <v>15</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1031" t="n">
         <v>9</v>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="K1031" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1031" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1031" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="Q1031" t="n">
         <v>15</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1032" t="n">
         <v>9</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="K1032" t="n">
         <v>10000</v>
       </c>
       <c r="L1032" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1032" t="n">
-        <v>11190</v>
+        <v>10000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>746</v>
+        <v>667</v>
       </c>
       <c r="Q1032" t="n">
         <v>15</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1033" t="n">
         <v>9</v>
@@ -74724,41 +74724,41 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="K1033" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L1033" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M1033" t="n">
-        <v>18000</v>
+        <v>14658</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="Q1033" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
@@ -74796,7 +74796,7 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -74805,7 +74805,7 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="K1034" t="n">
         <v>15000</v>
@@ -74818,19 +74818,19 @@
       </c>
       <c r="N1034" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q1034" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
@@ -74868,41 +74868,41 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="K1035" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L1035" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M1035" t="n">
-        <v>35000</v>
+        <v>11190</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>1944</v>
+        <v>746</v>
       </c>
       <c r="Q1035" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74940,41 +74940,41 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="K1036" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L1036" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M1036" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>1533</v>
+        <v>1000</v>
       </c>
       <c r="Q1036" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -75012,25 +75012,25 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="K1037" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L1037" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="M1037" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>1833</v>
+        <v>833</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75084,41 +75084,41 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K1038" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L1038" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M1038" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="Q1038" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75156,41 +75156,41 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K1039" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L1039" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M1039" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>1389</v>
+        <v>1533</v>
       </c>
       <c r="Q1039" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1040" t="n">
         <v>9</v>
@@ -75233,36 +75233,36 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K1040" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L1040" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="M1040" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>1600</v>
+        <v>1833</v>
       </c>
       <c r="Q1040" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1041" t="n">
         <v>9</v>
@@ -75309,32 +75309,32 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K1041" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L1041" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M1041" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1041" t="n">
         <v>1667</v>
       </c>
       <c r="Q1041" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1042" t="n">
         <v>9</v>
@@ -75377,36 +75377,36 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K1042" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L1042" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1042" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>1200</v>
+        <v>1389</v>
       </c>
       <c r="Q1042" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,32 +75453,32 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K1043" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L1043" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M1043" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>1389</v>
+        <v>1600</v>
       </c>
       <c r="Q1043" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1044" t="n">
         <v>9</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75528,13 +75528,13 @@
         <v>110</v>
       </c>
       <c r="K1044" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L1044" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M1044" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>944</v>
+        <v>1667</v>
       </c>
       <c r="Q1044" t="n">
         <v>18</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1045" t="n">
         <v>9</v>
@@ -75588,25 +75588,25 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="K1045" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L1045" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M1045" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="Q1045" t="n">
         <v>15</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1046" t="n">
         <v>9</v>
@@ -75660,41 +75660,41 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K1046" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L1046" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M1046" t="n">
-        <v>20464</v>
+        <v>25000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>1364</v>
+        <v>1389</v>
       </c>
       <c r="Q1046" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75754,19 +75754,19 @@
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>1133</v>
+        <v>944</v>
       </c>
       <c r="Q1047" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75804,7 +75804,7 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -75816,13 +75816,13 @@
         <v>65</v>
       </c>
       <c r="K1048" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L1048" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M1048" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>1667</v>
+        <v>2200</v>
       </c>
       <c r="Q1048" t="n">
         <v>15</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1049" t="n">
         <v>9</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K1049" t="n">
-        <v>48000</v>
+        <v>20000</v>
       </c>
       <c r="L1049" t="n">
-        <v>48000</v>
+        <v>21000</v>
       </c>
       <c r="M1049" t="n">
-        <v>48000</v>
+        <v>20464</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>3200</v>
+        <v>1364</v>
       </c>
       <c r="Q1049" t="n">
         <v>15</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1050" t="n">
         <v>9</v>
@@ -75953,20 +75953,20 @@
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K1050" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="L1050" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="M1050" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>3000</v>
+        <v>1133</v>
       </c>
       <c r="Q1050" t="n">
         <v>15</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1051" t="n">
         <v>9</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="K1051" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L1051" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M1051" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>2667</v>
+        <v>1667</v>
       </c>
       <c r="Q1051" t="n">
         <v>15</v>
@@ -76092,25 +76092,25 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K1052" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="L1052" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="M1052" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>2333</v>
+        <v>3200</v>
       </c>
       <c r="Q1052" t="n">
         <v>15</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1053" t="n">
         <v>9</v>
@@ -76164,25 +76164,25 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="K1053" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="L1053" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="M1053" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76191,11 +76191,11 @@
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q1053" t="n">
         <v>15</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1054" t="n">
         <v>9</v>
@@ -76236,7 +76236,7 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K1054" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L1054" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M1054" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>1667</v>
+        <v>2667</v>
       </c>
       <c r="Q1054" t="n">
         <v>15</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44390</v>
+        <v>44494</v>
       </c>
       <c r="E1055" t="n">
         <v>9</v>
@@ -76308,41 +76308,41 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K1055" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="L1055" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M1055" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>1056</v>
+        <v>2333</v>
       </c>
       <c r="Q1055" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1056" t="n">
         <v>9</v>
@@ -76380,7 +76380,7 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
@@ -76389,20 +76389,20 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K1056" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L1056" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1056" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
@@ -76411,10 +76411,10 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>889</v>
+        <v>1200</v>
       </c>
       <c r="Q1056" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1057" t="n">
         <v>9</v>
@@ -76452,7 +76452,7 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="K1057" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L1057" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M1057" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>2000</v>
+        <v>1667</v>
       </c>
       <c r="Q1057" t="n">
         <v>15</v>
@@ -76524,41 +76524,41 @@
       </c>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="K1058" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L1058" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M1058" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="Q1058" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76596,7 +76596,7 @@
       </c>
       <c r="H1059" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1059" t="inlineStr">
@@ -76605,32 +76605,32 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="K1059" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L1059" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M1059" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="Q1059" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1060" t="n">
         <v>9</v>
@@ -76668,7 +76668,7 @@
       </c>
       <c r="H1060" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1060" t="inlineStr">
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K1060" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L1060" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M1060" t="n">
-        <v>14455</v>
+        <v>30000</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>964</v>
+        <v>2000</v>
       </c>
       <c r="Q1060" t="n">
         <v>15</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1061" t="n">
         <v>9</v>
@@ -76740,7 +76740,7 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="K1061" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L1061" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1061" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>667</v>
+        <v>1067</v>
       </c>
       <c r="Q1061" t="n">
         <v>15</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1062" t="n">
         <v>9</v>
@@ -76812,7 +76812,7 @@
       </c>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -76821,32 +76821,32 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K1062" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1062" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1062" t="n">
-        <v>12545</v>
+        <v>15000</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>697</v>
+        <v>1000</v>
       </c>
       <c r="Q1062" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76884,41 +76884,41 @@
       </c>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K1063" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L1063" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1063" t="n">
-        <v>10000</v>
+        <v>14455</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>556</v>
+        <v>964</v>
       </c>
       <c r="Q1063" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
@@ -76956,7 +76956,7 @@
       </c>
       <c r="H1064" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1064" t="inlineStr">
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K1064" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L1064" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M1064" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="Q1064" t="n">
         <v>15</v>
@@ -77028,7 +77028,7 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
@@ -77037,32 +77037,32 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="K1065" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L1065" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1065" t="n">
-        <v>14565</v>
+        <v>12545</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1065" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>971</v>
+        <v>697</v>
       </c>
       <c r="Q1065" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
@@ -77100,7 +77100,7 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
@@ -77109,32 +77109,32 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K1066" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1066" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1066" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q1066" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
@@ -77172,7 +77172,7 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K1067" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1067" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M1067" t="n">
-        <v>12455</v>
+        <v>30000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>830</v>
+        <v>2000</v>
       </c>
       <c r="Q1067" t="n">
         <v>15</v>
@@ -77244,25 +77244,25 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="K1068" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L1068" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1068" t="n">
-        <v>10000</v>
+        <v>14565</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>667</v>
+        <v>971</v>
       </c>
       <c r="Q1068" t="n">
         <v>15</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1069" t="n">
         <v>9</v>
@@ -77316,25 +77316,25 @@
       </c>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="K1069" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1069" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M1069" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77343,11 +77343,11 @@
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>1067</v>
+        <v>800</v>
       </c>
       <c r="Q1069" t="n">
         <v>15</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1070" t="n">
         <v>9</v>
@@ -77388,7 +77388,7 @@
       </c>
       <c r="H1070" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1070" t="inlineStr">
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="K1070" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1070" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1070" t="n">
-        <v>10000</v>
+        <v>12455</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77415,11 +77415,11 @@
       </c>
       <c r="O1070" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>667</v>
+        <v>830</v>
       </c>
       <c r="Q1070" t="n">
         <v>15</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1071" t="n">
         <v>9</v>
@@ -77460,25 +77460,25 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K1071" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L1071" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M1071" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="Q1071" t="n">
         <v>15</v>
@@ -77532,7 +77532,7 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="K1072" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L1072" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M1072" t="n">
-        <v>14532</v>
+        <v>16000</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77559,11 +77559,11 @@
       </c>
       <c r="O1072" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="Q1072" t="n">
         <v>15</v>
@@ -77604,25 +77604,25 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="K1073" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1073" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1073" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77631,11 +77631,11 @@
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="Q1073" t="n">
         <v>15</v>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="K1074" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L1074" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="M1074" t="n">
-        <v>10543</v>
+        <v>30000</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>703</v>
+        <v>2000</v>
       </c>
       <c r="Q1074" t="n">
         <v>15</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1075" t="n">
         <v>9</v>
@@ -77748,7 +77748,7 @@
       </c>
       <c r="H1075" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1075" t="inlineStr">
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="K1075" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L1075" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M1075" t="n">
-        <v>30000</v>
+        <v>14532</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77775,11 +77775,11 @@
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>2000</v>
+        <v>969</v>
       </c>
       <c r="Q1075" t="n">
         <v>15</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1076" t="n">
         <v>9</v>
@@ -77820,7 +77820,7 @@
       </c>
       <c r="H1076" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1076" t="inlineStr">
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K1076" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L1076" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M1076" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>2333</v>
+        <v>800</v>
       </c>
       <c r="Q1076" t="n">
         <v>15</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1077" t="n">
         <v>9</v>
@@ -77892,25 +77892,25 @@
       </c>
       <c r="H1077" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="K1077" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="L1077" t="n">
-        <v>45000</v>
+        <v>11000</v>
       </c>
       <c r="M1077" t="n">
-        <v>45000</v>
+        <v>10543</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>3000</v>
+        <v>703</v>
       </c>
       <c r="Q1077" t="n">
         <v>15</v>
@@ -77964,7 +77964,7 @@
       </c>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K1078" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L1078" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M1078" t="n">
-        <v>38333</v>
+        <v>30000</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77991,11 +77991,11 @@
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>2556</v>
+        <v>2000</v>
       </c>
       <c r="Q1078" t="n">
         <v>15</v>
@@ -78036,7 +78036,7 @@
       </c>
       <c r="H1079" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1079" t="inlineStr">
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K1079" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L1079" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M1079" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>1933</v>
+        <v>2333</v>
       </c>
       <c r="Q1079" t="n">
         <v>15</v>
@@ -78108,7 +78108,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -78120,29 +78120,29 @@
         <v>50</v>
       </c>
       <c r="K1080" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="L1080" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M1080" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>2222</v>
+        <v>3000</v>
       </c>
       <c r="Q1080" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78180,7 +78180,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -78192,13 +78192,13 @@
         <v>300</v>
       </c>
       <c r="K1081" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L1081" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M1081" t="n">
-        <v>29000</v>
+        <v>38333</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>1933</v>
+        <v>2556</v>
       </c>
       <c r="Q1081" t="n">
         <v>15</v>
@@ -78252,41 +78252,41 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K1082" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L1082" t="n">
         <v>30000</v>
       </c>
       <c r="M1082" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>1667</v>
+        <v>1933</v>
       </c>
       <c r="Q1082" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K1083" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L1083" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M1083" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78351,11 +78351,11 @@
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>1389</v>
+        <v>2222</v>
       </c>
       <c r="Q1083" t="n">
         <v>18</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K1084" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L1084" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M1084" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>1667</v>
+        <v>1933</v>
       </c>
       <c r="Q1084" t="n">
         <v>15</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K1085" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L1085" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M1085" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>1222</v>
+        <v>1667</v>
       </c>
       <c r="Q1085" t="n">
         <v>18</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1086" t="n">
         <v>9</v>
@@ -78540,7 +78540,7 @@
       </c>
       <c r="H1086" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1086" t="inlineStr">
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K1086" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L1086" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1086" t="n">
-        <v>14500</v>
+        <v>25000</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>806</v>
+        <v>1389</v>
       </c>
       <c r="Q1086" t="n">
         <v>18</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1087" t="n">
         <v>9</v>
@@ -78612,7 +78612,7 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
@@ -78621,32 +78621,32 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K1087" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L1087" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M1087" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>667</v>
+        <v>1667</v>
       </c>
       <c r="Q1087" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1088" t="n">
         <v>9</v>
@@ -78684,41 +78684,41 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K1088" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L1088" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M1088" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>2000</v>
+        <v>1222</v>
       </c>
       <c r="Q1088" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,32 +78765,32 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K1089" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="L1089" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M1089" t="n">
-        <v>28000</v>
+        <v>14500</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>1867</v>
+        <v>806</v>
       </c>
       <c r="Q1089" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
@@ -78828,41 +78828,41 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K1090" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1090" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M1090" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>1133</v>
+        <v>667</v>
       </c>
       <c r="Q1090" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
@@ -78900,25 +78900,25 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K1091" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1091" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M1091" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q1091" t="n">
         <v>15</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1092" t="n">
         <v>9</v>
@@ -78972,7 +78972,7 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
@@ -78981,32 +78981,32 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K1092" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L1092" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="M1092" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>1000</v>
+        <v>1867</v>
       </c>
       <c r="Q1092" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1093" t="n">
         <v>9</v>
@@ -79044,25 +79044,25 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K1093" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L1093" t="n">
-        <v>36000</v>
+        <v>17000</v>
       </c>
       <c r="M1093" t="n">
-        <v>35556</v>
+        <v>17000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>2370</v>
+        <v>1133</v>
       </c>
       <c r="Q1093" t="n">
         <v>15</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1094" t="n">
         <v>9</v>
@@ -79116,25 +79116,25 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K1094" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L1094" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M1094" t="n">
-        <v>21067</v>
+        <v>12000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>1404</v>
+        <v>800</v>
       </c>
       <c r="Q1094" t="n">
         <v>15</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,32 +79197,32 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>710</v>
+        <v>240</v>
       </c>
       <c r="K1095" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1095" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M1095" t="n">
         <v>18000</v>
       </c>
-      <c r="M1095" t="n">
-        <v>17338</v>
-      </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>1156</v>
+        <v>1000</v>
       </c>
       <c r="Q1095" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79260,25 +79260,25 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K1096" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L1096" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="M1096" t="n">
-        <v>16000</v>
+        <v>35556</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>1067</v>
+        <v>2370</v>
       </c>
       <c r="Q1096" t="n">
         <v>15</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K1097" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L1097" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="M1097" t="n">
-        <v>12000</v>
+        <v>21067</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>800</v>
+        <v>1404</v>
       </c>
       <c r="Q1097" t="n">
         <v>15</v>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>500</v>
+        <v>710</v>
       </c>
       <c r="K1098" t="n">
         <v>15000</v>
       </c>
       <c r="L1098" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1098" t="n">
-        <v>15400</v>
+        <v>17338</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>1027</v>
+        <v>1156</v>
       </c>
       <c r="Q1098" t="n">
         <v>15</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K1099" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L1099" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M1099" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>933</v>
+        <v>1067</v>
       </c>
       <c r="Q1099" t="n">
         <v>15</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1100" t="n">
         <v>9</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="K1100" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="L1100" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="M1100" t="n">
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="Q1100" t="n">
         <v>15</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1101" t="n">
         <v>9</v>
@@ -79629,16 +79629,16 @@
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K1101" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L1101" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="M1101" t="n">
-        <v>40000</v>
+        <v>15400</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>2667</v>
+        <v>1027</v>
       </c>
       <c r="Q1101" t="n">
         <v>15</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44384</v>
+        <v>44354</v>
       </c>
       <c r="E1102" t="n">
         <v>9</v>
@@ -79692,41 +79692,41 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K1102" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L1102" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M1102" t="n">
-        <v>16556</v>
+        <v>14000</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>920</v>
+        <v>933</v>
       </c>
       <c r="Q1102" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44384</v>
+        <v>44503</v>
       </c>
       <c r="E1103" t="n">
         <v>9</v>
@@ -79764,41 +79764,41 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="K1103" t="n">
-        <v>14000</v>
+        <v>48000</v>
       </c>
       <c r="L1103" t="n">
-        <v>14000</v>
+        <v>48000</v>
       </c>
       <c r="M1103" t="n">
-        <v>14000</v>
+        <v>48000</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>778</v>
+        <v>3200</v>
       </c>
       <c r="Q1103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44384</v>
+        <v>44503</v>
       </c>
       <c r="E1104" t="n">
         <v>9</v>
@@ -79836,7 +79836,7 @@
       </c>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K1104" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L1104" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="M1104" t="n">
-        <v>35400</v>
+        <v>40000</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>2360</v>
+        <v>2667</v>
       </c>
       <c r="Q1104" t="n">
         <v>15</v>
@@ -79908,7 +79908,7 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
@@ -79917,32 +79917,32 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K1105" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L1105" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M1105" t="n">
-        <v>15000</v>
+        <v>16556</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q1105" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79980,41 +79980,41 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K1106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L1106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M1106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q1106" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1107" t="n">
         <v>9</v>
@@ -80061,16 +80061,16 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K1107" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L1107" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="M1107" t="n">
-        <v>50000</v>
+        <v>35400</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>3333</v>
+        <v>2360</v>
       </c>
       <c r="Q1107" t="n">
         <v>15</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1108" t="n">
         <v>9</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K1108" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="L1108" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="M1108" t="n">
-        <v>48000</v>
+        <v>15000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="Q1108" t="n">
         <v>15</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1109" t="n">
         <v>9</v>
@@ -80208,13 +80208,13 @@
         <v>40</v>
       </c>
       <c r="K1109" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L1109" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M1109" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>2333</v>
+        <v>1000</v>
       </c>
       <c r="Q1109" t="n">
         <v>15</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1110" t="n">
         <v>9</v>
@@ -80268,7 +80268,7 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -80277,32 +80277,32 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K1110" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="L1110" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="M1110" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>833</v>
+        <v>3333</v>
       </c>
       <c r="Q1110" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1111" t="n">
         <v>9</v>
@@ -80340,7 +80340,7 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="K1111" t="n">
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="L1111" t="n">
-        <v>13000</v>
+        <v>48000</v>
       </c>
       <c r="M1111" t="n">
-        <v>12667</v>
+        <v>48000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80367,11 +80367,11 @@
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>844</v>
+        <v>3200</v>
       </c>
       <c r="Q1111" t="n">
         <v>15</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1112" t="n">
         <v>9</v>
@@ -80412,25 +80412,25 @@
       </c>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K1112" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L1112" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M1112" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80439,11 +80439,11 @@
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>667</v>
+        <v>2333</v>
       </c>
       <c r="Q1112" t="n">
         <v>15</v>
@@ -80484,7 +80484,7 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="K1113" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1113" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1113" t="n">
-        <v>11556</v>
+        <v>15000</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>642</v>
+        <v>833</v>
       </c>
       <c r="Q1113" t="n">
         <v>18</v>
@@ -80556,41 +80556,41 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K1114" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1114" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1114" t="n">
-        <v>10000</v>
+        <v>12667</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>556</v>
+        <v>844</v>
       </c>
       <c r="Q1114" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80628,25 +80628,25 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>700</v>
+        <v>50</v>
       </c>
       <c r="K1115" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L1115" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M1115" t="n">
-        <v>17429</v>
+        <v>10000</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80655,11 +80655,11 @@
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>1162</v>
+        <v>667</v>
       </c>
       <c r="Q1115" t="n">
         <v>15</v>
@@ -80700,41 +80700,41 @@
       </c>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="K1116" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L1116" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1116" t="n">
-        <v>15000</v>
+        <v>11556</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>1000</v>
+        <v>642</v>
       </c>
       <c r="Q1116" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80772,41 +80772,41 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K1117" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1117" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1117" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q1117" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1117" t="inlineStr">
         <is>
@@ -80844,7 +80844,7 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
@@ -80853,16 +80853,16 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>280</v>
+        <v>700</v>
       </c>
       <c r="K1118" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L1118" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M1118" t="n">
-        <v>12500</v>
+        <v>17429</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>833</v>
+        <v>1162</v>
       </c>
       <c r="Q1118" t="n">
         <v>15</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1119" t="n">
         <v>9</v>
@@ -80916,41 +80916,41 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Cuatro cascos naranjo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K1119" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="L1119" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="M1119" t="n">
-        <v>50000</v>
+        <v>15000</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>2778</v>
+        <v>1000</v>
       </c>
       <c r="Q1119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1120" t="n">
         <v>9</v>
@@ -80988,41 +80988,41 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1120" t="n">
         <v>50</v>
       </c>
       <c r="K1120" t="n">
-        <v>47000</v>
+        <v>12000</v>
       </c>
       <c r="L1120" t="n">
-        <v>47000</v>
+        <v>12000</v>
       </c>
       <c r="M1120" t="n">
-        <v>47000</v>
+        <v>12000</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>2611</v>
+        <v>800</v>
       </c>
       <c r="Q1120" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1121" t="n">
         <v>9</v>
@@ -81060,25 +81060,25 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="K1121" t="n">
-        <v>55000</v>
+        <v>12000</v>
       </c>
       <c r="L1121" t="n">
-        <v>55000</v>
+        <v>13000</v>
       </c>
       <c r="M1121" t="n">
-        <v>55000</v>
+        <v>12500</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>3667</v>
+        <v>833</v>
       </c>
       <c r="Q1121" t="n">
         <v>15</v>
@@ -81132,7 +81132,7 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos naranjo</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
@@ -81141,7 +81141,7 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K1122" t="n">
         <v>50000</v>
@@ -81154,19 +81154,19 @@
       </c>
       <c r="N1122" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>3333</v>
+        <v>2778</v>
       </c>
       <c r="Q1122" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
@@ -81204,41 +81204,41 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K1123" t="n">
-        <v>40000</v>
+        <v>47000</v>
       </c>
       <c r="L1123" t="n">
-        <v>40000</v>
+        <v>47000</v>
       </c>
       <c r="M1123" t="n">
-        <v>40000</v>
+        <v>47000</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>2667</v>
+        <v>2611</v>
       </c>
       <c r="Q1123" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81276,7 +81276,7 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K1124" t="n">
-        <v>57000</v>
+        <v>55000</v>
       </c>
       <c r="L1124" t="n">
-        <v>57000</v>
+        <v>55000</v>
       </c>
       <c r="M1124" t="n">
-        <v>57000</v>
+        <v>55000</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>3800</v>
+        <v>3667</v>
       </c>
       <c r="Q1124" t="n">
         <v>15</v>
@@ -81348,7 +81348,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
@@ -81357,16 +81357,16 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K1125" t="n">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="L1125" t="n">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="M1125" t="n">
-        <v>48000</v>
+        <v>50000</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>3200</v>
+        <v>3333</v>
       </c>
       <c r="Q1125" t="n">
         <v>15</v>
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K1126" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="L1126" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="M1126" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81451,7 +81451,7 @@
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>3000</v>
+        <v>2667</v>
       </c>
       <c r="Q1126" t="n">
         <v>15</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -81504,13 +81504,13 @@
         <v>50</v>
       </c>
       <c r="K1127" t="n">
-        <v>45000</v>
+        <v>57000</v>
       </c>
       <c r="L1127" t="n">
-        <v>45000</v>
+        <v>57000</v>
       </c>
       <c r="M1127" t="n">
-        <v>45000</v>
+        <v>57000</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q1127" t="n">
         <v>15</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81576,13 +81576,13 @@
         <v>300</v>
       </c>
       <c r="K1128" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="L1128" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="M1128" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>2333</v>
+        <v>3200</v>
       </c>
       <c r="Q1128" t="n">
         <v>15</v>
@@ -81636,16 +81636,16 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K1129" t="n">
         <v>45000</v>
@@ -81658,19 +81658,19 @@
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q1129" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81713,38 +81713,254 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1130" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>45000</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>45000</v>
+      </c>
+      <c r="N1130" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1130" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1130" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1131" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1131" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N1131" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1131" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1131" t="n">
+        <v>2333</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1132" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1132" t="n">
+        <v>150</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>45000</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>45000</v>
+      </c>
+      <c r="N1132" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1132" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1132" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1133" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1130" t="n">
+      <c r="J1133" t="n">
         <v>80</v>
       </c>
-      <c r="K1130" t="n">
+      <c r="K1133" t="n">
         <v>30000</v>
       </c>
-      <c r="L1130" t="n">
+      <c r="L1133" t="n">
         <v>30000</v>
       </c>
-      <c r="M1130" t="n">
+      <c r="M1133" t="n">
         <v>30000</v>
       </c>
-      <c r="N1130" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O1130" t="inlineStr">
+      <c r="N1133" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1133" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1130" t="n">
+      <c r="P1133" t="n">
         <v>2000</v>
       </c>
-      <c r="Q1130" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1130" t="inlineStr">
+      <c r="Q1133" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1133" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1153"/>
+  <dimension ref="A1:R1156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1084" t="n">
         <v>9</v>
@@ -78396,25 +78396,25 @@
       </c>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="K1084" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L1084" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M1084" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78423,11 +78423,11 @@
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>2000</v>
+        <v>667</v>
       </c>
       <c r="Q1084" t="n">
         <v>15</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1085" t="n">
         <v>9</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="K1085" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L1085" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M1085" t="n">
-        <v>28000</v>
+        <v>23847</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>1867</v>
+        <v>1590</v>
       </c>
       <c r="Q1085" t="n">
         <v>15</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1086" t="n">
         <v>9</v>
@@ -78549,32 +78549,32 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="K1086" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L1086" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M1086" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1086" t="n">
         <v>1000</v>
       </c>
       <c r="Q1086" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1087" t="n">
         <v>9</v>
@@ -78612,25 +78612,25 @@
       </c>
       <c r="H1087" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K1087" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L1087" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M1087" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78639,11 +78639,11 @@
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q1087" t="n">
         <v>15</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1088" t="n">
         <v>9</v>
@@ -78684,7 +78684,7 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K1088" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L1088" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="M1088" t="n">
-        <v>10500</v>
+        <v>28000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>700</v>
+        <v>1867</v>
       </c>
       <c r="Q1088" t="n">
         <v>15</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1089" t="n">
         <v>9</v>
@@ -78756,7 +78756,7 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K1089" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1089" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1089" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78783,11 +78783,11 @@
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q1089" t="n">
         <v>18</v>
@@ -78828,7 +78828,7 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -78837,7 +78837,7 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K1090" t="n">
         <v>15000</v>
@@ -78855,7 +78855,7 @@
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1090" t="n">
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1091" t="n">
         <v>9</v>
@@ -78900,7 +78900,7 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
@@ -78909,32 +78909,32 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K1091" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L1091" t="n">
-        <v>18500</v>
+        <v>11000</v>
       </c>
       <c r="M1091" t="n">
-        <v>18333</v>
+        <v>10500</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>1018</v>
+        <v>700</v>
       </c>
       <c r="Q1091" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1092" t="n">
         <v>9</v>
@@ -78972,41 +78972,41 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K1092" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="L1092" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="M1092" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>2667</v>
+        <v>833</v>
       </c>
       <c r="Q1092" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1093" t="n">
         <v>9</v>
@@ -79044,7 +79044,7 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K1093" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="L1093" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M1093" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>2333</v>
+        <v>1000</v>
       </c>
       <c r="Q1093" t="n">
         <v>15</v>
@@ -79116,7 +79116,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -79125,32 +79125,32 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="K1094" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1094" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="M1094" t="n">
-        <v>15468</v>
+        <v>18333</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="Q1094" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
@@ -79188,25 +79188,25 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="K1095" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="L1095" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M1095" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="Q1095" t="n">
         <v>15</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1096" t="n">
         <v>9</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,7 +79269,7 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K1096" t="n">
         <v>35000</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1097" t="n">
         <v>9</v>
@@ -79332,7 +79332,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -79341,32 +79341,32 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>50</v>
+        <v>470</v>
       </c>
       <c r="K1097" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L1097" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M1097" t="n">
-        <v>25000</v>
+        <v>15468</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>1389</v>
+        <v>1031</v>
       </c>
       <c r="Q1097" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1098" t="n">
         <v>9</v>
@@ -79404,7 +79404,7 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="K1098" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L1098" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M1098" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q1098" t="n">
         <v>15</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1099" t="n">
         <v>9</v>
@@ -79476,7 +79476,7 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -79485,16 +79485,16 @@
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K1099" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L1099" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M1099" t="n">
-        <v>23958</v>
+        <v>35000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>1597</v>
+        <v>2333</v>
       </c>
       <c r="Q1099" t="n">
         <v>15</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1100" t="n">
         <v>9</v>
@@ -79557,16 +79557,16 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K1100" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L1100" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M1100" t="n">
-        <v>28706</v>
+        <v>25000</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>1595</v>
+        <v>1389</v>
       </c>
       <c r="Q1100" t="n">
         <v>18</v>
@@ -79620,25 +79620,25 @@
       </c>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K1101" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L1101" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M1101" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="Q1101" t="n">
         <v>15</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1102" t="n">
         <v>9</v>
@@ -79692,7 +79692,7 @@
       </c>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="K1102" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L1102" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M1102" t="n">
-        <v>40000</v>
+        <v>23958</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>2667</v>
+        <v>1597</v>
       </c>
       <c r="Q1102" t="n">
         <v>15</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1103" t="n">
         <v>9</v>
@@ -79764,7 +79764,7 @@
       </c>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -79773,32 +79773,32 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="K1103" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L1103" t="n">
         <v>30000</v>
       </c>
       <c r="M1103" t="n">
-        <v>30000</v>
+        <v>28706</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>2000</v>
+        <v>1595</v>
       </c>
       <c r="Q1103" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1104" t="n">
         <v>9</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1104" t="n">
         <v>80</v>
       </c>
       <c r="K1104" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L1104" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M1104" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>1667</v>
+        <v>1333</v>
       </c>
       <c r="Q1104" t="n">
         <v>15</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1105" t="n">
         <v>9</v>
@@ -79908,7 +79908,7 @@
       </c>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
@@ -79917,32 +79917,32 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K1105" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="L1105" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="M1105" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>778</v>
+        <v>2667</v>
       </c>
       <c r="Q1105" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1106" t="n">
         <v>9</v>
@@ -79980,41 +79980,41 @@
       </c>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K1106" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1106" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M1106" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>667</v>
+        <v>2000</v>
       </c>
       <c r="Q1106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1107" t="n">
         <v>9</v>
@@ -80052,25 +80052,25 @@
       </c>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K1107" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L1107" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M1107" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>1333</v>
+        <v>1667</v>
       </c>
       <c r="Q1107" t="n">
         <v>15</v>
@@ -80124,41 +80124,41 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K1108" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L1108" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M1108" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>1333</v>
+        <v>778</v>
       </c>
       <c r="Q1108" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80196,41 +80196,41 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="K1109" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L1109" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M1109" t="n">
-        <v>16522</v>
+        <v>12000</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>1101</v>
+        <v>667</v>
       </c>
       <c r="Q1109" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80268,25 +80268,25 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="K1110" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L1110" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1110" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>667</v>
+        <v>1333</v>
       </c>
       <c r="Q1110" t="n">
         <v>15</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1111" t="n">
         <v>9</v>
@@ -80340,41 +80340,41 @@
       </c>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K1111" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L1111" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M1111" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>667</v>
+        <v>1333</v>
       </c>
       <c r="Q1111" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1112" t="n">
         <v>9</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K1112" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L1112" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M1112" t="n">
-        <v>18880</v>
+        <v>16522</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>1259</v>
+        <v>1101</v>
       </c>
       <c r="Q1112" t="n">
         <v>15</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1113" t="n">
         <v>9</v>
@@ -80484,25 +80484,25 @@
       </c>
       <c r="H1113" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="K1113" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L1113" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1113" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>933</v>
+        <v>667</v>
       </c>
       <c r="Q1113" t="n">
         <v>15</v>
@@ -80556,7 +80556,7 @@
       </c>
       <c r="H1114" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1114" t="inlineStr">
@@ -80565,32 +80565,32 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="K1114" t="n">
         <v>12000</v>
       </c>
       <c r="L1114" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1114" t="n">
-        <v>12579</v>
+        <v>12000</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="Q1114" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1115" t="n">
         <v>9</v>
@@ -80628,7 +80628,7 @@
       </c>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -80637,16 +80637,16 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K1115" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L1115" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M1115" t="n">
-        <v>35000</v>
+        <v>18880</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>2333</v>
+        <v>1259</v>
       </c>
       <c r="Q1115" t="n">
         <v>15</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1116" t="n">
         <v>9</v>
@@ -80705,20 +80705,20 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="K1116" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="L1116" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M1116" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>2333</v>
+        <v>933</v>
       </c>
       <c r="Q1116" t="n">
         <v>15</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1117" t="n">
         <v>9</v>
@@ -80781,16 +80781,16 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="K1117" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L1117" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1117" t="n">
-        <v>15000</v>
+        <v>12579</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>1000</v>
+        <v>839</v>
       </c>
       <c r="Q1117" t="n">
         <v>15</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1118" t="n">
         <v>9</v>
@@ -80844,25 +80844,25 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1118" t="n">
         <v>50</v>
       </c>
       <c r="K1118" t="n">
-        <v>11000</v>
+        <v>35000</v>
       </c>
       <c r="L1118" t="n">
-        <v>11000</v>
+        <v>35000</v>
       </c>
       <c r="M1118" t="n">
-        <v>11000</v>
+        <v>35000</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80871,11 +80871,11 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>733</v>
+        <v>2333</v>
       </c>
       <c r="Q1118" t="n">
         <v>15</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1119" t="n">
         <v>9</v>
@@ -80916,7 +80916,7 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K1119" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L1119" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M1119" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>667</v>
+        <v>2333</v>
       </c>
       <c r="Q1119" t="n">
         <v>15</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1120" t="n">
         <v>9</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,32 +80997,32 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K1120" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1120" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1120" t="n">
-        <v>12444</v>
+        <v>15000</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>691</v>
+        <v>1000</v>
       </c>
       <c r="Q1120" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81060,25 +81060,25 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1121" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="L1121" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M1121" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>1667</v>
+        <v>733</v>
       </c>
       <c r="Q1121" t="n">
         <v>15</v>
@@ -81132,7 +81132,7 @@
       </c>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
@@ -81141,32 +81141,32 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K1122" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L1122" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M1122" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>1944</v>
+        <v>667</v>
       </c>
       <c r="Q1122" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
@@ -81204,7 +81204,7 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
@@ -81213,32 +81213,32 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="K1123" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1123" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M1123" t="n">
-        <v>19000</v>
+        <v>12444</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>1267</v>
+        <v>691</v>
       </c>
       <c r="Q1123" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1123" t="inlineStr">
         <is>
@@ -81276,25 +81276,25 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K1124" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L1124" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M1124" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81307,7 +81307,7 @@
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>1067</v>
+        <v>1667</v>
       </c>
       <c r="Q1124" t="n">
         <v>15</v>
@@ -81348,7 +81348,7 @@
       </c>
       <c r="H1125" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1125" t="inlineStr">
@@ -81357,32 +81357,32 @@
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="K1125" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="L1125" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M1125" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>933</v>
+        <v>1944</v>
       </c>
       <c r="Q1125" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,32 +81429,32 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K1126" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L1126" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M1126" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>1389</v>
+        <v>1267</v>
       </c>
       <c r="Q1126" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1127" t="n">
         <v>9</v>
@@ -81492,41 +81492,41 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1127" t="n">
         <v>40</v>
       </c>
       <c r="K1127" t="n">
-        <v>38000</v>
+        <v>16000</v>
       </c>
       <c r="L1127" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="M1127" t="n">
-        <v>39000</v>
+        <v>16000</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>2167</v>
+        <v>1067</v>
       </c>
       <c r="Q1127" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1128" t="n">
         <v>9</v>
@@ -81564,7 +81564,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -81573,16 +81573,16 @@
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K1128" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="L1128" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="M1128" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81595,7 +81595,7 @@
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>2333</v>
+        <v>933</v>
       </c>
       <c r="Q1128" t="n">
         <v>15</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1129" t="n">
         <v>9</v>
@@ -81645,32 +81645,32 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K1129" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L1129" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M1129" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>2000</v>
+        <v>1389</v>
       </c>
       <c r="Q1129" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1130" t="n">
         <v>9</v>
@@ -81708,7 +81708,7 @@
       </c>
       <c r="H1130" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1130" t="inlineStr">
@@ -81717,16 +81717,16 @@
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K1130" t="n">
-        <v>12000</v>
+        <v>38000</v>
       </c>
       <c r="L1130" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="M1130" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81739,7 +81739,7 @@
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>667</v>
+        <v>2167</v>
       </c>
       <c r="Q1130" t="n">
         <v>18</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1131" t="n">
         <v>9</v>
@@ -81780,7 +81780,7 @@
       </c>
       <c r="H1131" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1131" t="inlineStr">
@@ -81789,32 +81789,32 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="K1131" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="L1131" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M1131" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>667</v>
+        <v>2333</v>
       </c>
       <c r="Q1131" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44302</v>
+        <v>44428</v>
       </c>
       <c r="E1132" t="n">
         <v>9</v>
@@ -81852,7 +81852,7 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -81861,32 +81861,32 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K1132" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L1132" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M1132" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>722</v>
+        <v>2000</v>
       </c>
       <c r="Q1132" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1133" t="n">
         <v>9</v>
@@ -81924,7 +81924,7 @@
       </c>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
@@ -81933,7 +81933,7 @@
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K1133" t="n">
         <v>12000</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1134" t="n">
         <v>9</v>
@@ -81996,7 +81996,7 @@
       </c>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -82005,32 +82005,32 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="K1134" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1134" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M1134" t="n">
-        <v>19111</v>
+        <v>12000</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>1274</v>
+        <v>667</v>
       </c>
       <c r="Q1134" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1134" t="inlineStr">
         <is>
@@ -82068,41 +82068,41 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1135" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L1135" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M1135" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>1067</v>
+        <v>722</v>
       </c>
       <c r="Q1135" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82140,7 +82140,7 @@
       </c>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -82149,32 +82149,32 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K1136" t="n">
         <v>12000</v>
       </c>
       <c r="L1136" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M1136" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q1136" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1137" t="n">
         <v>9</v>
@@ -82212,7 +82212,7 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
@@ -82221,16 +82221,16 @@
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="K1137" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1137" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1137" t="n">
-        <v>17400</v>
+        <v>19111</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82239,11 +82239,11 @@
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>1160</v>
+        <v>1274</v>
       </c>
       <c r="Q1137" t="n">
         <v>15</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1138" t="n">
         <v>9</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K1138" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L1138" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M1138" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82315,7 +82315,7 @@
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>2000</v>
+        <v>1067</v>
       </c>
       <c r="Q1138" t="n">
         <v>15</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1139" t="n">
         <v>9</v>
@@ -82356,41 +82356,41 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K1139" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="L1139" t="n">
-        <v>45000</v>
+        <v>13000</v>
       </c>
       <c r="M1139" t="n">
-        <v>45000</v>
+        <v>12500</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>2500</v>
+        <v>833</v>
       </c>
       <c r="Q1139" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82428,7 +82428,7 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="K1140" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L1140" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M1140" t="n">
-        <v>25000</v>
+        <v>17400</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82455,11 +82455,11 @@
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>1667</v>
+        <v>1160</v>
       </c>
       <c r="Q1140" t="n">
         <v>15</v>
@@ -82500,25 +82500,25 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K1141" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L1141" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M1141" t="n">
-        <v>14529</v>
+        <v>30000</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>969</v>
+        <v>2000</v>
       </c>
       <c r="Q1141" t="n">
         <v>15</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1142" t="n">
         <v>9</v>
@@ -82572,41 +82572,41 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K1142" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="L1142" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="M1142" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>667</v>
+        <v>2500</v>
       </c>
       <c r="Q1142" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1143" t="n">
         <v>9</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="K1143" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="L1143" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1143" t="n">
-        <v>13333</v>
+        <v>25000</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>889</v>
+        <v>1667</v>
       </c>
       <c r="Q1143" t="n">
         <v>15</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E1144" t="n">
         <v>9</v>
@@ -82716,25 +82716,25 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="K1144" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L1144" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M1144" t="n">
-        <v>30000</v>
+        <v>14529</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>2000</v>
+        <v>969</v>
       </c>
       <c r="Q1144" t="n">
         <v>15</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1145" t="n">
         <v>9</v>
@@ -82788,7 +82788,7 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="K1145" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="L1145" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="M1145" t="n">
-        <v>28000</v>
+        <v>10000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82815,11 +82815,11 @@
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>1867</v>
+        <v>667</v>
       </c>
       <c r="Q1145" t="n">
         <v>15</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E1146" t="n">
         <v>9</v>
@@ -82860,41 +82860,41 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="K1146" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1146" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M1146" t="n">
-        <v>18000</v>
+        <v>13333</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="Q1146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1147" t="n">
         <v>9</v>
@@ -82932,41 +82932,41 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K1147" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L1147" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M1147" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>889</v>
+        <v>2000</v>
       </c>
       <c r="Q1147" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1148" t="n">
         <v>9</v>
@@ -83004,7 +83004,7 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="K1148" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L1148" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M1148" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>2200</v>
+        <v>1867</v>
       </c>
       <c r="Q1148" t="n">
         <v>15</v>
@@ -83076,7 +83076,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -83085,32 +83085,32 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K1149" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L1149" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M1149" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="Q1149" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83148,7 +83148,7 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -83157,32 +83157,32 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="K1150" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L1150" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M1150" t="n">
-        <v>17589</v>
+        <v>16000</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>1173</v>
+        <v>889</v>
       </c>
       <c r="Q1150" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83220,25 +83220,25 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K1151" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L1151" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M1151" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="Q1151" t="n">
         <v>15</v>
@@ -83292,25 +83292,25 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="K1152" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L1152" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1152" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q1152" t="n">
         <v>15</v>
@@ -83364,7 +83364,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -83373,34 +83373,250 @@
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="K1153" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L1153" t="n">
         <v>18000</v>
       </c>
       <c r="M1153" t="n">
+        <v>17589</v>
+      </c>
+      <c r="N1153" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1153" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1153" t="n">
+        <v>1173</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1153" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1154" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1154" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1154" t="n">
+        <v>125</v>
+      </c>
+      <c r="K1154" t="n">
         <v>18000</v>
       </c>
-      <c r="N1153" t="inlineStr">
+      <c r="L1154" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1154" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1154" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1154" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1154" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1155" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1155" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1155" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1155" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1155" t="n">
+        <v>210</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N1155" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1155" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1155" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1156" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1156" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1156" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1156" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1156" t="n">
+        <v>65</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1156" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1153" t="inlineStr">
+      <c r="O1156" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P1153" t="n">
+      <c r="P1156" t="n">
         <v>1000</v>
       </c>
-      <c r="Q1153" t="n">
+      <c r="Q1156" t="n">
         <v>18</v>
       </c>
-      <c r="R1153" t="inlineStr">
+      <c r="R1156" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1175"/>
+  <dimension ref="A1:R1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1162" t="n">
         <v>9</v>
@@ -84012,41 +84012,41 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos amarillo</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="K1162" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L1162" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M1162" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>889</v>
+        <v>1667</v>
       </c>
       <c r="Q1162" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1163" t="n">
         <v>9</v>
@@ -84084,7 +84084,7 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos amarillo</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
@@ -84093,32 +84093,32 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="K1163" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L1163" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1163" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>722</v>
+        <v>1333</v>
       </c>
       <c r="Q1163" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1164" t="n">
         <v>9</v>
@@ -84156,41 +84156,41 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="K1164" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L1164" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M1164" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1164" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q1164" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1165" t="n">
         <v>9</v>
@@ -84228,7 +84228,7 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -84237,32 +84237,32 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="K1165" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L1165" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M1165" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>889</v>
+        <v>1333</v>
       </c>
       <c r="Q1165" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1166" t="n">
         <v>9</v>
@@ -84305,20 +84305,20 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K1166" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L1166" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M1166" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q1166" t="n">
         <v>15</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1167" t="n">
         <v>9</v>
@@ -84372,7 +84372,7 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
@@ -84381,32 +84381,32 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K1167" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L1167" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M1167" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1167" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>1867</v>
+        <v>889</v>
       </c>
       <c r="Q1167" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1168" t="n">
         <v>9</v>
@@ -84444,7 +84444,7 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -84453,32 +84453,32 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="K1168" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1168" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1168" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1168" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="Q1168" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1169" t="n">
         <v>9</v>
@@ -84516,7 +84516,7 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -84528,29 +84528,29 @@
         <v>65</v>
       </c>
       <c r="K1169" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L1169" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M1169" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q1169" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1170" t="n">
         <v>9</v>
@@ -84588,7 +84588,7 @@
       </c>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -84597,32 +84597,32 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K1170" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L1170" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M1170" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1170" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>1867</v>
+        <v>889</v>
       </c>
       <c r="Q1170" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1171" t="n">
         <v>9</v>
@@ -84660,7 +84660,7 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -84669,16 +84669,16 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="K1171" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L1171" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M1171" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
@@ -84691,7 +84691,7 @@
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="Q1171" t="n">
         <v>15</v>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1172" t="n">
         <v>9</v>
@@ -84732,7 +84732,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -84741,16 +84741,16 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K1172" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L1172" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M1172" t="n">
-        <v>14412</v>
+        <v>28000</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84759,11 +84759,11 @@
       </c>
       <c r="O1172" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>961</v>
+        <v>1867</v>
       </c>
       <c r="Q1172" t="n">
         <v>15</v>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1173" t="n">
         <v>9</v>
@@ -84804,25 +84804,25 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="K1173" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="L1173" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="M1173" t="n">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84831,11 +84831,11 @@
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q1173" t="n">
         <v>15</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1174" t="n">
         <v>9</v>
@@ -84881,20 +84881,20 @@
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="K1174" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L1174" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M1174" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>2667</v>
+        <v>2000</v>
       </c>
       <c r="Q1174" t="n">
         <v>15</v>
@@ -84933,58 +84933,418 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1175" t="n">
+        <v>125</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N1175" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1175" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1175" t="n">
+        <v>1867</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1175" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1176" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1176" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1176" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1176" t="n">
+        <v>75</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N1176" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1176" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1176" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1176" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1177" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1177" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1177" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1177" t="n">
+        <v>85</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>14412</v>
+      </c>
+      <c r="N1177" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1177" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1177" t="n">
+        <v>961</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1177" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1178" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1175" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1175" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H1175" t="inlineStr">
+      <c r="E1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1178" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1178" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1178" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>45000</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>45000</v>
+      </c>
+      <c r="N1178" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1178" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1178" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1178" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1179" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1179" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1179" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1179" t="n">
+        <v>180</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>40000</v>
+      </c>
+      <c r="N1179" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1179" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1179" t="n">
+        <v>2667</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1179" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1180" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1180" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1180" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1175" t="inlineStr">
+      <c r="I1180" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1175" t="n">
+      <c r="J1180" t="n">
         <v>150</v>
       </c>
-      <c r="K1175" t="n">
+      <c r="K1180" t="n">
         <v>30000</v>
       </c>
-      <c r="L1175" t="n">
+      <c r="L1180" t="n">
         <v>30000</v>
       </c>
-      <c r="M1175" t="n">
+      <c r="M1180" t="n">
         <v>30000</v>
       </c>
-      <c r="N1175" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O1175" t="inlineStr">
+      <c r="N1180" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1180" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1175" t="n">
+      <c r="P1180" t="n">
         <v>2000</v>
       </c>
-      <c r="Q1175" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1175" t="inlineStr">
+      <c r="Q1180" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1180" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1212"/>
+  <dimension ref="A1:R1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1135" t="n">
         <v>9</v>
@@ -82068,7 +82068,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Cuatro cascos morado</t>
+          <t>Cuatro cascos amarillo</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -82077,32 +82077,32 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K1135" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L1135" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M1135" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>833</v>
+        <v>1467</v>
       </c>
       <c r="Q1135" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1136" t="n">
         <v>9</v>
@@ -82149,16 +82149,16 @@
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K1136" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1136" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1136" t="n">
-        <v>12667</v>
+        <v>10000</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>844</v>
+        <v>667</v>
       </c>
       <c r="Q1136" t="n">
         <v>15</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1137" t="n">
         <v>9</v>
@@ -82212,41 +82212,41 @@
       </c>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1137" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L1137" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M1137" t="n">
-        <v>10000</v>
+        <v>20857</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>667</v>
+        <v>1159</v>
       </c>
       <c r="Q1137" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1138" t="n">
         <v>9</v>
@@ -82284,7 +82284,7 @@
       </c>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
@@ -82293,32 +82293,32 @@
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K1138" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L1138" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M1138" t="n">
-        <v>11556</v>
+        <v>20000</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>642</v>
+        <v>1333</v>
       </c>
       <c r="Q1138" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
@@ -82356,25 +82356,25 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos morado</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K1139" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1139" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1139" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q1139" t="n">
         <v>18</v>
@@ -82428,7 +82428,7 @@
       </c>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K1140" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1140" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1140" t="n">
-        <v>17429</v>
+        <v>12667</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82455,11 +82455,11 @@
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>1162</v>
+        <v>844</v>
       </c>
       <c r="Q1140" t="n">
         <v>15</v>
@@ -82500,7 +82500,7 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K1141" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1141" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1141" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82527,11 +82527,11 @@
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q1141" t="n">
         <v>15</v>
@@ -82572,41 +82572,41 @@
       </c>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="K1142" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1142" t="n">
         <v>12000</v>
       </c>
       <c r="M1142" t="n">
-        <v>12000</v>
+        <v>11556</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>800</v>
+        <v>642</v>
       </c>
       <c r="Q1142" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
@@ -82644,41 +82644,41 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K1143" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1143" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1143" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q1143" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1144" t="n">
         <v>9</v>
@@ -82716,41 +82716,41 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="K1144" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="L1144" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M1144" t="n">
-        <v>26000</v>
+        <v>17429</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>1444</v>
+        <v>1162</v>
       </c>
       <c r="Q1144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1145" t="n">
         <v>9</v>
@@ -82788,41 +82788,41 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K1145" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L1145" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M1145" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="Q1145" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1146" t="n">
         <v>9</v>
@@ -82860,25 +82860,25 @@
       </c>
       <c r="H1146" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K1146" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L1146" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M1146" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>2333</v>
+        <v>800</v>
       </c>
       <c r="Q1146" t="n">
         <v>15</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1147" t="n">
         <v>9</v>
@@ -82932,25 +82932,25 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K1147" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L1147" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M1147" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="Q1147" t="n">
         <v>15</v>
@@ -83004,41 +83004,41 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="K1148" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="L1148" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="M1148" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>1233</v>
+        <v>1444</v>
       </c>
       <c r="Q1148" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83076,41 +83076,41 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K1149" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L1149" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M1149" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1149" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>1133</v>
+        <v>1111</v>
       </c>
       <c r="Q1149" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
@@ -83148,25 +83148,25 @@
       </c>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K1150" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L1150" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M1150" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>1333</v>
+        <v>2333</v>
       </c>
       <c r="Q1150" t="n">
         <v>15</v>
@@ -83220,25 +83220,25 @@
       </c>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K1151" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1151" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M1151" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83251,7 +83251,7 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q1151" t="n">
         <v>15</v>
@@ -83292,25 +83292,25 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="K1152" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1152" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M1152" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="Q1152" t="n">
         <v>15</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1153" t="n">
         <v>9</v>
@@ -83369,20 +83369,20 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K1153" t="n">
-        <v>43000</v>
+        <v>17000</v>
       </c>
       <c r="L1153" t="n">
-        <v>43000</v>
+        <v>17000</v>
       </c>
       <c r="M1153" t="n">
-        <v>43000</v>
+        <v>17000</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83395,7 +83395,7 @@
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>2867</v>
+        <v>1133</v>
       </c>
       <c r="Q1153" t="n">
         <v>15</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1154" t="n">
         <v>9</v>
@@ -83436,25 +83436,25 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="K1154" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="L1154" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M1154" t="n">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
@@ -83467,7 +83467,7 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>2667</v>
+        <v>1333</v>
       </c>
       <c r="Q1154" t="n">
         <v>15</v>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1155" t="n">
         <v>9</v>
@@ -83520,13 +83520,13 @@
         <v>300</v>
       </c>
       <c r="K1155" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L1155" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="M1155" t="n">
-        <v>30667</v>
+        <v>18000</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>2044</v>
+        <v>1200</v>
       </c>
       <c r="Q1155" t="n">
         <v>15</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1156" t="n">
         <v>9</v>
@@ -83585,20 +83585,20 @@
       </c>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K1156" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L1156" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M1156" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83607,11 +83607,11 @@
       </c>
       <c r="O1156" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>1667</v>
+        <v>1000</v>
       </c>
       <c r="Q1156" t="n">
         <v>15</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1157" t="n">
         <v>9</v>
@@ -83652,25 +83652,25 @@
       </c>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K1157" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="L1157" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="M1157" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>2000</v>
+        <v>2867</v>
       </c>
       <c r="Q1157" t="n">
         <v>15</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1158" t="n">
         <v>9</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="K1158" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L1158" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M1158" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>2000</v>
+        <v>2667</v>
       </c>
       <c r="Q1158" t="n">
         <v>15</v>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1159" t="n">
         <v>9</v>
@@ -83796,25 +83796,25 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="K1159" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L1159" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M1159" t="n">
-        <v>25000</v>
+        <v>30667</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
@@ -83827,7 +83827,7 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>1667</v>
+        <v>2044</v>
       </c>
       <c r="Q1159" t="n">
         <v>15</v>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1160" t="n">
         <v>9</v>
@@ -83877,16 +83877,16 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K1160" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L1160" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M1160" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
@@ -83895,11 +83895,11 @@
       </c>
       <c r="O1160" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>1733</v>
+        <v>1667</v>
       </c>
       <c r="Q1160" t="n">
         <v>15</v>
@@ -83940,25 +83940,25 @@
       </c>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="K1161" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L1161" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M1161" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="Q1161" t="n">
         <v>15</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1162" t="n">
         <v>9</v>
@@ -84012,7 +84012,7 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K1162" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L1162" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M1162" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84039,11 +84039,11 @@
       </c>
       <c r="O1162" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>1067</v>
+        <v>2000</v>
       </c>
       <c r="Q1162" t="n">
         <v>15</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1163" t="n">
         <v>9</v>
@@ -84084,25 +84084,25 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="K1163" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L1163" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M1163" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84111,11 +84111,11 @@
       </c>
       <c r="O1163" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>667</v>
+        <v>1667</v>
       </c>
       <c r="Q1163" t="n">
         <v>15</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1164" t="n">
         <v>9</v>
@@ -84156,7 +84156,7 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
@@ -84165,16 +84165,16 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="K1164" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L1164" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M1164" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>2000</v>
+        <v>1733</v>
       </c>
       <c r="Q1164" t="n">
         <v>15</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1165" t="n">
         <v>9</v>
@@ -84228,25 +84228,25 @@
       </c>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="K1165" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L1165" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M1165" t="n">
-        <v>14532</v>
+        <v>20000</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>969</v>
+        <v>1333</v>
       </c>
       <c r="Q1165" t="n">
         <v>15</v>
@@ -84300,25 +84300,25 @@
       </c>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K1166" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1166" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1166" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84327,11 +84327,11 @@
       </c>
       <c r="O1166" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>800</v>
+        <v>1067</v>
       </c>
       <c r="Q1166" t="n">
         <v>15</v>
@@ -84372,7 +84372,7 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
@@ -84381,16 +84381,16 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="K1167" t="n">
         <v>10000</v>
       </c>
       <c r="L1167" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M1167" t="n">
-        <v>10543</v>
+        <v>10000</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84399,11 +84399,11 @@
       </c>
       <c r="O1167" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="Q1167" t="n">
         <v>15</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1168" t="n">
         <v>9</v>
@@ -84444,7 +84444,7 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -84453,16 +84453,16 @@
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="K1168" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L1168" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M1168" t="n">
-        <v>9500</v>
+        <v>30000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84471,11 +84471,11 @@
       </c>
       <c r="O1168" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>633</v>
+        <v>2000</v>
       </c>
       <c r="Q1168" t="n">
         <v>15</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1169" t="n">
         <v>9</v>
@@ -84516,7 +84516,7 @@
       </c>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -84525,7 +84525,7 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="K1169" t="n">
         <v>14000</v>
@@ -84534,23 +84534,23 @@
         <v>15000</v>
       </c>
       <c r="M1169" t="n">
-        <v>14571</v>
+        <v>14532</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>810</v>
+        <v>969</v>
       </c>
       <c r="Q1169" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1170" t="n">
         <v>9</v>
@@ -84593,20 +84593,20 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K1170" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L1170" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1170" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q1170" t="n">
         <v>15</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44390</v>
+        <v>44277</v>
       </c>
       <c r="E1171" t="n">
         <v>9</v>
@@ -84660,41 +84660,41 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="K1171" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L1171" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="M1171" t="n">
-        <v>19000</v>
+        <v>10543</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>1056</v>
+        <v>703</v>
       </c>
       <c r="Q1171" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1172" t="n">
         <v>9</v>
@@ -84732,7 +84732,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -84741,32 +84741,32 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="K1172" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L1172" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1172" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>889</v>
+        <v>633</v>
       </c>
       <c r="Q1172" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1173" t="n">
         <v>9</v>
@@ -84804,7 +84804,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -84813,32 +84813,32 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K1173" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L1173" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M1173" t="n">
-        <v>30000</v>
+        <v>14571</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>2000</v>
+        <v>810</v>
       </c>
       <c r="Q1173" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1174" t="n">
         <v>9</v>
@@ -84885,16 +84885,16 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K1174" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L1174" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M1174" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
@@ -84907,7 +84907,7 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="Q1174" t="n">
         <v>15</v>
@@ -84948,41 +84948,41 @@
       </c>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="K1175" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L1175" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M1175" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="Q1175" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1176" t="n">
         <v>9</v>
@@ -85020,7 +85020,7 @@
       </c>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>Cuatro cascos amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
@@ -85029,16 +85029,16 @@
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K1176" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L1176" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="M1176" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
@@ -85051,7 +85051,7 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>1778</v>
+        <v>889</v>
       </c>
       <c r="Q1176" t="n">
         <v>18</v>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1177" t="n">
         <v>9</v>
@@ -85092,7 +85092,7 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -85101,32 +85101,32 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="K1177" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L1177" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M1177" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>944</v>
+        <v>2000</v>
       </c>
       <c r="Q1177" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1178" t="n">
         <v>9</v>
@@ -85173,16 +85173,16 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="K1178" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L1178" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M1178" t="n">
-        <v>22936</v>
+        <v>16000</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>1529</v>
+        <v>1067</v>
       </c>
       <c r="Q1178" t="n">
         <v>15</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1179" t="n">
         <v>9</v>
@@ -85245,16 +85245,16 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K1179" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L1179" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M1179" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="Q1179" t="n">
         <v>15</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1180" t="n">
         <v>9</v>
@@ -85308,25 +85308,25 @@
       </c>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos amarillo</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="K1180" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L1180" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M1180" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85335,11 +85335,11 @@
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="Q1180" t="n">
         <v>18</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1181" t="n">
         <v>9</v>
@@ -85380,7 +85380,7 @@
       </c>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
@@ -85389,32 +85389,32 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="K1181" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L1181" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M1181" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>1333</v>
+        <v>944</v>
       </c>
       <c r="Q1181" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1182" t="n">
         <v>9</v>
@@ -85457,20 +85457,20 @@
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="K1182" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L1182" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M1182" t="n">
-        <v>18000</v>
+        <v>22936</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85483,7 +85483,7 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>1200</v>
+        <v>1529</v>
       </c>
       <c r="Q1182" t="n">
         <v>15</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1183" t="n">
         <v>9</v>
@@ -85524,7 +85524,7 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K1183" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L1183" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M1183" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>1000</v>
+        <v>1067</v>
       </c>
       <c r="Q1183" t="n">
         <v>15</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1184" t="n">
         <v>9</v>
@@ -85601,36 +85601,36 @@
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K1184" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="L1184" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="M1184" t="n">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1184" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>3333</v>
+        <v>1944</v>
       </c>
       <c r="Q1184" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1184" t="inlineStr">
         <is>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1185" t="n">
         <v>9</v>
@@ -85668,7 +85668,7 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -85680,13 +85680,13 @@
         <v>100</v>
       </c>
       <c r="K1185" t="n">
-        <v>48000</v>
+        <v>20000</v>
       </c>
       <c r="L1185" t="n">
-        <v>48000</v>
+        <v>20000</v>
       </c>
       <c r="M1185" t="n">
-        <v>48000</v>
+        <v>20000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85699,7 +85699,7 @@
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>3200</v>
+        <v>1333</v>
       </c>
       <c r="Q1185" t="n">
         <v>15</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1186" t="n">
         <v>9</v>
@@ -85740,25 +85740,25 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K1186" t="n">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="L1186" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="M1186" t="n">
-        <v>39167</v>
+        <v>18000</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85771,7 +85771,7 @@
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>2611</v>
+        <v>1200</v>
       </c>
       <c r="Q1186" t="n">
         <v>15</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E1187" t="n">
         <v>9</v>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85821,16 +85821,16 @@
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K1187" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L1187" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M1187" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85839,11 +85839,11 @@
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>1533</v>
+        <v>1000</v>
       </c>
       <c r="Q1187" t="n">
         <v>15</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1188" t="n">
         <v>9</v>
@@ -85896,13 +85896,13 @@
         <v>50</v>
       </c>
       <c r="K1188" t="n">
-        <v>33000</v>
+        <v>50000</v>
       </c>
       <c r="L1188" t="n">
-        <v>33000</v>
+        <v>50000</v>
       </c>
       <c r="M1188" t="n">
-        <v>33000</v>
+        <v>50000</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85915,7 +85915,7 @@
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>2200</v>
+        <v>3333</v>
       </c>
       <c r="Q1188" t="n">
         <v>15</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1189" t="n">
         <v>9</v>
@@ -85965,16 +85965,16 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K1189" t="n">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="L1189" t="n">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="M1189" t="n">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85987,7 +85987,7 @@
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="Q1189" t="n">
         <v>15</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1190" t="n">
         <v>9</v>
@@ -86037,16 +86037,16 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K1190" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="L1190" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="M1190" t="n">
-        <v>15000</v>
+        <v>39167</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86059,7 +86059,7 @@
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>1000</v>
+        <v>2611</v>
       </c>
       <c r="Q1190" t="n">
         <v>15</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1191" t="n">
         <v>9</v>
@@ -86100,7 +86100,7 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -86109,32 +86109,32 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K1191" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L1191" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M1191" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>2222</v>
+        <v>1533</v>
       </c>
       <c r="Q1191" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1191" t="inlineStr">
         <is>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1192" t="n">
         <v>9</v>
@@ -86172,7 +86172,7 @@
       </c>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="K1192" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="L1192" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="M1192" t="n">
-        <v>39064</v>
+        <v>33000</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86203,7 +86203,7 @@
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>2604</v>
+        <v>2200</v>
       </c>
       <c r="Q1192" t="n">
         <v>15</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1193" t="n">
         <v>9</v>
@@ -86244,7 +86244,7 @@
       </c>
       <c r="H1193" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1193" t="inlineStr">
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K1193" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L1193" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="M1193" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86275,7 +86275,7 @@
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>2533</v>
+        <v>2000</v>
       </c>
       <c r="Q1193" t="n">
         <v>15</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E1194" t="n">
         <v>9</v>
@@ -86316,25 +86316,25 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Cuatro cascos amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K1194" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L1194" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M1194" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86343,11 +86343,11 @@
       </c>
       <c r="O1194" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>1667</v>
+        <v>1000</v>
       </c>
       <c r="Q1194" t="n">
         <v>15</v>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1195" t="n">
         <v>9</v>
@@ -86388,7 +86388,7 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Cuatro cascos amarillo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
@@ -86397,32 +86397,32 @@
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="K1195" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="L1195" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M1195" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>1333</v>
+        <v>2222</v>
       </c>
       <c r="Q1195" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1195" t="inlineStr">
         <is>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1196" t="n">
         <v>9</v>
@@ -86460,7 +86460,7 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
@@ -86469,16 +86469,16 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="K1196" t="n">
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="L1196" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="M1196" t="n">
-        <v>10000</v>
+        <v>39064</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86487,11 +86487,11 @@
       </c>
       <c r="O1196" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>667</v>
+        <v>2604</v>
       </c>
       <c r="Q1196" t="n">
         <v>15</v>
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1197" t="n">
         <v>9</v>
@@ -86532,7 +86532,7 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -86541,16 +86541,16 @@
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K1197" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="L1197" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="M1197" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>1333</v>
+        <v>2533</v>
       </c>
       <c r="Q1197" t="n">
         <v>15</v>
@@ -86604,25 +86604,25 @@
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos amarillo</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K1198" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1198" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M1198" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86631,11 +86631,11 @@
       </c>
       <c r="O1198" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="Q1198" t="n">
         <v>15</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1199" t="n">
         <v>9</v>
@@ -86676,7 +86676,7 @@
       </c>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos amarillo</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
@@ -86685,32 +86685,32 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="K1199" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L1199" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M1199" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1199" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>889</v>
+        <v>1333</v>
       </c>
       <c r="Q1199" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1199" t="inlineStr">
         <is>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1200" t="n">
         <v>9</v>
@@ -86757,32 +86757,32 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="K1200" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L1200" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1200" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q1200" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1201" t="n">
         <v>9</v>
@@ -86820,41 +86820,41 @@
       </c>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="K1201" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1201" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1201" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="Q1201" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1202" t="n">
         <v>9</v>
@@ -86892,41 +86892,41 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K1202" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L1202" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M1202" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q1202" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86964,7 +86964,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -86973,32 +86973,32 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K1203" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L1203" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M1203" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1203" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>2000</v>
+        <v>889</v>
       </c>
       <c r="Q1203" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1204" t="n">
         <v>9</v>
@@ -87036,7 +87036,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -87045,32 +87045,32 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="K1204" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L1204" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M1204" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1204" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>1867</v>
+        <v>722</v>
       </c>
       <c r="Q1204" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1204" t="inlineStr">
         <is>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1205" t="n">
         <v>9</v>
@@ -87108,41 +87108,41 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="K1205" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1205" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1205" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1205" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1205" t="n">
         <v>1000</v>
       </c>
       <c r="Q1205" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1205" t="inlineStr">
         <is>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1206" t="n">
         <v>9</v>
@@ -87180,41 +87180,41 @@
       </c>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K1206" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L1206" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M1206" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1206" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>2000</v>
+        <v>889</v>
       </c>
       <c r="Q1206" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1207" t="n">
         <v>9</v>
@@ -87261,16 +87261,16 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K1207" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L1207" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M1207" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87283,7 +87283,7 @@
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>1867</v>
+        <v>2000</v>
       </c>
       <c r="Q1207" t="n">
         <v>15</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1208" t="n">
         <v>9</v>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87333,16 +87333,16 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K1208" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L1208" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M1208" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>1333</v>
+        <v>1867</v>
       </c>
       <c r="Q1208" t="n">
         <v>15</v>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1209" t="n">
         <v>9</v>
@@ -87405,16 +87405,16 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="K1209" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1209" t="n">
         <v>15000</v>
       </c>
       <c r="M1209" t="n">
-        <v>14412</v>
+        <v>15000</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
@@ -87427,7 +87427,7 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="Q1209" t="n">
         <v>15</v>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1210" t="n">
         <v>9</v>
@@ -87477,16 +87477,16 @@
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="K1210" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L1210" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M1210" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87499,7 +87499,7 @@
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q1210" t="n">
         <v>15</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1211" t="n">
         <v>9</v>
@@ -87549,16 +87549,16 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="K1211" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L1211" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M1211" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87571,7 +87571,7 @@
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>2667</v>
+        <v>1867</v>
       </c>
       <c r="Q1211" t="n">
         <v>15</v>
@@ -87597,58 +87597,346 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1212" t="n">
+        <v>75</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N1212" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1212" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1212" t="n">
+        <v>1333</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1212" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1213" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>Zafiro verde</t>
+        </is>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1213" t="n">
+        <v>85</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>14412</v>
+      </c>
+      <c r="N1213" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1213" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1213" t="n">
+        <v>961</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1213" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1214" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1212" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1212" t="n">
-        <v>100112002</v>
-      </c>
-      <c r="G1212" t="inlineStr">
-        <is>
-          <t>Pimiento</t>
-        </is>
-      </c>
-      <c r="H1212" t="inlineStr">
+      <c r="E1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1214" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>45000</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>45000</v>
+      </c>
+      <c r="N1214" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1214" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1214" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1214" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1215" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1215" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1215" t="n">
+        <v>180</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>40000</v>
+      </c>
+      <c r="N1215" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1215" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1215" t="n">
+        <v>2667</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1215" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1216" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1216" t="inlineStr">
         <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1212" t="inlineStr">
+      <c r="I1216" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1212" t="n">
+      <c r="J1216" t="n">
         <v>150</v>
       </c>
-      <c r="K1212" t="n">
+      <c r="K1216" t="n">
         <v>30000</v>
       </c>
-      <c r="L1212" t="n">
+      <c r="L1216" t="n">
         <v>30000</v>
       </c>
-      <c r="M1212" t="n">
+      <c r="M1216" t="n">
         <v>30000</v>
       </c>
-      <c r="N1212" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O1212" t="inlineStr">
+      <c r="N1216" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1216" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1212" t="n">
+      <c r="P1216" t="n">
         <v>2000</v>
       </c>
-      <c r="Q1212" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1212" t="inlineStr">
+      <c r="Q1216" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1216" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1249"/>
+  <dimension ref="A1:R1251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1236" t="n">
         <v>9</v>
@@ -89340,25 +89340,25 @@
       </c>
       <c r="H1236" t="inlineStr">
         <is>
-          <t>Cuatro cascos rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="K1236" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L1236" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M1236" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89367,11 +89367,11 @@
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>889</v>
+        <v>1667</v>
       </c>
       <c r="Q1236" t="n">
         <v>18</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1237" t="n">
         <v>9</v>
@@ -89412,41 +89412,41 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="K1237" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="L1237" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="M1237" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1237" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>722</v>
+        <v>2333</v>
       </c>
       <c r="Q1237" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1237" t="inlineStr">
         <is>
@@ -89484,25 +89484,25 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="K1238" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L1238" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M1238" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89515,7 +89515,7 @@
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="Q1238" t="n">
         <v>18</v>
@@ -89556,7 +89556,7 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Morrón rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
@@ -89565,16 +89565,16 @@
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="K1239" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L1239" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M1239" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89587,7 +89587,7 @@
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>889</v>
+        <v>722</v>
       </c>
       <c r="Q1239" t="n">
         <v>18</v>
@@ -89628,41 +89628,41 @@
       </c>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K1240" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L1240" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M1240" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1240" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q1240" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1240" t="inlineStr">
         <is>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1241" t="n">
         <v>9</v>
@@ -89700,7 +89700,7 @@
       </c>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Morrón rojo</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
@@ -89709,32 +89709,32 @@
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K1241" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L1241" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M1241" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1241" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>1867</v>
+        <v>889</v>
       </c>
       <c r="Q1241" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1241" t="inlineStr">
         <is>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1242" t="n">
         <v>9</v>
@@ -89772,7 +89772,7 @@
       </c>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
@@ -89781,16 +89781,16 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="K1242" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="L1242" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M1242" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89799,11 +89799,11 @@
       </c>
       <c r="O1242" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q1242" t="n">
         <v>15</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1243" t="n">
         <v>9</v>
@@ -89849,20 +89849,20 @@
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="K1243" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L1243" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M1243" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>2000</v>
+        <v>1867</v>
       </c>
       <c r="Q1243" t="n">
         <v>15</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1244" t="n">
         <v>9</v>
@@ -89916,7 +89916,7 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K1244" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L1244" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M1244" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89943,11 +89943,11 @@
       </c>
       <c r="O1244" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>1867</v>
+        <v>1000</v>
       </c>
       <c r="Q1244" t="n">
         <v>15</v>
@@ -89988,25 +89988,25 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K1245" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L1245" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M1245" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90019,7 +90019,7 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>1333</v>
+        <v>2000</v>
       </c>
       <c r="Q1245" t="n">
         <v>15</v>
@@ -90060,7 +90060,7 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
@@ -90069,16 +90069,16 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="K1246" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L1246" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M1246" t="n">
-        <v>14412</v>
+        <v>28000</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90087,11 +90087,11 @@
       </c>
       <c r="O1246" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>961</v>
+        <v>1867</v>
       </c>
       <c r="Q1246" t="n">
         <v>15</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1247" t="n">
         <v>9</v>
@@ -90132,25 +90132,25 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K1247" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="L1247" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M1247" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90163,7 +90163,7 @@
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>3000</v>
+        <v>1333</v>
       </c>
       <c r="Q1247" t="n">
         <v>15</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1248" t="n">
         <v>9</v>
@@ -90204,7 +90204,7 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K1248" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="L1248" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="M1248" t="n">
-        <v>40000</v>
+        <v>14412</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90231,11 +90231,11 @@
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>2667</v>
+        <v>961</v>
       </c>
       <c r="Q1248" t="n">
         <v>15</v>
@@ -90276,43 +90276,187 @@
       </c>
       <c r="H1249" t="inlineStr">
         <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1249" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1249" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>45000</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>45000</v>
+      </c>
+      <c r="N1249" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1249" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1249" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1249" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1250" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1250" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1250" t="n">
+        <v>180</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>40000</v>
+      </c>
+      <c r="N1250" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1250" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1250" t="n">
+        <v>2667</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1250" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1251" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
           <t>Zafiro verde</t>
         </is>
       </c>
-      <c r="I1249" t="inlineStr">
+      <c r="I1251" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1249" t="n">
+      <c r="J1251" t="n">
         <v>150</v>
       </c>
-      <c r="K1249" t="n">
+      <c r="K1251" t="n">
         <v>30000</v>
       </c>
-      <c r="L1249" t="n">
+      <c r="L1251" t="n">
         <v>30000</v>
       </c>
-      <c r="M1249" t="n">
+      <c r="M1251" t="n">
         <v>30000</v>
       </c>
-      <c r="N1249" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O1249" t="inlineStr">
+      <c r="N1251" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1251" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1249" t="n">
+      <c r="P1251" t="n">
         <v>2000</v>
       </c>
-      <c r="Q1249" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1249" t="inlineStr">
+      <c r="Q1251" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1251" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Pimiento.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1320"/>
+  <dimension ref="A1:R1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44432</v>
+        <v>44656</v>
       </c>
       <c r="E1304" t="n">
         <v>9</v>
@@ -94236,41 +94236,41 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos rojo</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K1304" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L1304" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M1304" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1304" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>2333</v>
+        <v>1389</v>
       </c>
       <c r="Q1304" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1304" t="inlineStr">
         <is>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44432</v>
+        <v>44656</v>
       </c>
       <c r="E1305" t="n">
         <v>9</v>
@@ -94308,41 +94308,41 @@
       </c>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K1305" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L1305" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M1305" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1305" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>2000</v>
+        <v>833</v>
       </c>
       <c r="Q1305" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1305" t="inlineStr">
         <is>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44515</v>
+        <v>44432</v>
       </c>
       <c r="E1306" t="n">
         <v>9</v>
@@ -94385,20 +94385,20 @@
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="K1306" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L1306" t="n">
-        <v>48000</v>
+        <v>35000</v>
       </c>
       <c r="M1306" t="n">
-        <v>46596</v>
+        <v>35000</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94411,7 +94411,7 @@
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>3106</v>
+        <v>2333</v>
       </c>
       <c r="Q1306" t="n">
         <v>15</v>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44515</v>
+        <v>44432</v>
       </c>
       <c r="E1307" t="n">
         <v>9</v>
@@ -94452,25 +94452,25 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K1307" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="L1307" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="M1307" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94483,7 +94483,7 @@
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>2867</v>
+        <v>2000</v>
       </c>
       <c r="Q1307" t="n">
         <v>15</v>
@@ -94524,7 +94524,7 @@
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -94533,16 +94533,16 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="K1308" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L1308" t="n">
-        <v>35000</v>
+        <v>48000</v>
       </c>
       <c r="M1308" t="n">
-        <v>35000</v>
+        <v>46596</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94555,7 +94555,7 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>2333</v>
+        <v>3106</v>
       </c>
       <c r="Q1308" t="n">
         <v>15</v>
@@ -94596,41 +94596,41 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K1309" t="n">
-        <v>33000</v>
+        <v>43000</v>
       </c>
       <c r="L1309" t="n">
-        <v>33000</v>
+        <v>43000</v>
       </c>
       <c r="M1309" t="n">
-        <v>33000</v>
+        <v>43000</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1309" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>1833</v>
+        <v>2867</v>
       </c>
       <c r="Q1309" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1309" t="inlineStr">
         <is>
@@ -94673,20 +94673,20 @@
       </c>
       <c r="I1310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K1310" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L1310" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M1310" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94699,7 +94699,7 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>2000</v>
+        <v>2333</v>
       </c>
       <c r="Q1310" t="n">
         <v>15</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="E1311" t="n">
         <v>9</v>
@@ -94740,7 +94740,7 @@
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -94749,32 +94749,32 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K1311" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="L1311" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="M1311" t="n">
-        <v>50000</v>
+        <v>33000</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1311" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>3333</v>
+        <v>1833</v>
       </c>
       <c r="Q1311" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1311" t="inlineStr">
         <is>
@@ -94797,7 +94797,7 @@
         </is>
       </c>
       <c r="D1312" s="2" t="n">
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="E1312" t="n">
         <v>9</v>
@@ -94812,25 +94812,25 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="K1312" t="n">
-        <v>48000</v>
+        <v>30000</v>
       </c>
       <c r="L1312" t="n">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="M1312" t="n">
-        <v>49111</v>
+        <v>30000</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94843,7 +94843,7 @@
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>3274</v>
+        <v>2000</v>
       </c>
       <c r="Q1312" t="n">
         <v>15</v>
@@ -94884,25 +94884,25 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K1313" t="n">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="L1313" t="n">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="M1313" t="n">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94915,7 +94915,7 @@
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>2800</v>
+        <v>3333</v>
       </c>
       <c r="Q1313" t="n">
         <v>15</v>
@@ -94956,7 +94956,7 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Zafiro verde</t>
+          <t>Zafiro rojo</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
@@ -94965,16 +94965,16 @@
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K1314" t="n">
-        <v>30000</v>
+        <v>48000</v>
       </c>
       <c r="L1314" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M1314" t="n">
-        <v>30000</v>
+        <v>49111</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94987,7 +94987,7 @@
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>2000</v>
+        <v>3274</v>
       </c>
       <c r="Q1314" t="n">
         <v>15</v>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44592</v>
+        <v>44508</v>
       </c>
       <c r="E1315" t="n">
         <v>9</v>
@@ -95028,25 +95028,25 @@
       </c>
       <c r="H1315" t="inlineStr">
         <is>
-          <t>Cuatro cascos amarillo</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K1315" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="L1315" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="M1315" t="n">
-        <v>20000</v>
+        <v>42000</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95055,11 +95055,11 @@
       </c>
       <c r="O1315" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>1333</v>
+        <v>2800</v>
       </c>
       <c r="Q1315" t="n">
         <v>15</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44592</v>
+        <v>44508</v>
       </c>
       <c r="E1316" t="n">
         <v>9</v>
@@ -95100,7 +95100,7 @@
       </c>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Zafiro verde</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
@@ -95109,16 +95109,16 @@
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K1316" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L1316" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M1316" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95127,11 +95127,11 @@
       </c>
       <c r="O1316" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q1316" t="n">
         <v>15</v>
@@ -95172,25 +95172,25 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Cuatro cascos verde</t>
+          <t>Cuatro cascos amarillo</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K1317" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="L1317" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M1317" t="n">
-        <v>4765</v>
+        <v>20000</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95203,7 +95203,7 @@
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>318</v>
+        <v>1333</v>
       </c>
       <c r="Q1317" t="n">
         <v>15</v>
@@ -95244,7 +95244,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Zafiro amarillo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -95253,16 +95253,16 @@
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K1318" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L1318" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M1318" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95271,11 +95271,11 @@
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="Q1318" t="n">
         <v>15</v>
@@ -95316,25 +95316,25 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Cuatro cascos verde</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="K1319" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="L1319" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M1319" t="n">
-        <v>21143</v>
+        <v>4765</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95343,11 +95343,11 @@
       </c>
       <c r="O1319" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>1410</v>
+        <v>318</v>
       </c>
       <c r="Q1319" t="n">
         <v>15</v>
@@ -95388,7 +95388,7 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>Zafiro rojo</t>
+          <t>Zafiro amarillo</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
@@ -95397,7 +95397,7 @@
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K1320" t="n">
         <v>25000</v>
@@ -95410,21 +95410,165 @@
       </c>
       <c r="N1320" t="inlineStr">
         <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1320" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1320" t="n">
+        <v>1667</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1320" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1321" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1321" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1321" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1321" t="n">
+        <v>350</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>21143</v>
+      </c>
+      <c r="N1321" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1321" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1321" t="n">
+        <v>1410</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1321" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1322" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>100112002</v>
+      </c>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>Pimiento</t>
+        </is>
+      </c>
+      <c r="H1322" t="inlineStr">
+        <is>
+          <t>Zafiro rojo</t>
+        </is>
+      </c>
+      <c r="I1322" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1322" t="n">
+        <v>100</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N1322" t="inlineStr">
+        <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1320" t="inlineStr">
+      <c r="O1322" t="inlineStr">
         <is>
           <t>Limache</t>
         </is>
       </c>
-      <c r="P1320" t="n">
+      <c r="P1322" t="n">
         <v>1389</v>
       </c>
-      <c r="Q1320" t="n">
+      <c r="Q1322" t="n">
         <v>18</v>
       </c>
-      <c r="R1320" t="inlineStr">
+      <c r="R1322" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
